--- a/reports/For The Week Ending (Actual)_Payroll.xlsx
+++ b/reports/For The Week Ending (Actual)_Payroll.xlsx
@@ -55,105 +55,105 @@
     <t>Lift Operations</t>
   </si>
   <si>
+    <t>A3GJ</t>
+  </si>
+  <si>
+    <t>A0P4</t>
+  </si>
+  <si>
+    <t>G125</t>
+  </si>
+  <si>
+    <t>A29S</t>
+  </si>
+  <si>
+    <t>A1PN</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
+    <t>B197</t>
+  </si>
+  <si>
+    <t>A3JZ</t>
+  </si>
+  <si>
+    <t>A2D1</t>
+  </si>
+  <si>
+    <t>A3JX</t>
+  </si>
+  <si>
+    <t>A3LM</t>
+  </si>
+  <si>
+    <t>J520</t>
+  </si>
+  <si>
     <t>A0HA</t>
   </si>
   <si>
-    <t>J520</t>
-  </si>
-  <si>
-    <t>A3LM</t>
-  </si>
-  <si>
-    <t>A3JX</t>
-  </si>
-  <si>
-    <t>A2D1</t>
+    <t>A2JJ</t>
+  </si>
+  <si>
+    <t>HR</t>
   </si>
   <si>
     <t>A3K1</t>
   </si>
   <si>
-    <t>A3JZ</t>
-  </si>
-  <si>
-    <t>A2JJ</t>
-  </si>
-  <si>
-    <t>HR</t>
-  </si>
-  <si>
-    <t>A3GJ</t>
-  </si>
-  <si>
-    <t>B197</t>
-  </si>
-  <si>
-    <t>A0P4</t>
-  </si>
-  <si>
-    <t>G125</t>
-  </si>
-  <si>
-    <t>A1PN</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>A29S</t>
+    <t>D519</t>
+  </si>
+  <si>
+    <t>D1020</t>
+  </si>
+  <si>
+    <t>Lift Maintenance</t>
+  </si>
+  <si>
+    <t>B903</t>
+  </si>
+  <si>
+    <t>A1JS</t>
   </si>
   <si>
     <t>F406</t>
   </si>
   <si>
-    <t>D1020</t>
-  </si>
-  <si>
-    <t>Lift Maintenance</t>
-  </si>
-  <si>
-    <t>B903</t>
-  </si>
-  <si>
-    <t>D519</t>
-  </si>
-  <si>
     <t>E270</t>
   </si>
   <si>
     <t>E302</t>
   </si>
   <si>
-    <t>A1JS</t>
+    <t>A3IL</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>Snowmaking</t>
+  </si>
+  <si>
+    <t>A3SJ</t>
+  </si>
+  <si>
+    <t>G397</t>
   </si>
   <si>
     <t>H716</t>
   </si>
   <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>Snowmaking</t>
-  </si>
-  <si>
-    <t>A3SJ</t>
-  </si>
-  <si>
-    <t>G397</t>
+    <t>J169</t>
+  </si>
+  <si>
+    <t>A3SK</t>
   </si>
   <si>
     <t>D941</t>
   </si>
   <si>
-    <t>A3SK</t>
-  </si>
-  <si>
-    <t>A3IL</t>
-  </si>
-  <si>
-    <t>J169</t>
-  </si>
-  <si>
     <t>I238</t>
   </si>
   <si>
@@ -163,48 +163,48 @@
     <t>Terrain Park</t>
   </si>
   <si>
+    <t>A3DS</t>
+  </si>
+  <si>
     <t>H125</t>
   </si>
   <si>
+    <t>I540</t>
+  </si>
+  <si>
+    <t>J056</t>
+  </si>
+  <si>
     <t>H101</t>
   </si>
   <si>
-    <t>J056</t>
-  </si>
-  <si>
-    <t>A3DS</t>
-  </si>
-  <si>
-    <t>I540</t>
+    <t>E436</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>Trail Maintenance</t>
   </si>
   <si>
     <t>B797</t>
   </si>
   <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>Trail Maintenance</t>
-  </si>
-  <si>
     <t>E877</t>
   </si>
   <si>
     <t>A23C</t>
   </si>
   <si>
+    <t>B250</t>
+  </si>
+  <si>
+    <t>A1ZX</t>
+  </si>
+  <si>
     <t>A2UN</t>
   </si>
   <si>
-    <t>B250</t>
-  </si>
-  <si>
-    <t>A1ZX</t>
-  </si>
-  <si>
-    <t>E436</t>
-  </si>
-  <si>
     <t>D826</t>
   </si>
   <si>
@@ -220,150 +220,150 @@
     <t>A1T8</t>
   </si>
   <si>
+    <t>D855</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>I762</t>
+  </si>
+  <si>
+    <t>A0JG</t>
+  </si>
+  <si>
     <t>A3L3</t>
   </si>
   <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
+    <t>E950</t>
+  </si>
+  <si>
+    <t>J471</t>
+  </si>
+  <si>
+    <t>H620</t>
+  </si>
+  <si>
+    <t>B162</t>
+  </si>
+  <si>
+    <t>J024</t>
   </si>
   <si>
     <t>B898</t>
   </si>
   <si>
-    <t>H620</t>
-  </si>
-  <si>
-    <t>E950</t>
-  </si>
-  <si>
-    <t>D855</t>
-  </si>
-  <si>
-    <t>I762</t>
-  </si>
-  <si>
-    <t>A0JG</t>
-  </si>
-  <si>
     <t>E471</t>
   </si>
   <si>
+    <t>G076</t>
+  </si>
+  <si>
+    <t>A3LN</t>
+  </si>
+  <si>
+    <t>B924</t>
+  </si>
+  <si>
+    <t>B878</t>
+  </si>
+  <si>
+    <t>A889</t>
+  </si>
+  <si>
     <t>E584</t>
   </si>
   <si>
-    <t>B924</t>
-  </si>
-  <si>
-    <t>B878</t>
-  </si>
-  <si>
-    <t>J471</t>
-  </si>
-  <si>
-    <t>J024</t>
-  </si>
-  <si>
-    <t>G076</t>
-  </si>
-  <si>
-    <t>A3LN</t>
-  </si>
-  <si>
-    <t>B162</t>
-  </si>
-  <si>
-    <t>A889</t>
+    <t>A3S9</t>
+  </si>
+  <si>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>I552</t>
+  </si>
+  <si>
+    <t>D071</t>
+  </si>
+  <si>
+    <t>C173</t>
+  </si>
+  <si>
+    <t>D441</t>
+  </si>
+  <si>
+    <t>A3SA</t>
+  </si>
+  <si>
+    <t>A3NV</t>
+  </si>
+  <si>
+    <t>A3M1</t>
+  </si>
+  <si>
+    <t>A3AD</t>
+  </si>
+  <si>
+    <t>A34H</t>
+  </si>
+  <si>
+    <t>A37H</t>
+  </si>
+  <si>
+    <t>E547</t>
+  </si>
+  <si>
+    <t>A3PB</t>
+  </si>
+  <si>
+    <t>A3NY</t>
+  </si>
+  <si>
+    <t>D126</t>
+  </si>
+  <si>
+    <t>A3NW</t>
+  </si>
+  <si>
+    <t>I563</t>
   </si>
   <si>
     <t>A3M3</t>
   </si>
   <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>Tickets</t>
-  </si>
-  <si>
     <t>A3PT</t>
   </si>
   <si>
-    <t>I563</t>
-  </si>
-  <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>A37H</t>
-  </si>
-  <si>
-    <t>A3S9</t>
+    <t>A1FE</t>
+  </si>
+  <si>
+    <t>A2O6</t>
+  </si>
+  <si>
+    <t>J071</t>
+  </si>
+  <si>
+    <t>A2TY</t>
+  </si>
+  <si>
+    <t>I565</t>
+  </si>
+  <si>
+    <t>A2KR</t>
   </si>
   <si>
     <t>B341</t>
   </si>
   <si>
-    <t>A3PB</t>
-  </si>
-  <si>
-    <t>D126</t>
-  </si>
-  <si>
-    <t>A3NW</t>
-  </si>
-  <si>
-    <t>E547</t>
-  </si>
-  <si>
-    <t>I565</t>
-  </si>
-  <si>
-    <t>A2TY</t>
-  </si>
-  <si>
-    <t>A2KR</t>
-  </si>
-  <si>
-    <t>A3NY</t>
-  </si>
-  <si>
-    <t>C173</t>
-  </si>
-  <si>
-    <t>D071</t>
-  </si>
-  <si>
-    <t>A2O6</t>
-  </si>
-  <si>
-    <t>A1FE</t>
-  </si>
-  <si>
-    <t>D441</t>
-  </si>
-  <si>
-    <t>A3SA</t>
-  </si>
-  <si>
-    <t>A3NV</t>
-  </si>
-  <si>
-    <t>A3M1</t>
-  </si>
-  <si>
-    <t>A3AD</t>
-  </si>
-  <si>
-    <t>A34H</t>
-  </si>
-  <si>
-    <t>J071</t>
-  </si>
-  <si>
-    <t>I552</t>
-  </si>
-  <si>
     <t>G327</t>
   </si>
   <si>
@@ -400,24 +400,24 @@
     <t>Purg Sports Main Ave</t>
   </si>
   <si>
+    <t>E655</t>
+  </si>
+  <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>E181</t>
+  </si>
+  <si>
     <t>A2LP</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>E181</t>
-  </si>
-  <si>
     <t>I216</t>
   </si>
   <si>
-    <t>E655</t>
-  </si>
-  <si>
     <t>A3V5</t>
   </si>
   <si>
@@ -439,144 +439,147 @@
     <t>Waffle Cabin</t>
   </si>
   <si>
+    <t>A36T</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
     <t>A3FO</t>
   </si>
   <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
+    <t>G724</t>
+  </si>
+  <si>
+    <t>A3PX</t>
   </si>
   <si>
     <t>I704</t>
   </si>
   <si>
-    <t>A36T</t>
-  </si>
-  <si>
     <t>A3ZI</t>
   </si>
   <si>
-    <t>G724</t>
-  </si>
-  <si>
-    <t>A3PX</t>
+    <t>I518</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>Paradise</t>
+  </si>
+  <si>
+    <t>I517</t>
+  </si>
+  <si>
+    <t>J335</t>
+  </si>
+  <si>
+    <t>A1MU</t>
   </si>
   <si>
     <t>J434</t>
   </si>
   <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
-  </si>
-  <si>
-    <t>I518</t>
-  </si>
-  <si>
-    <t>I517</t>
-  </si>
-  <si>
-    <t>A1MU</t>
-  </si>
-  <si>
-    <t>J335</t>
+    <t>B101</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
+    <t>A739</t>
+  </si>
+  <si>
+    <t>A43Z</t>
+  </si>
+  <si>
+    <t>A3GE</t>
+  </si>
+  <si>
+    <t>A2HN</t>
+  </si>
+  <si>
+    <t>D499</t>
+  </si>
+  <si>
+    <t>D274</t>
+  </si>
+  <si>
+    <t>A3UA</t>
+  </si>
+  <si>
+    <t>I666</t>
   </si>
   <si>
     <t>A2RM</t>
   </si>
   <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
-  </si>
-  <si>
-    <t>A2HN</t>
-  </si>
-  <si>
-    <t>A3GE</t>
-  </si>
-  <si>
-    <t>A43Z</t>
-  </si>
-  <si>
-    <t>A739</t>
+    <t>A15N</t>
+  </si>
+  <si>
+    <t>A3VO</t>
+  </si>
+  <si>
+    <t>A38R</t>
   </si>
   <si>
     <t>A2SG</t>
   </si>
   <si>
-    <t>A38R</t>
-  </si>
-  <si>
-    <t>A15N</t>
-  </si>
-  <si>
-    <t>A3VO</t>
-  </si>
-  <si>
-    <t>I666</t>
-  </si>
-  <si>
-    <t>D274</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
-    <t>D499</t>
-  </si>
-  <si>
-    <t>A3UA</t>
-  </si>
-  <si>
     <t>D5209</t>
   </si>
   <si>
     <t>Village Market Deli</t>
   </si>
   <si>
+    <t>A3DX</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>Purgatory</t>
+  </si>
+  <si>
     <t>I953</t>
   </si>
   <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
+    <t>F298</t>
+  </si>
+  <si>
+    <t>A42C</t>
   </si>
   <si>
     <t>A1N1</t>
   </si>
   <si>
-    <t>A42C</t>
-  </si>
-  <si>
-    <t>A3DX</t>
-  </si>
-  <si>
     <t>D283</t>
   </si>
   <si>
+    <t>F313</t>
+  </si>
+  <si>
     <t>A42D</t>
   </si>
   <si>
-    <t>F313</t>
-  </si>
-  <si>
-    <t>F298</t>
+    <t>I999</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
   </si>
   <si>
     <t>H341</t>
   </si>
   <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
     <t>J492</t>
   </si>
   <si>
@@ -586,9 +589,6 @@
     <t>J489</t>
   </si>
   <si>
-    <t>I999</t>
-  </si>
-  <si>
     <t>C825</t>
   </si>
   <si>
@@ -631,45 +631,45 @@
     <t>Engineering</t>
   </si>
   <si>
+    <t>C516</t>
+  </si>
+  <si>
     <t>A3HC</t>
   </si>
   <si>
-    <t>C516</t>
-  </si>
-  <si>
     <t>A2DH</t>
   </si>
   <si>
     <t>F396</t>
   </si>
   <si>
+    <t>A1WB</t>
+  </si>
+  <si>
     <t>D6780</t>
   </si>
   <si>
     <t>Grounds Maintenance</t>
   </si>
   <si>
+    <t>A2JA</t>
+  </si>
+  <si>
+    <t>A3PE</t>
+  </si>
+  <si>
+    <t>A2UO</t>
+  </si>
+  <si>
     <t>A2SD</t>
   </si>
   <si>
-    <t>A2JA</t>
-  </si>
-  <si>
-    <t>A3PE</t>
-  </si>
-  <si>
-    <t>A2UO</t>
-  </si>
-  <si>
     <t>D736</t>
   </si>
   <si>
     <t>E609</t>
   </si>
   <si>
-    <t>A1WB</t>
-  </si>
-  <si>
     <t>A3N2</t>
   </si>
   <si>
@@ -703,12 +703,12 @@
     <t>Marketing</t>
   </si>
   <si>
+    <t>A1Z8</t>
+  </si>
+  <si>
     <t>F033</t>
   </si>
   <si>
-    <t>A1Z8</t>
-  </si>
-  <si>
     <t>A3WZ</t>
   </si>
   <si>
@@ -721,6 +721,9 @@
     <t>D737</t>
   </si>
   <si>
+    <t>A1BT</t>
+  </si>
+  <si>
     <t>D8040</t>
   </si>
   <si>
@@ -728,9 +731,6 @@
   </si>
   <si>
     <t>A39Q</t>
-  </si>
-  <si>
-    <t>A1BT</t>
   </si>
   <si>
     <t>A1ZP</t>
@@ -1184,13 +1184,13 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>45993.30665509259</v>
+        <v>45992.28857638889</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>45993.723125</v>
+        <v>45992.71381944444</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>10</v>
@@ -1199,7 +1199,7 @@
         <v>11</v>
       </c>
       <c r="G3" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1207,16 +1207,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>45992.28875</v>
+        <v>45993.31125</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>45992.71085648148</v>
+        <v>45993.72252314815</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -1236,13 +1236,13 @@
         <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>45992.29674768518</v>
+        <v>45992.3065162037</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>45992.71288194445</v>
+        <v>45992.71550925926</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -1251,7 +1251,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="2">
-        <v>23.69</v>
+        <v>15.5</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1262,13 +1262,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>45993.29893518519</v>
+        <v>45993.31658564815</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>45993.70039351852</v>
+        <v>45993.70996527778</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -1277,7 +1277,7 @@
         <v>11</v>
       </c>
       <c r="G6" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>12</v>
@@ -1285,16 +1285,16 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>45993.29755787037</v>
+        <v>45992.32587962963</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>45993.70832175926</v>
+        <v>45992.68709490741</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -1303,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -1311,16 +1311,16 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B8" s="2">
-        <v>45992.31201388889</v>
+        <v>45993.32325231482</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>45992.68565972222</v>
+        <v>45993.70679398148</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -1329,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -1337,16 +1337,16 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45992.55469907408</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2">
-        <v>45992.32686342593</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D9" s="2">
-        <v>45992.70833333334</v>
+        <v>45992.68180555556</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -1355,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -1366,13 +1366,13 @@
         <v>19</v>
       </c>
       <c r="B10" s="2">
-        <v>45992.33238425926</v>
+        <v>45992.29747685185</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>45992.67116898148</v>
+        <v>45992.68304398148</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -1381,7 +1381,7 @@
         <v>11</v>
       </c>
       <c r="G10" s="2">
-        <v>15</v>
+        <v>19.57</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>12</v>
@@ -1392,22 +1392,22 @@
         <v>20</v>
       </c>
       <c r="B11" s="2">
-        <v>45993.29166666666</v>
+        <v>45992.33238425926</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>45993.29166666666</v>
+        <v>45992.67116898148</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
@@ -1415,16 +1415,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>45992.28857638889</v>
+        <v>45993.29910879629</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>45992.71381944444</v>
+        <v>45993.7230324074</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="2">
-        <v>16</v>
+        <v>19.57</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>12</v>
@@ -1441,16 +1441,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B13" s="2">
-        <v>45992.29166666666</v>
+        <v>45992.31201388889</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>45992.71875</v>
+        <v>45992.68565972222</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" s="2">
-        <v>45993.29910879629</v>
+        <v>45993.29755787037</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>45993.7230324074</v>
+        <v>45993.70832175926</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="2">
-        <v>19.57</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
@@ -1496,13 +1496,13 @@
         <v>23</v>
       </c>
       <c r="B15" s="2">
-        <v>45992.29747685185</v>
+        <v>45993.29893518519</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D15" s="2">
-        <v>45992.68304398148</v>
+        <v>45993.70039351852</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="2">
-        <v>19.57</v>
+        <v>16</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>12</v>
@@ -1522,13 +1522,13 @@
         <v>24</v>
       </c>
       <c r="B16" s="2">
-        <v>45993.31125</v>
+        <v>45992.29674768518</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>45993.72252314815</v>
+        <v>45992.71288194445</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="2">
-        <v>15.5</v>
+        <v>23.69</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
@@ -1545,16 +1545,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17" s="2">
-        <v>45992.71596064815</v>
+        <v>45992.28875</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2">
-        <v>45992.71875</v>
+        <v>45992.71085648148</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -1563,7 +1563,7 @@
         <v>11</v>
       </c>
       <c r="G17" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>12</v>
@@ -1574,13 +1574,13 @@
         <v>25</v>
       </c>
       <c r="B18" s="2">
-        <v>45993.31658564815</v>
+        <v>45993.30665509259</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>45993.70996527778</v>
+        <v>45993.723125</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -1600,13 +1600,13 @@
         <v>26</v>
       </c>
       <c r="B19" s="2">
-        <v>45992.55469907408</v>
+        <v>45992.71596064815</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D19" s="2">
-        <v>45992.68180555556</v>
+        <v>45992.71875</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>10</v>
@@ -1615,7 +1615,7 @@
         <v>11</v>
       </c>
       <c r="G19" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>12</v>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>45992.3065162037</v>
+        <v>45992.29166666666</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>45992.71550925926</v>
+        <v>45992.71875</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -1641,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>12</v>
@@ -1649,25 +1649,25 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B21" s="2">
-        <v>45992.32587962963</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D21" s="2">
-        <v>45992.68709490741</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G21" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>12</v>
@@ -1678,13 +1678,13 @@
         <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>45993.32325231482</v>
+        <v>45992.32686342593</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2">
-        <v>45993.70679398148</v>
+        <v>45992.70833333334</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="2">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>12</v>
@@ -1704,13 +1704,13 @@
         <v>29</v>
       </c>
       <c r="B23" s="2">
-        <v>45992.26055555556</v>
+        <v>45993.27314814815</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D23" s="2">
-        <v>45992.68293981482</v>
+        <v>45993.70487268519</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>10</v>
@@ -1719,7 +1719,7 @@
         <v>30</v>
       </c>
       <c r="G23" s="2">
-        <v>25.69</v>
+        <v>21.57</v>
       </c>
       <c r="H23" s="2" t="s">
         <v>31</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B25" s="2">
         <v>45992.27606481482</v>
@@ -1782,13 +1782,13 @@
         <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>45993.27314814815</v>
+        <v>45992.27179398148</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2">
-        <v>45993.70487268519</v>
+        <v>45992.69628472222</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -1797,7 +1797,7 @@
         <v>30</v>
       </c>
       <c r="G26" s="2">
-        <v>21.57</v>
+        <v>17</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>31</v>
@@ -1808,13 +1808,13 @@
         <v>34</v>
       </c>
       <c r="B27" s="2">
-        <v>45992.27777777778</v>
+        <v>45992.26055555556</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2">
-        <v>45992.70017361111</v>
+        <v>45992.68293981482</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -1823,7 +1823,7 @@
         <v>30</v>
       </c>
       <c r="G27" s="2">
-        <v>35.43</v>
+        <v>25.69</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>31</v>
@@ -1831,7 +1831,7 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B28" s="2">
         <v>45993.26789351852</v>
@@ -1857,7 +1857,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B29" s="2">
         <v>45992.27083333334</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2">
         <v>45993.27181712963</v>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B31" s="2">
-        <v>45992.27179398148</v>
+        <v>45992.27777777778</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>45992.69628472222</v>
+        <v>45992.70017361111</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         <v>30</v>
       </c>
       <c r="G31" s="2">
-        <v>17</v>
+        <v>35.43</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>31</v>
@@ -1938,13 +1938,13 @@
         <v>37</v>
       </c>
       <c r="B32" s="2">
-        <v>45992.47134259259</v>
+        <v>45993.38255787037</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D32" s="2">
-        <v>45992.95304398148</v>
+        <v>45993.70826388889</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>10</v>
@@ -1953,7 +1953,7 @@
         <v>38</v>
       </c>
       <c r="G32" s="2">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>39</v>
@@ -1961,16 +1961,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B33" s="2">
-        <v>45993.46209490741</v>
+        <v>45992.4428587963</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2">
-        <v>45993.97168981482</v>
+        <v>45992.98121527778</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -1979,7 +1979,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="2">
-        <v>15</v>
+        <v>19.1</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>39</v>
@@ -1987,16 +1987,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B34" s="2">
-        <v>45992.4428587963</v>
+        <v>45992.46755787037</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2">
-        <v>45992.98121527778</v>
+        <v>45992.98403935185</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -2005,7 +2005,7 @@
         <v>38</v>
       </c>
       <c r="G34" s="2">
-        <v>19.1</v>
+        <v>18.55</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>39</v>
@@ -2016,17 +2016,13 @@
         <v>41</v>
       </c>
       <c r="B35" s="2">
-        <v>45992.46755787037</v>
+        <v>45993.44041666666</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D35" s="2">
-        <v>45992.98403935185</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
         <v>38</v>
       </c>
@@ -2039,21 +2035,25 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B36" s="2">
-        <v>45993.44041666666</v>
+        <v>45992.47134259259</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="2">
+        <v>45992.95304398148</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F36" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G36" s="2">
-        <v>18.55</v>
+        <v>15</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>39</v>
@@ -2064,13 +2064,13 @@
         <v>42</v>
       </c>
       <c r="B37" s="2">
-        <v>45993.4521875</v>
+        <v>45993.46209490741</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D37" s="2">
-        <v>45994.0188425926</v>
+        <v>45993.97168981482</v>
       </c>
       <c r="E37" s="2" t="s">
         <v>10</v>
@@ -2079,7 +2079,7 @@
         <v>38</v>
       </c>
       <c r="G37" s="2">
-        <v>18.55</v>
+        <v>15</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>39</v>
@@ -2090,22 +2090,18 @@
         <v>43</v>
       </c>
       <c r="B38" s="2">
-        <v>45993.45630787037</v>
+        <v>45992.43916666666</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D38" s="2">
-        <v>45994.00210648148</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G38" s="2">
-        <v>19.1</v>
+        <v>18.55</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>39</v>
@@ -2113,7 +2109,7 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B39" s="2">
         <v>45992.46368055556</v>
@@ -2142,13 +2138,13 @@
         <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>45993.38255787037</v>
+        <v>45993.45630787037</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D40" s="2">
-        <v>45993.70826388889</v>
+        <v>45994.00210648148</v>
       </c>
       <c r="E40" s="2" t="s">
         <v>10</v>
@@ -2157,7 +2153,7 @@
         <v>38</v>
       </c>
       <c r="G40" s="2">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>39</v>
@@ -2168,13 +2164,17 @@
         <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>45992.43916666666</v>
+        <v>45993.4521875</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
+      <c r="D41" s="2">
+        <v>45994.0188425926</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F41" s="2" t="s">
         <v>38</v>
       </c>
@@ -2216,18 +2216,22 @@
         <v>49</v>
       </c>
       <c r="B43" s="2">
-        <v>45993.67045138889</v>
+        <v>45993.3184375</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2">
+        <v>45993.73899305556</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G43" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>48</v>
@@ -2235,21 +2239,25 @@
     </row>
     <row r="44" spans="1:8">
       <c r="A44" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B44" s="2">
-        <v>45993.3125</v>
+        <v>45992.3125</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="D44" s="2">
+        <v>45992.94791666666</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F44" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G44" s="2">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>48</v>
@@ -2257,20 +2265,16 @@
     </row>
     <row r="45" spans="1:8">
       <c r="A45" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B45" s="2">
-        <v>45992.31195601852</v>
+        <v>45993.67045138889</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D45" s="2">
-        <v>45992.73530092592</v>
-      </c>
-      <c r="E45" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
       <c r="F45" s="2" t="s">
         <v>47</v>
       </c>
@@ -2283,16 +2287,16 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
-        <v>45992.3125</v>
+        <v>45993.31822916667</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D46" s="2">
-        <v>45992.94791666666</v>
+        <v>45993.73927083334</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>10</v>
@@ -2301,7 +2305,7 @@
         <v>47</v>
       </c>
       <c r="G46" s="2">
-        <v>26</v>
+        <v>12.35</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>48</v>
@@ -2312,13 +2316,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="2">
-        <v>45993.3184375</v>
+        <v>45992.31195601852</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2">
-        <v>45993.73899305556</v>
+        <v>45992.73530092592</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -2327,7 +2331,7 @@
         <v>47</v>
       </c>
       <c r="G47" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>48</v>
@@ -2338,22 +2342,18 @@
         <v>53</v>
       </c>
       <c r="B48" s="2">
-        <v>45993.31822916667</v>
+        <v>45993.3125</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="2">
-        <v>45993.73927083334</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G48" s="2">
-        <v>12.35</v>
+        <v>20</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>48</v>
@@ -2364,13 +2364,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="2">
-        <v>45993.95633101852</v>
+        <v>45993.72826388889</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2">
-        <v>45994.46997685185</v>
+        <v>45994.21900462963</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -2379,7 +2379,7 @@
         <v>55</v>
       </c>
       <c r="G49" s="2">
-        <v>19.5</v>
+        <v>23</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>56</v>
@@ -2390,18 +2390,22 @@
         <v>57</v>
       </c>
       <c r="B50" s="2">
-        <v>45993.46145833333</v>
+        <v>45993.95633101852</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
+      <c r="D50" s="2">
+        <v>45994.46997685185</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F50" s="2" t="s">
         <v>55</v>
       </c>
       <c r="G50" s="2">
-        <v>16.5</v>
+        <v>19.5</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>56</v>
@@ -2409,20 +2413,16 @@
     </row>
     <row r="51" spans="1:8">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B51" s="2">
-        <v>45992.46166666667</v>
+        <v>45993.46145833333</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D51" s="2">
-        <v>45992.97331018518</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
       <c r="F51" s="2" t="s">
         <v>55</v>
       </c>
@@ -2438,13 +2438,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="2">
-        <v>45992.44806712963</v>
+        <v>45992.46166666667</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2">
-        <v>45992.78056712963</v>
+        <v>45992.97331018518</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -2453,7 +2453,7 @@
         <v>55</v>
       </c>
       <c r="G52" s="2">
-        <v>18.36</v>
+        <v>16.5</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>56</v>
@@ -2464,13 +2464,13 @@
         <v>59</v>
       </c>
       <c r="B53" s="2">
-        <v>45993.47743055555</v>
+        <v>45992.44806712963</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2">
-        <v>45993.95138888889</v>
+        <v>45992.78056712963</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -2479,7 +2479,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="2">
-        <v>23.33</v>
+        <v>18.36</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>56</v>
@@ -2487,16 +2487,16 @@
     </row>
     <row r="54" spans="1:8">
       <c r="A54" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B54" s="2">
-        <v>45992.48701388889</v>
+        <v>45992.98611111111</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2">
-        <v>45992.58333333334</v>
+        <v>45993.54166666666</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -2505,7 +2505,7 @@
         <v>55</v>
       </c>
       <c r="G54" s="2">
-        <v>23.33</v>
+        <v>24.26</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>56</v>
@@ -2513,16 +2513,16 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B55" s="2">
-        <v>45992.98611111111</v>
+        <v>45993.97611111111</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2">
-        <v>45993.54166666666</v>
+        <v>45994.45969907408</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -2531,7 +2531,7 @@
         <v>55</v>
       </c>
       <c r="G55" s="2">
-        <v>24.26</v>
+        <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>56</v>
@@ -2542,13 +2542,13 @@
         <v>61</v>
       </c>
       <c r="B56" s="2">
-        <v>45993.97611111111</v>
+        <v>45992.92275462963</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2">
-        <v>45994.45969907408</v>
+        <v>45993.4577662037</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -2568,13 +2568,13 @@
         <v>62</v>
       </c>
       <c r="B57" s="2">
-        <v>45993.72826388889</v>
+        <v>45993.47743055555</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2">
-        <v>45994.21900462963</v>
+        <v>45993.95138888889</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -2583,7 +2583,7 @@
         <v>55</v>
       </c>
       <c r="G57" s="2">
-        <v>23</v>
+        <v>23.33</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>56</v>
@@ -2591,16 +2591,16 @@
     </row>
     <row r="58" spans="1:8">
       <c r="A58" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>45993.28452546296</v>
+        <v>45992.48701388889</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2">
-        <v>45993.72278935185</v>
+        <v>45992.58333333334</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -2609,7 +2609,7 @@
         <v>55</v>
       </c>
       <c r="G58" s="2">
-        <v>26</v>
+        <v>23.33</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>56</v>
@@ -2620,13 +2620,13 @@
         <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>45992.28890046296</v>
+        <v>45993.28452546296</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2">
-        <v>45992.71565972222</v>
+        <v>45993.72278935185</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -2643,16 +2643,16 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2">
-        <v>45992.92275462963</v>
+        <v>45992.28890046296</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D60" s="2">
-        <v>45993.4577662037</v>
+        <v>45992.71565972222</v>
       </c>
       <c r="E60" s="2" t="s">
         <v>10</v>
@@ -2661,7 +2661,7 @@
         <v>55</v>
       </c>
       <c r="G60" s="2">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>56</v>
@@ -2672,13 +2672,13 @@
         <v>64</v>
       </c>
       <c r="B61" s="2">
-        <v>45993.22570601852</v>
+        <v>45992.14164351852</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2">
-        <v>45993.72601851852</v>
+        <v>45992.66263888889</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -2695,16 +2695,16 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>45992.23543981482</v>
+        <v>45993.22570601852</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2">
-        <v>45992.70652777778</v>
+        <v>45993.72601851852</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -2713,7 +2713,7 @@
         <v>65</v>
       </c>
       <c r="G62" s="2">
-        <v>22.66</v>
+        <v>27</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>66</v>
@@ -2724,13 +2724,13 @@
         <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>45993.22068287037</v>
+        <v>45992.23543981482</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2">
-        <v>45993.70631944444</v>
+        <v>45992.70652777778</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -2747,16 +2747,16 @@
     </row>
     <row r="64" spans="1:8">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B64" s="2">
-        <v>45992.14164351852</v>
+        <v>45993.22068287037</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2">
-        <v>45992.66263888889</v>
+        <v>45993.70631944444</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -2765,7 +2765,7 @@
         <v>65</v>
       </c>
       <c r="G64" s="2">
-        <v>27</v>
+        <v>22.66</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>66</v>
@@ -2776,13 +2776,13 @@
         <v>68</v>
       </c>
       <c r="B65" s="2">
-        <v>45992.31442129629</v>
+        <v>45992.31655092593</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2">
-        <v>45992.71223379629</v>
+        <v>45992.71273148148</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -2791,7 +2791,7 @@
         <v>69</v>
       </c>
       <c r="G65" s="2">
-        <v>19.03</v>
+        <v>21.06</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>70</v>
@@ -2802,13 +2802,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="2">
-        <v>45992.31704861111</v>
+        <v>45993.71408564815</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2">
-        <v>45992.7106712963</v>
+        <v>45993.71423611111</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -2817,7 +2817,7 @@
         <v>69</v>
       </c>
       <c r="G66" s="2">
-        <v>25.09</v>
+        <v>19.77</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>70</v>
@@ -2825,16 +2825,16 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B67" s="2">
-        <v>45993.31162037037</v>
+        <v>45993.31208333333</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2">
-        <v>45993.71590277777</v>
+        <v>45993.71381944444</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -2843,7 +2843,7 @@
         <v>69</v>
       </c>
       <c r="G67" s="2">
-        <v>22.34</v>
+        <v>19.77</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>70</v>
@@ -2851,16 +2851,16 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B68" s="2">
-        <v>45993.31121527778</v>
+        <v>45992.31633101852</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2">
-        <v>45993.7146875</v>
+        <v>45992.71246527778</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -2869,7 +2869,7 @@
         <v>69</v>
       </c>
       <c r="G68" s="2">
-        <v>19</v>
+        <v>19.77</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>70</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B69" s="2">
-        <v>45992.31655092593</v>
+        <v>45993.31672453704</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2">
-        <v>45992.71273148148</v>
+        <v>45993.71502314815</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -2895,7 +2895,7 @@
         <v>69</v>
       </c>
       <c r="G69" s="2">
-        <v>21.06</v>
+        <v>19</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>70</v>
@@ -2903,16 +2903,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B70" s="2">
-        <v>45993.71408564815</v>
+        <v>45992.3168287037</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2">
-        <v>45993.71423611111</v>
+        <v>45992.71090277778</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -2921,7 +2921,7 @@
         <v>69</v>
       </c>
       <c r="G70" s="2">
-        <v>19.77</v>
+        <v>19</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>70</v>
@@ -2929,16 +2929,16 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B71" s="2">
-        <v>45993.31208333333</v>
+        <v>45992.31442129629</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2">
-        <v>45993.71381944444</v>
+        <v>45992.71223379629</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -2947,7 +2947,7 @@
         <v>69</v>
       </c>
       <c r="G71" s="2">
-        <v>19.77</v>
+        <v>19.03</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>70</v>
@@ -2955,16 +2955,16 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B72" s="2">
-        <v>45992.31633101852</v>
+        <v>45993.31137731481</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2">
-        <v>45992.71246527778</v>
+        <v>45993.71450231481</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -2973,7 +2973,7 @@
         <v>69</v>
       </c>
       <c r="G72" s="2">
-        <v>19.77</v>
+        <v>19.03</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>70</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B73" s="2">
-        <v>45993.31672453704</v>
+        <v>45992.31878472222</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2">
-        <v>45993.71502314815</v>
+        <v>45992.71140046296</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -3007,16 +3007,16 @@
     </row>
     <row r="74" spans="1:8">
       <c r="A74" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B74" s="2">
-        <v>45992.3168287037</v>
+        <v>45993.44508101852</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2">
-        <v>45992.71090277778</v>
+        <v>45993.61892361111</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -3025,7 +3025,7 @@
         <v>69</v>
       </c>
       <c r="G74" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>70</v>
@@ -3033,16 +3033,16 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>45993.31199074074</v>
+        <v>45993.31162037037</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2">
-        <v>45993.71875</v>
+        <v>45993.71590277777</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -3051,7 +3051,7 @@
         <v>69</v>
       </c>
       <c r="G75" s="2">
-        <v>24.59</v>
+        <v>22.34</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>70</v>
@@ -3059,16 +3059,16 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B76" s="2">
-        <v>45992.31730324074</v>
+        <v>45993.31616898148</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2">
-        <v>45992.71188657408</v>
+        <v>45993.71172453704</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
@@ -3077,7 +3077,7 @@
         <v>69</v>
       </c>
       <c r="G76" s="2">
-        <v>22.59</v>
+        <v>16.63</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>70</v>
@@ -3085,16 +3085,16 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B77" s="2">
-        <v>45993.31284722222</v>
+        <v>45992.32019675926</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2">
-        <v>45993.71363425926</v>
+        <v>45992.71041666667</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
@@ -3103,7 +3103,7 @@
         <v>69</v>
       </c>
       <c r="G77" s="2">
-        <v>18.77</v>
+        <v>24.09</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>70</v>
@@ -3111,16 +3111,16 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>45992.3171875</v>
+        <v>45993.31699074074</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2">
-        <v>45992.71112268518</v>
+        <v>45993.71618055556</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -3129,7 +3129,7 @@
         <v>69</v>
       </c>
       <c r="G78" s="2">
-        <v>25.84</v>
+        <v>24.09</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>70</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="B79" s="2">
-        <v>45992.31878472222</v>
+        <v>45992.31704861111</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2">
-        <v>45992.71140046296</v>
+        <v>45992.7106712963</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
@@ -3155,7 +3155,7 @@
         <v>69</v>
       </c>
       <c r="G79" s="2">
-        <v>19</v>
+        <v>25.09</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>70</v>
@@ -3163,16 +3163,16 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>45993.44508101852</v>
+        <v>45993.31684027778</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2">
-        <v>45993.61892361111</v>
+        <v>45993.71487268519</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>10</v>
@@ -3181,7 +3181,7 @@
         <v>69</v>
       </c>
       <c r="G80" s="2">
-        <v>22</v>
+        <v>25.09</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>70</v>
@@ -3189,16 +3189,16 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>45993.31699074074</v>
+        <v>45993.31199074074</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2">
-        <v>45993.71618055556</v>
+        <v>45993.71875</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         <v>69</v>
       </c>
       <c r="G81" s="2">
-        <v>24.09</v>
+        <v>24.59</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>70</v>
@@ -3215,16 +3215,16 @@
     </row>
     <row r="82" spans="1:8">
       <c r="A82" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>45992.32019675926</v>
+        <v>45993.32466435185</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2">
-        <v>45992.71041666667</v>
+        <v>45993.7155787037</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
@@ -3233,7 +3233,7 @@
         <v>69</v>
       </c>
       <c r="G82" s="2">
-        <v>24.09</v>
+        <v>23.84</v>
       </c>
       <c r="H82" s="2" t="s">
         <v>70</v>
@@ -3241,16 +3241,16 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B83" s="2">
-        <v>45993.32466435185</v>
+        <v>45992.31818287037</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2">
-        <v>45993.7155787037</v>
+        <v>45992.70214120371</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
@@ -3259,7 +3259,7 @@
         <v>69</v>
       </c>
       <c r="G83" s="2">
-        <v>23.84</v>
+        <v>18.03</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>70</v>
@@ -3267,16 +3267,16 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B84" s="2">
-        <v>45992.31818287037</v>
+        <v>45993.31284722222</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2">
-        <v>45992.70214120371</v>
+        <v>45993.71363425926</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
@@ -3285,7 +3285,7 @@
         <v>69</v>
       </c>
       <c r="G84" s="2">
-        <v>18.03</v>
+        <v>18.77</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>70</v>
@@ -3293,16 +3293,16 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="B85" s="2">
-        <v>45993.31684027778</v>
+        <v>45992.3171875</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2">
-        <v>45993.71487268519</v>
+        <v>45992.71112268518</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
@@ -3311,7 +3311,7 @@
         <v>69</v>
       </c>
       <c r="G85" s="2">
-        <v>25.09</v>
+        <v>25.84</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>70</v>
@@ -3322,13 +3322,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="2">
-        <v>45993.31616898148</v>
+        <v>45992.31912037037</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2">
-        <v>45993.71172453704</v>
+        <v>45992.71261574074</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>10</v>
@@ -3337,7 +3337,7 @@
         <v>69</v>
       </c>
       <c r="G86" s="2">
-        <v>16.63</v>
+        <v>12.56</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>70</v>
@@ -3345,16 +3345,16 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="B87" s="2">
-        <v>45993.31137731481</v>
+        <v>45992.36817129629</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2">
-        <v>45993.71450231481</v>
+        <v>45992.60943287037</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -3363,7 +3363,7 @@
         <v>69</v>
       </c>
       <c r="G87" s="2">
-        <v>19.03</v>
+        <v>22</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>70</v>
@@ -3371,16 +3371,16 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B88" s="2">
-        <v>45992.31912037037</v>
+        <v>45993.31121527778</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2">
-        <v>45992.71261574074</v>
+        <v>45993.7146875</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -3389,7 +3389,7 @@
         <v>69</v>
       </c>
       <c r="G88" s="2">
-        <v>12.56</v>
+        <v>19</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>70</v>
@@ -3397,16 +3397,16 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B89" s="2">
-        <v>45992.36817129629</v>
+        <v>45992.31730324074</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2">
-        <v>45992.60943287037</v>
+        <v>45992.71188657408</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -3415,7 +3415,7 @@
         <v>69</v>
       </c>
       <c r="G89" s="2">
-        <v>22</v>
+        <v>22.59</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>70</v>
@@ -3426,524 +3426,518 @@
         <v>87</v>
       </c>
       <c r="B90" s="2">
-        <v>45993.54019675926</v>
+        <v>45992.33369212963</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D90" s="2">
-        <v>45993.70605324074</v>
+        <v>45992.48134259259</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G90" s="2">
         <v>17.5</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="91" spans="1:8">
       <c r="A91" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B91" s="2">
-        <v>45993.58587962963</v>
+        <v>45992.32556712963</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2">
-        <v>45993.75435185185</v>
+        <v>45992.56069444444</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G91" s="2">
         <v>17.5</v>
       </c>
       <c r="H91" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45993.54564814815</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D92" s="2">
+        <v>45993.71084490741</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="G92" s="2">
+        <v>16</v>
+      </c>
+      <c r="H92" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="B92" s="2">
-        <v>45993.33037037037</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D92" s="2">
-        <v>45993.50478009259</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G92" s="2">
-        <v>17.5</v>
-      </c>
-      <c r="H92" s="2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B93" s="2">
-        <v>45993.33226851852</v>
+        <v>45992.54113425926</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D93" s="2">
-        <v>45993.48760416666</v>
+        <v>45992.70725694444</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G93" s="2">
         <v>16</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B94" s="2">
-        <v>45993.33644675926</v>
+        <v>45993.375</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2">
-        <v>45993.52070601852</v>
+        <v>45993.70833333334</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G94" s="2">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="B95" s="2">
-        <v>45992.55483796296</v>
+        <v>45992.375</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D95" s="2">
-        <v>45992.68207175926</v>
+        <v>45992.66666666666</v>
       </c>
       <c r="E95" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G95" s="2">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="B96" s="2">
-        <v>45992.33802083333</v>
+        <v>45992.34856481481</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2">
-        <v>45992.51306712963</v>
+        <v>45992.3864699074</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G96" s="2">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="B97" s="2">
-        <v>45992.33506944445</v>
+        <v>45993.52398148148</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D97" s="2">
-        <v>45992.53091435185</v>
+        <v>45993.6846412037</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G97" s="2">
-        <v>15.5</v>
+        <v>18</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B98" s="2">
-        <v>45992.33872685185</v>
+        <v>45993.33459490741</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D98" s="2">
-        <v>45992.46394675926</v>
+        <v>45993.49261574074</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G98" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B99" s="2">
-        <v>45993.59668981482</v>
+        <v>45992.58239583333</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D99" s="2">
-        <v>45993.70082175926</v>
+        <v>45992.67513888889</v>
       </c>
       <c r="E99" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G99" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B100" s="2">
-        <v>45993.33197916667</v>
+        <v>45992.32942129629</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2">
-        <v>45993.57767361111</v>
+        <v>45992.5415162037</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G100" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B101" s="2">
-        <v>45992.50671296296</v>
+        <v>45993.55733796296</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D101" s="2">
-        <v>45992.70057870371</v>
+        <v>45993.70209490741</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G101" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B102" s="2">
-        <v>45992.33369212963</v>
+        <v>45993.33475694444</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D102" s="2">
-        <v>45992.48134259259</v>
+        <v>45993.53561342593</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G102" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B103" s="2">
-        <v>45993.33583333333</v>
+        <v>45992.32902777778</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2">
-        <v>45993.59112268518</v>
+        <v>45992.6815162037</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G103" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="2" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B104" s="2">
-        <v>45993.33755787037</v>
+        <v>45992.603125</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D104" s="2">
-        <v>45993.68662037037</v>
+        <v>45992.75163194445</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G104" s="2">
         <v>17.5</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B105" s="2">
-        <v>45993.55333333334</v>
+        <v>45992.32043981482</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="D105" s="2">
-        <v>45993.7515162037</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>10</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
       <c r="F105" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G105" s="2">
-        <v>18</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="G105" s="2"/>
       <c r="H105" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B106" s="2">
-        <v>45993.33243055556</v>
+        <v>45992.33872685185</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D106" s="2">
-        <v>45993.50996527778</v>
+        <v>45992.46394675926</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G106" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B107" s="2">
-        <v>45993.3166087963</v>
+        <v>45993.59668981482</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D107" s="2">
-        <v>45993.70063657407</v>
+        <v>45993.70082175926</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G107" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="B108" s="2">
-        <v>45992.32601851852</v>
+        <v>45993.33197916667</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2">
-        <v>45992.68008101852</v>
+        <v>45993.57767361111</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G108" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B109" s="2">
-        <v>45993.375</v>
+        <v>45992.50671296296</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D109" s="2">
-        <v>45993.70833333334</v>
+        <v>45992.70057870371</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G109" s="2">
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B110" s="2">
         <v>45992.375</v>
@@ -3958,481 +3952,481 @@
         <v>10</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G110" s="2">
         <v>22.5</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2">
-        <v>45992.4390625</v>
+        <v>45993.33755787037</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D111" s="2">
-        <v>45992.6797337963</v>
+        <v>45993.68662037037</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G111" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H111" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2">
-        <v>45993.33652777778</v>
+        <v>45992.58793981482</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2">
-        <v>45993.61788194445</v>
+        <v>45992.75136574074</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G112" s="2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H112" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B113" s="2">
-        <v>45992.33135416666</v>
+        <v>45993.55333333334</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D113" s="2">
-        <v>45992.60255787037</v>
+        <v>45993.7515162037</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G113" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2">
-        <v>45993.33407407408</v>
+        <v>45993.33243055556</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D114" s="2">
-        <v>45993.54098379629</v>
+        <v>45993.50996527778</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G114" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B115" s="2">
-        <v>45992.33333333334</v>
+        <v>45993.3166087963</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2">
-        <v>45992.67053240741</v>
+        <v>45993.70063657407</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G115" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H115" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="B116" s="2">
-        <v>45993.51013888889</v>
+        <v>45992.340625</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D116" s="2">
-        <v>45993.70188657408</v>
+        <v>45992.5102662037</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G116" s="2">
         <v>16</v>
       </c>
       <c r="H116" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B117" s="2">
-        <v>45992.58793981482</v>
+        <v>45993.33226851852</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2">
-        <v>45992.75136574074</v>
+        <v>45993.48760416666</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G117" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B118" s="2">
-        <v>45992.375</v>
+        <v>45993.51013888889</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D118" s="2">
-        <v>45992.66666666666</v>
+        <v>45993.70188657408</v>
       </c>
       <c r="E118" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G118" s="2">
-        <v>22.5</v>
+        <v>16</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>91</v>
+        <v>17</v>
       </c>
       <c r="B119" s="2">
-        <v>45992.340625</v>
+        <v>45992.33506944445</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D119" s="2">
-        <v>45992.5102662037</v>
+        <v>45992.53091435185</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G119" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B120" s="2">
-        <v>45992.54113425926</v>
+        <v>45993.375</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D120" s="2">
-        <v>45992.70725694444</v>
+        <v>45993.70833333334</v>
       </c>
       <c r="E120" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G120" s="2">
-        <v>16</v>
+        <v>22.5</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B121" s="2">
-        <v>45993.55407407408</v>
+        <v>45992.32601851852</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D121" s="2">
-        <v>45993.68141203704</v>
+        <v>45992.68008101852</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G121" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2">
-        <v>45993.33417824074</v>
+        <v>45993.54019675926</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D122" s="2">
-        <v>45993.54109953704</v>
+        <v>45993.70605324074</v>
       </c>
       <c r="E122" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G122" s="2">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2">
-        <v>45992.33333333334</v>
+        <v>45993.33037037037</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D123" s="2">
-        <v>45992.67103009259</v>
+        <v>45993.50478009259</v>
       </c>
       <c r="E123" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G123" s="2">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B124" s="2">
-        <v>45993.33659722222</v>
+        <v>45992.33951388889</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D124" s="2">
-        <v>45993.54575231481</v>
+        <v>45992.42443287037</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G124" s="2">
         <v>15</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B125" s="2">
-        <v>45993.375</v>
+        <v>45993.33644675926</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2">
-        <v>45993.70833333334</v>
+        <v>45993.52070601852</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G125" s="2">
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B126" s="2">
-        <v>45992.34856481481</v>
+        <v>45992.55483796296</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D126" s="2">
-        <v>45992.3864699074</v>
+        <v>45992.68207175926</v>
       </c>
       <c r="E126" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G126" s="2">
-        <v>22.5</v>
+        <v>17.5</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="127" spans="1:8">
       <c r="A127" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B127" s="2">
-        <v>45993.52398148148</v>
+        <v>45992.33802083333</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D127" s="2">
-        <v>45993.6846412037</v>
+        <v>45992.51306712963</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G127" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2">
-        <v>45993.33459490741</v>
+        <v>45993.55407407408</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D128" s="2">
-        <v>45993.49261574074</v>
+        <v>45993.68141203704</v>
       </c>
       <c r="E128" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G128" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4440,25 +4434,25 @@
         <v>110</v>
       </c>
       <c r="B129" s="2">
-        <v>45992.58239583333</v>
+        <v>45993.33417824074</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D129" s="2">
-        <v>45992.67513888889</v>
+        <v>45993.54109953704</v>
       </c>
       <c r="E129" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G129" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4466,51 +4460,51 @@
         <v>110</v>
       </c>
       <c r="B130" s="2">
-        <v>45992.32942129629</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2">
-        <v>45992.5415162037</v>
+        <v>45992.67103009259</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G130" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B131" s="2">
-        <v>45992.33951388889</v>
+        <v>45993.58587962963</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D131" s="2">
-        <v>45992.42443287037</v>
+        <v>45993.75435185185</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G131" s="2">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4518,279 +4512,285 @@
         <v>111</v>
       </c>
       <c r="B132" s="2">
-        <v>45993.33475694444</v>
+        <v>45993.33280092593</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D132" s="2">
-        <v>45993.53561342593</v>
+        <v>45993.49769675926</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G132" s="2">
-        <v>18</v>
+        <v>16.5</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
       <c r="B133" s="2">
-        <v>45992.32902777778</v>
+        <v>45993.62835648148</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D133" s="2">
-        <v>45992.6815162037</v>
+        <v>45993.75800925926</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G133" s="2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>113</v>
+        <v>91</v>
       </c>
       <c r="B134" s="2">
-        <v>45992.32043981482</v>
+        <v>45993.32962962963</v>
       </c>
       <c r="C134" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D134" s="2"/>
-      <c r="E134" s="2"/>
+      <c r="D134" s="2">
+        <v>45993.59543981482</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F134" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G134" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="G134" s="2">
+        <v>17.5</v>
+      </c>
       <c r="H134" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B135" s="2">
-        <v>45993.33280092593</v>
+        <v>45992.33135416666</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D135" s="2">
-        <v>45993.49769675926</v>
+        <v>45992.60255787037</v>
       </c>
       <c r="E135" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G135" s="2">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B136" s="2">
-        <v>45992.44226851852</v>
+        <v>45993.33652777778</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2">
-        <v>45992.44354166667</v>
+        <v>45993.61788194445</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G136" s="2">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B137" s="2">
-        <v>45993.62835648148</v>
+        <v>45992.4390625</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2">
-        <v>45993.75800925926</v>
+        <v>45992.6797337963</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G137" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="138" spans="1:8">
       <c r="A138" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B138" s="2">
-        <v>45993.32962962963</v>
+        <v>45993.33659722222</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2">
-        <v>45993.59543981482</v>
+        <v>45993.54575231481</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G138" s="2">
-        <v>17.5</v>
+        <v>15</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B139" s="2">
-        <v>45992.603125</v>
+        <v>45993.33407407408</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D139" s="2">
-        <v>45992.75163194445</v>
+        <v>45993.54098379629</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G139" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="140" spans="1:8">
       <c r="A140" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B140" s="2">
-        <v>45992.32556712963</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2">
-        <v>45992.56069444444</v>
+        <v>45992.67053240741</v>
       </c>
       <c r="E140" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G140" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="B141" s="2">
-        <v>45993.54564814815</v>
+        <v>45992.44226851852</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D141" s="2">
-        <v>45993.71084490741</v>
+        <v>45992.44354166667</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G141" s="2">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="H141" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="B142" s="2">
-        <v>45993.55733796296</v>
+        <v>45993.33583333333</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D142" s="2">
-        <v>45993.70209490741</v>
+        <v>45993.59112268518</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G142" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4801,13 +4801,13 @@
         <v>45993.33333333334</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D143" s="2">
         <v>45993.33333333334</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>117</v>
@@ -4827,13 +4827,13 @@
         <v>45993</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D144" s="2">
         <v>45993</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>117</v>
@@ -4873,16 +4873,16 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B146" s="2">
-        <v>45992.48001157407</v>
+        <v>45993.58836805556</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D146" s="2">
-        <v>45992.70277777778</v>
+        <v>45993.70449074074</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>10</v>
@@ -4899,16 +4899,16 @@
     </row>
     <row r="147" spans="1:8">
       <c r="A147" s="2" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="B147" s="2">
-        <v>45992.54988425926</v>
+        <v>45992.48001157407</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D147" s="2">
-        <v>45992.6850462963</v>
+        <v>45992.70277777778</v>
       </c>
       <c r="E147" s="2" t="s">
         <v>10</v>
@@ -4925,16 +4925,16 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>107</v>
+        <v>122</v>
       </c>
       <c r="B148" s="2">
-        <v>45993.58836805556</v>
+        <v>45992.54988425926</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D148" s="2">
-        <v>45993.70449074074</v>
+        <v>45992.6850462963</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>10</v>
@@ -4951,13 +4951,13 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>95</v>
+        <v>115</v>
       </c>
       <c r="B149" s="2">
         <v>45993.61039351852</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D149" s="2">
         <v>45993.68513888889</v>
@@ -5006,13 +5006,13 @@
         <v>128</v>
       </c>
       <c r="B151" s="2">
-        <v>45992.30037037037</v>
+        <v>45993.34043981481</v>
       </c>
       <c r="C151" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D151" s="2">
-        <v>45992.70363425926</v>
+        <v>45993.68324074074</v>
       </c>
       <c r="E151" s="2" t="s">
         <v>10</v>
@@ -5021,7 +5021,7 @@
         <v>129</v>
       </c>
       <c r="G151" s="2">
-        <v>18</v>
+        <v>13.65</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>130</v>
@@ -5032,13 +5032,13 @@
         <v>128</v>
       </c>
       <c r="B152" s="2">
-        <v>45993.34569444445</v>
+        <v>45992.34711805556</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2">
-        <v>45993.69732638889</v>
+        <v>45992.68376157407</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>10</v>
@@ -5047,7 +5047,7 @@
         <v>129</v>
       </c>
       <c r="G152" s="2">
-        <v>18</v>
+        <v>13.65</v>
       </c>
       <c r="H152" s="2" t="s">
         <v>130</v>
@@ -5058,13 +5058,13 @@
         <v>131</v>
       </c>
       <c r="B153" s="2">
-        <v>45992.32685185185</v>
+        <v>45993.32821759259</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2">
-        <v>45992.66329861111</v>
+        <v>45993.34375</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>10</v>
@@ -5084,13 +5084,13 @@
         <v>131</v>
       </c>
       <c r="B154" s="2">
-        <v>45993.32821759259</v>
+        <v>45992.32685185185</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2">
-        <v>45993.34375</v>
+        <v>45992.66329861111</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>10</v>
@@ -5110,13 +5110,13 @@
         <v>132</v>
       </c>
       <c r="B155" s="2">
-        <v>45993.33630787037</v>
+        <v>45993.34569444445</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2">
-        <v>45993.66971064815</v>
+        <v>45993.69732638889</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>10</v>
@@ -5125,7 +5125,7 @@
         <v>129</v>
       </c>
       <c r="G155" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H155" s="2" t="s">
         <v>130</v>
@@ -5133,16 +5133,16 @@
     </row>
     <row r="156" spans="1:8">
       <c r="A156" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B156" s="2">
-        <v>45992.34711805556</v>
+        <v>45992.30037037037</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2">
-        <v>45992.68376157407</v>
+        <v>45992.70363425926</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>10</v>
@@ -5151,7 +5151,7 @@
         <v>129</v>
       </c>
       <c r="G156" s="2">
-        <v>13.65</v>
+        <v>18</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>130</v>
@@ -5159,25 +5159,25 @@
     </row>
     <row r="157" spans="1:8">
       <c r="A157" s="2" t="s">
-        <v>133</v>
+        <v>122</v>
       </c>
       <c r="B157" s="2">
-        <v>45993.34043981481</v>
+        <v>45992.35592592593</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2">
-        <v>45993.68324074074</v>
+        <v>45992.52112268518</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F157" s="2" t="s">
         <v>129</v>
       </c>
       <c r="G157" s="2">
-        <v>13.65</v>
+        <v>15</v>
       </c>
       <c r="H157" s="2" t="s">
         <v>130</v>
@@ -5185,25 +5185,25 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="B158" s="2">
-        <v>45992.35592592593</v>
+        <v>45993.33630787037</v>
       </c>
       <c r="C158" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D158" s="2">
-        <v>45992.52112268518</v>
+        <v>45993.66971064815</v>
       </c>
       <c r="E158" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F158" s="2" t="s">
         <v>129</v>
       </c>
       <c r="G158" s="2">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>130</v>
@@ -5217,7 +5217,7 @@
         <v>45993.83056712963</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D159" s="2">
         <v>45993.91854166667</v>
@@ -5292,13 +5292,13 @@
         <v>141</v>
       </c>
       <c r="B162" s="2">
-        <v>45992.31788194444</v>
+        <v>45992.32082175926</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2">
-        <v>45992.62767361111</v>
+        <v>45992.61207175926</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>10</v>
@@ -5307,7 +5307,7 @@
         <v>142</v>
       </c>
       <c r="G162" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H162" s="2" t="s">
         <v>143</v>
@@ -5315,16 +5315,16 @@
     </row>
     <row r="163" spans="1:8">
       <c r="A163" s="2" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B163" s="2">
-        <v>45992.54193287037</v>
+        <v>45993.32221064815</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2">
-        <v>45992.72916666666</v>
+        <v>45993.67194444445</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>10</v>
@@ -5333,7 +5333,7 @@
         <v>142</v>
       </c>
       <c r="G163" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>143</v>
@@ -5341,16 +5341,16 @@
     </row>
     <row r="164" spans="1:8">
       <c r="A164" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B164" s="2">
-        <v>45992.32082175926</v>
+        <v>45992.31788194444</v>
       </c>
       <c r="C164" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D164" s="2">
-        <v>45992.61207175926</v>
+        <v>45992.62767361111</v>
       </c>
       <c r="E164" s="2" t="s">
         <v>10</v>
@@ -5359,7 +5359,7 @@
         <v>142</v>
       </c>
       <c r="G164" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H164" s="2" t="s">
         <v>143</v>
@@ -5370,13 +5370,13 @@
         <v>145</v>
       </c>
       <c r="B165" s="2">
-        <v>45993.32221064815</v>
+        <v>45993.3440625</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2">
-        <v>45993.67194444445</v>
+        <v>45993.61761574074</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>10</v>
@@ -5385,7 +5385,7 @@
         <v>142</v>
       </c>
       <c r="G165" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>143</v>
@@ -5396,13 +5396,13 @@
         <v>146</v>
       </c>
       <c r="B166" s="2">
-        <v>45992.33707175926</v>
+        <v>45993.3390625</v>
       </c>
       <c r="C166" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D166" s="2">
-        <v>45992.59480324074</v>
+        <v>45993.61498842593</v>
       </c>
       <c r="E166" s="2" t="s">
         <v>10</v>
@@ -5411,7 +5411,7 @@
         <v>142</v>
       </c>
       <c r="G166" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H166" s="2" t="s">
         <v>143</v>
@@ -5419,16 +5419,16 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B167" s="2">
-        <v>45993.3440625</v>
+        <v>45993.32019675926</v>
       </c>
       <c r="C167" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D167" s="2">
-        <v>45993.61761574074</v>
+        <v>45993.68831018519</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>10</v>
@@ -5445,16 +5445,16 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2">
-        <v>45993.3390625</v>
+        <v>45992.54193287037</v>
       </c>
       <c r="C168" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D168" s="2">
-        <v>45993.61498842593</v>
+        <v>45992.72916666666</v>
       </c>
       <c r="E168" s="2" t="s">
         <v>10</v>
@@ -5471,16 +5471,16 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="B169" s="2">
-        <v>45993.32019675926</v>
+        <v>45992.33707175926</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2">
-        <v>45993.68831018519</v>
+        <v>45992.59480324074</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>10</v>
@@ -5489,7 +5489,7 @@
         <v>142</v>
       </c>
       <c r="G169" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H169" s="2" t="s">
         <v>143</v>
@@ -5500,13 +5500,13 @@
         <v>149</v>
       </c>
       <c r="B170" s="2">
-        <v>45993.41944444444</v>
+        <v>45992.89799768518</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2">
-        <v>45993.82296296296</v>
+        <v>45992.89809027778</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>10</v>
@@ -5515,7 +5515,7 @@
         <v>150</v>
       </c>
       <c r="G170" s="2">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>151</v>
@@ -5526,13 +5526,13 @@
         <v>152</v>
       </c>
       <c r="B171" s="2">
-        <v>45992.89799768518</v>
+        <v>45993.42930555555</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2">
-        <v>45992.89809027778</v>
+        <v>45993.82324074074</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>10</v>
@@ -5541,7 +5541,7 @@
         <v>150</v>
       </c>
       <c r="G171" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>151</v>
@@ -5552,13 +5552,13 @@
         <v>153</v>
       </c>
       <c r="B172" s="2">
-        <v>45992.87222222222</v>
+        <v>45993.34152777777</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D172" s="2">
-        <v>45992.87225694444</v>
+        <v>45993.58498842592</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>10</v>
@@ -5567,7 +5567,7 @@
         <v>150</v>
       </c>
       <c r="G172" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>151</v>
@@ -5575,16 +5575,16 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B173" s="2">
-        <v>45993.42930555555</v>
+        <v>45993.47211805556</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2">
-        <v>45993.82324074074</v>
+        <v>45993.69221064815</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>10</v>
@@ -5593,7 +5593,7 @@
         <v>150</v>
       </c>
       <c r="G173" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>151</v>
@@ -5601,16 +5601,16 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B174" s="2">
-        <v>45993.47211805556</v>
+        <v>45993.41944444444</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2">
-        <v>45993.69221064815</v>
+        <v>45993.82296296296</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>10</v>
@@ -5619,7 +5619,7 @@
         <v>150</v>
       </c>
       <c r="G174" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>151</v>
@@ -5630,13 +5630,13 @@
         <v>155</v>
       </c>
       <c r="B175" s="2">
-        <v>45993.34152777777</v>
+        <v>45992.55707175926</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2">
-        <v>45993.58498842592</v>
+        <v>45992.87207175926</v>
       </c>
       <c r="E175" s="2" t="s">
         <v>10</v>
@@ -5645,7 +5645,7 @@
         <v>150</v>
       </c>
       <c r="G175" s="2">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>151</v>
@@ -5653,16 +5653,16 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B176" s="2">
-        <v>45992.55707175926</v>
+        <v>45992.87222222222</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D176" s="2">
-        <v>45992.87207175926</v>
+        <v>45992.87225694444</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>10</v>
@@ -5671,7 +5671,7 @@
         <v>150</v>
       </c>
       <c r="G176" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>151</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B177" s="2">
         <v>45992.4106712963</v>
@@ -5691,7 +5691,7 @@
         <v>45992.52935185185</v>
       </c>
       <c r="E177" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F177" s="2" t="s">
         <v>150</v>
@@ -5708,13 +5708,13 @@
         <v>156</v>
       </c>
       <c r="B178" s="2">
-        <v>45993.69541666667</v>
+        <v>45992.71581018518</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2">
-        <v>45993.9084375</v>
+        <v>45992.72916666666</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>10</v>
@@ -5723,7 +5723,7 @@
         <v>157</v>
       </c>
       <c r="G178" s="2">
-        <v>13.65</v>
+        <v>22</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>158</v>
@@ -5734,13 +5734,13 @@
         <v>159</v>
       </c>
       <c r="B179" s="2">
-        <v>45992.37811342593</v>
+        <v>45992.32685185185</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2">
-        <v>45992.69790509259</v>
+        <v>45992.67736111111</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>10</v>
@@ -5749,7 +5749,7 @@
         <v>157</v>
       </c>
       <c r="G179" s="2">
-        <v>13.65</v>
+        <v>23.69</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>158</v>
@@ -5757,16 +5757,16 @@
     </row>
     <row r="180" spans="1:8">
       <c r="A180" s="2" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B180" s="2">
-        <v>45993.37516203704</v>
+        <v>45993.58287037037</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2">
-        <v>45993.6992824074</v>
+        <v>45993.91707175926</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>10</v>
@@ -5775,7 +5775,7 @@
         <v>157</v>
       </c>
       <c r="G180" s="2">
-        <v>13.65</v>
+        <v>24</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>158</v>
@@ -5786,18 +5786,22 @@
         <v>160</v>
       </c>
       <c r="B181" s="2">
-        <v>45992.31797453704</v>
+        <v>45992.58297453704</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D181" s="2"/>
-      <c r="E181" s="2"/>
+      <c r="D181" s="2">
+        <v>45992.89854166667</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F181" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G181" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>158</v>
@@ -5817,7 +5821,7 @@
         <v>45993.80771990741</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>157</v>
@@ -5834,22 +5838,18 @@
         <v>161</v>
       </c>
       <c r="B183" s="2">
-        <v>45992.58297453704</v>
+        <v>45992.31797453704</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D183" s="2">
-        <v>45992.89854166667</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D183" s="2"/>
+      <c r="E183" s="2"/>
       <c r="F183" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G183" s="2">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>158</v>
@@ -5857,16 +5857,16 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>146</v>
+        <v>162</v>
       </c>
       <c r="B184" s="2">
-        <v>45993.33579861111</v>
+        <v>45993.37516203704</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D184" s="2">
-        <v>45993.64005787037</v>
+        <v>45993.6992824074</v>
       </c>
       <c r="E184" s="2" t="s">
         <v>10</v>
@@ -5875,7 +5875,7 @@
         <v>157</v>
       </c>
       <c r="G184" s="2">
-        <v>19</v>
+        <v>13.65</v>
       </c>
       <c r="H184" s="2" t="s">
         <v>158</v>
@@ -5886,13 +5886,13 @@
         <v>162</v>
       </c>
       <c r="B185" s="2">
-        <v>45992.32685185185</v>
+        <v>45992.37811342593</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2">
-        <v>45992.67736111111</v>
+        <v>45992.69790509259</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>10</v>
@@ -5901,7 +5901,7 @@
         <v>157</v>
       </c>
       <c r="G185" s="2">
-        <v>23.69</v>
+        <v>13.65</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>158</v>
@@ -5909,16 +5909,16 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B186" s="2">
-        <v>45993.32638888889</v>
+        <v>45993.37694444445</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2">
-        <v>45993.58686342592</v>
+        <v>45993.72078703704</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>10</v>
@@ -5927,7 +5927,7 @@
         <v>157</v>
       </c>
       <c r="G186" s="2">
-        <v>23.69</v>
+        <v>13.65</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>158</v>
@@ -5935,19 +5935,19 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B187" s="2">
-        <v>45993.62489583333</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D187" s="2">
-        <v>45993.90871527778</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>157</v>
@@ -5961,25 +5961,25 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="B188" s="2">
-        <v>45992.36230324074</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D188" s="2">
-        <v>45992.68001157408</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G188" s="2">
-        <v>21</v>
+        <v>13.65</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>158</v>
@@ -5987,20 +5987,26 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B189" s="2">
-        <v>45992.64875</v>
+        <v>45993.5765625</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D189" s="2"/>
-      <c r="E189" s="2"/>
+      <c r="D189" s="2">
+        <v>45993.91775462963</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F189" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G189" s="2"/>
+      <c r="G189" s="2">
+        <v>22</v>
+      </c>
       <c r="H189" s="2" t="s">
         <v>158</v>
       </c>
@@ -6010,18 +6016,22 @@
         <v>165</v>
       </c>
       <c r="B190" s="2">
-        <v>45992.6641087963</v>
+        <v>45992.58358796296</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D190" s="2"/>
-      <c r="E190" s="2"/>
+      <c r="D190" s="2">
+        <v>45992.89682870371</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F190" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G190" s="2">
-        <v>13.65</v>
+        <v>22</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>158</v>
@@ -6029,16 +6039,16 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B191" s="2">
-        <v>45992.58185185185</v>
+        <v>45992.33592592592</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2">
-        <v>45992.8978125</v>
+        <v>45992.69883101852</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>10</v>
@@ -6047,7 +6057,7 @@
         <v>157</v>
       </c>
       <c r="G191" s="2">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>158</v>
@@ -6055,16 +6065,16 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B192" s="2">
-        <v>45992.40159722222</v>
+        <v>45992.36230324074</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2">
-        <v>45992.67126157408</v>
+        <v>45992.68001157408</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>10</v>
@@ -6073,7 +6083,7 @@
         <v>157</v>
       </c>
       <c r="G192" s="2">
-        <v>15.16</v>
+        <v>21</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>158</v>
@@ -6081,16 +6091,16 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="B193" s="2">
-        <v>45993.39545138889</v>
+        <v>45993.32638888889</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2">
-        <v>45993.68545138889</v>
+        <v>45993.58686342592</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>10</v>
@@ -6099,7 +6109,7 @@
         <v>157</v>
       </c>
       <c r="G193" s="2">
-        <v>15.16</v>
+        <v>23.69</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>158</v>
@@ -6107,16 +6117,16 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>161</v>
+        <v>167</v>
       </c>
       <c r="B194" s="2">
-        <v>45993.58287037037</v>
+        <v>45993.69541666667</v>
       </c>
       <c r="C194" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D194" s="2">
-        <v>45993.91707175926</v>
+        <v>45993.9084375</v>
       </c>
       <c r="E194" s="2" t="s">
         <v>10</v>
@@ -6125,7 +6135,7 @@
         <v>157</v>
       </c>
       <c r="G194" s="2">
-        <v>24</v>
+        <v>13.65</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>158</v>
@@ -6133,25 +6143,21 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B195" s="2">
-        <v>45992.33592592592</v>
+        <v>45992.6641087963</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D195" s="2">
-        <v>45992.69883101852</v>
-      </c>
-      <c r="E195" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D195" s="2"/>
+      <c r="E195" s="2"/>
       <c r="F195" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G195" s="2">
-        <v>15</v>
+        <v>13.65</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>158</v>
@@ -6159,25 +6165,25 @@
     </row>
     <row r="196" spans="1:8">
       <c r="A196" s="2" t="s">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="B196" s="2">
-        <v>45993.33333333334</v>
+        <v>45992.58185185185</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D196" s="2">
-        <v>45993.33333333334</v>
+        <v>45992.8978125</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F196" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G196" s="2">
-        <v>13.65</v>
+        <v>0</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>158</v>
@@ -6185,16 +6191,16 @@
     </row>
     <row r="197" spans="1:8">
       <c r="A197" s="2" t="s">
-        <v>169</v>
+        <v>148</v>
       </c>
       <c r="B197" s="2">
-        <v>45992.3703587963</v>
+        <v>45993.33579861111</v>
       </c>
       <c r="C197" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D197" s="2">
-        <v>45992.69907407407</v>
+        <v>45993.64005787037</v>
       </c>
       <c r="E197" s="2" t="s">
         <v>10</v>
@@ -6203,7 +6209,7 @@
         <v>157</v>
       </c>
       <c r="G197" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H197" s="2" t="s">
         <v>158</v>
@@ -6211,16 +6217,16 @@
     </row>
     <row r="198" spans="1:8">
       <c r="A198" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B198" s="2">
-        <v>45993.37694444445</v>
+        <v>45992.40159722222</v>
       </c>
       <c r="C198" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D198" s="2">
-        <v>45993.72078703704</v>
+        <v>45992.67126157408</v>
       </c>
       <c r="E198" s="2" t="s">
         <v>10</v>
@@ -6229,7 +6235,7 @@
         <v>157</v>
       </c>
       <c r="G198" s="2">
-        <v>13.65</v>
+        <v>15.16</v>
       </c>
       <c r="H198" s="2" t="s">
         <v>158</v>
@@ -6237,25 +6243,25 @@
     </row>
     <row r="199" spans="1:8">
       <c r="A199" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="B199" s="2">
-        <v>45992.33333333334</v>
+        <v>45993.39545138889</v>
       </c>
       <c r="C199" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D199" s="2">
-        <v>45992.33333333334</v>
+        <v>45993.68545138889</v>
       </c>
       <c r="E199" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F199" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G199" s="2">
-        <v>13.65</v>
+        <v>15.16</v>
       </c>
       <c r="H199" s="2" t="s">
         <v>158</v>
@@ -6263,16 +6269,16 @@
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="B200" s="2">
-        <v>45993.5765625</v>
+        <v>45992.3703587963</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2">
-        <v>45993.91775462963</v>
+        <v>45992.69907407407</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>10</v>
@@ -6289,42 +6295,36 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B201" s="2">
-        <v>45992.58358796296</v>
+        <v>45992.64875</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D201" s="2">
-        <v>45992.89682870371</v>
-      </c>
-      <c r="E201" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D201" s="2"/>
+      <c r="E201" s="2"/>
       <c r="F201" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G201" s="2">
-        <v>22</v>
-      </c>
+      <c r="G201" s="2"/>
       <c r="H201" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B202" s="2">
-        <v>45992.71581018518</v>
+        <v>45993.62489583333</v>
       </c>
       <c r="C202" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D202" s="2">
-        <v>45992.72916666666</v>
+        <v>45993.90871527778</v>
       </c>
       <c r="E202" s="2" t="s">
         <v>10</v>
@@ -6333,7 +6333,7 @@
         <v>157</v>
       </c>
       <c r="G202" s="2">
-        <v>22</v>
+        <v>13.65</v>
       </c>
       <c r="H202" s="2" t="s">
         <v>158</v>
@@ -6370,22 +6370,22 @@
         <v>174</v>
       </c>
       <c r="B204" s="2">
-        <v>45992.33770833333</v>
+        <v>45993.5</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D204" s="2">
-        <v>45992.66642361111</v>
+        <v>45993.5</v>
       </c>
       <c r="E204" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F204" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G204" s="2">
-        <v>15.25</v>
+        <v>20</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>176</v>
@@ -6396,13 +6396,13 @@
         <v>177</v>
       </c>
       <c r="B205" s="2">
-        <v>45993.62984953704</v>
+        <v>45992.33770833333</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D205" s="2">
-        <v>45993.95290509259</v>
+        <v>45992.66642361111</v>
       </c>
       <c r="E205" s="2" t="s">
         <v>10</v>
@@ -6411,7 +6411,7 @@
         <v>175</v>
       </c>
       <c r="G205" s="2">
-        <v>17.25</v>
+        <v>15.25</v>
       </c>
       <c r="H205" s="2" t="s">
         <v>176</v>
@@ -6422,22 +6422,22 @@
         <v>178</v>
       </c>
       <c r="B206" s="2">
-        <v>45992.62354166667</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D206" s="2">
-        <v>45992.85416666666</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="E206" s="2" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="F206" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G206" s="2">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>176</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B207" s="2">
         <v>45993.62380787037</v>
@@ -6474,22 +6474,22 @@
         <v>179</v>
       </c>
       <c r="B208" s="2">
-        <v>45993.5</v>
+        <v>45992.62354166667</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D208" s="2">
-        <v>45993.5</v>
+        <v>45992.85416666666</v>
       </c>
       <c r="E208" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F208" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G208" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="H208" s="2" t="s">
         <v>176</v>
@@ -6500,13 +6500,13 @@
         <v>180</v>
       </c>
       <c r="B209" s="2">
-        <v>45992.9528587963</v>
+        <v>45993.62984953704</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2">
-        <v>45993.29563657408</v>
+        <v>45993.95290509259</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>10</v>
@@ -6515,7 +6515,7 @@
         <v>175</v>
       </c>
       <c r="G209" s="2">
-        <v>18.5</v>
+        <v>17.25</v>
       </c>
       <c r="H209" s="2" t="s">
         <v>176</v>
@@ -6523,16 +6523,16 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="B210" s="2">
-        <v>45992.53841435185</v>
+        <v>45993.95416666667</v>
       </c>
       <c r="C210" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D210" s="2">
-        <v>45992.95521990741</v>
+        <v>45994.29306712963</v>
       </c>
       <c r="E210" s="2" t="s">
         <v>10</v>
@@ -6541,7 +6541,7 @@
         <v>175</v>
       </c>
       <c r="G210" s="2">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="H210" s="2" t="s">
         <v>176</v>
@@ -6549,16 +6549,16 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="B211" s="2">
-        <v>45993.95416666667</v>
+        <v>45993.39311342593</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2">
-        <v>45994.29306712963</v>
+        <v>45993.46118055555</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>10</v>
@@ -6567,7 +6567,7 @@
         <v>175</v>
       </c>
       <c r="G211" s="2">
-        <v>18.5</v>
+        <v>20</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>176</v>
@@ -6578,13 +6578,13 @@
         <v>181</v>
       </c>
       <c r="B212" s="2">
-        <v>45993.29008101852</v>
+        <v>45992.9528587963</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2">
-        <v>45993.58872685185</v>
+        <v>45993.29563657408</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>10</v>
@@ -6593,7 +6593,7 @@
         <v>175</v>
       </c>
       <c r="G212" s="2">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>176</v>
@@ -6601,16 +6601,16 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B213" s="2">
-        <v>45992.24747685185</v>
+        <v>45992.53841435185</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2">
-        <v>45992.64570601852</v>
+        <v>45992.95521990741</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>10</v>
@@ -6619,7 +6619,7 @@
         <v>175</v>
       </c>
       <c r="G213" s="2">
-        <v>24.72</v>
+        <v>20</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>176</v>
@@ -6627,25 +6627,25 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B214" s="2">
-        <v>45992.33333333334</v>
+        <v>45992.24747685185</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D214" s="2">
-        <v>45992.33333333334</v>
+        <v>45992.64570601852</v>
       </c>
       <c r="E214" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F214" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G214" s="2">
-        <v>16</v>
+        <v>24.72</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>176</v>
@@ -6653,19 +6653,19 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B215" s="2">
         <v>45993.33333333334</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D215" s="2">
         <v>45993.33333333334</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>175</v>
@@ -6679,16 +6679,16 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="B216" s="2">
-        <v>45993.39311342593</v>
+        <v>45993.29008101852</v>
       </c>
       <c r="C216" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D216" s="2">
-        <v>45993.46118055555</v>
+        <v>45993.58872685185</v>
       </c>
       <c r="E216" s="2" t="s">
         <v>10</v>
@@ -6697,7 +6697,7 @@
         <v>175</v>
       </c>
       <c r="G216" s="2">
-        <v>20</v>
+        <v>16.5</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>176</v>
@@ -6708,13 +6708,13 @@
         <v>184</v>
       </c>
       <c r="B217" s="2">
-        <v>45992.30857638889</v>
+        <v>45993.33015046296</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2">
-        <v>45992.63498842593</v>
+        <v>45993.49803240741</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>10</v>
@@ -6723,7 +6723,7 @@
         <v>185</v>
       </c>
       <c r="G217" s="2">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="H217" s="2" t="s">
         <v>186</v>
@@ -6734,13 +6734,13 @@
         <v>187</v>
       </c>
       <c r="B218" s="2">
-        <v>45993.47619212963</v>
+        <v>45993.30981481481</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2">
-        <v>45993.66888888889</v>
+        <v>45993.67152777778</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>10</v>
@@ -6749,7 +6749,7 @@
         <v>185</v>
       </c>
       <c r="G218" s="2">
-        <v>16.61</v>
+        <v>16</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>186</v>
@@ -6757,16 +6757,16 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B219" s="2">
-        <v>45993.36116898148</v>
+        <v>45992.30857638889</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2">
-        <v>45993.64501157407</v>
+        <v>45992.63498842593</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>10</v>
@@ -6775,7 +6775,7 @@
         <v>185</v>
       </c>
       <c r="G219" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>186</v>
@@ -6783,16 +6783,16 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B220" s="2">
-        <v>45993.40340277777</v>
+        <v>45993.47619212963</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2">
-        <v>45993.67043981481</v>
+        <v>45993.66888888889</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>10</v>
@@ -6809,16 +6809,16 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B221" s="2">
-        <v>45992.39903935185</v>
+        <v>45992.39877314815</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2">
-        <v>45992.78083333333</v>
+        <v>45992.78104166667</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>10</v>
@@ -6835,16 +6835,16 @@
     </row>
     <row r="222" spans="1:8">
       <c r="A222" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B222" s="2">
-        <v>45993.33015046296</v>
+        <v>45993.36116898148</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2">
-        <v>45993.49803240741</v>
+        <v>45993.64501157407</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>10</v>
@@ -6853,7 +6853,7 @@
         <v>185</v>
       </c>
       <c r="G222" s="2">
-        <v>14.5</v>
+        <v>20</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>186</v>
@@ -6861,16 +6861,16 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="2" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B223" s="2">
-        <v>45992.39877314815</v>
+        <v>45993.40340277777</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D223" s="2">
-        <v>45992.78104166667</v>
+        <v>45993.67043981481</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>10</v>
@@ -6887,16 +6887,16 @@
     </row>
     <row r="224" spans="1:8">
       <c r="A224" s="2" t="s">
-        <v>184</v>
+        <v>190</v>
       </c>
       <c r="B224" s="2">
-        <v>45993.30981481481</v>
+        <v>45992.39903935185</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D224" s="2">
-        <v>45993.67152777778</v>
+        <v>45992.78083333333</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>10</v>
@@ -6905,7 +6905,7 @@
         <v>185</v>
       </c>
       <c r="G224" s="2">
-        <v>16</v>
+        <v>16.61</v>
       </c>
       <c r="H224" s="2" t="s">
         <v>186</v>
@@ -6916,13 +6916,13 @@
         <v>191</v>
       </c>
       <c r="B225" s="2">
-        <v>45992.35121527778</v>
+        <v>45993.32358796296</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2">
-        <v>45992.68732638889</v>
+        <v>45993.68211805556</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>10</v>
@@ -6942,13 +6942,13 @@
         <v>191</v>
       </c>
       <c r="B226" s="2">
-        <v>45993.32358796296</v>
+        <v>45992.35121527778</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2">
-        <v>45993.68211805556</v>
+        <v>45992.68732638889</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>10</v>
@@ -6971,7 +6971,7 @@
         <v>45992.51815972223</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D227" s="2">
         <v>45992.65887731482</v>
@@ -6989,13 +6989,13 @@
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="2" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B228" s="2">
         <v>45992.50498842593</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D228" s="2">
         <v>45992.67591435185</v>
@@ -7021,7 +7021,7 @@
         <v>45992.58616898148</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D229" s="2">
         <v>45992.6752662037</v>
@@ -7122,13 +7122,13 @@
         <v>205</v>
       </c>
       <c r="B233" s="2">
-        <v>45993.33853009259</v>
+        <v>45993.35118055555</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="2">
-        <v>45993.67113425926</v>
+        <v>45993.76359953704</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>10</v>
@@ -7137,7 +7137,7 @@
         <v>203</v>
       </c>
       <c r="G233" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>204</v>
@@ -7145,7 +7145,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B234" s="2">
         <v>45992.34165509259</v>
@@ -7171,16 +7171,16 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="2" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="B235" s="2">
-        <v>45992.33259259259</v>
+        <v>45993.33853009259</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2">
-        <v>45992.62094907407</v>
+        <v>45993.67113425926</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>10</v>
@@ -7189,7 +7189,7 @@
         <v>203</v>
       </c>
       <c r="G235" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H235" s="2" t="s">
         <v>204</v>
@@ -7197,16 +7197,16 @@
     </row>
     <row r="236" spans="1:8">
       <c r="A236" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B236" s="2">
-        <v>45993.35118055555</v>
+        <v>45992.33259259259</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2">
-        <v>45993.76359953704</v>
+        <v>45992.62094907407</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>10</v>
@@ -7215,7 +7215,7 @@
         <v>203</v>
       </c>
       <c r="G236" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>204</v>
@@ -7275,7 +7275,7 @@
     </row>
     <row r="239" spans="1:8">
       <c r="A239" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B239" s="2">
         <v>45992.34174768518</v>
@@ -7301,78 +7301,80 @@
     </row>
     <row r="240" spans="1:8">
       <c r="A240" s="2" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="B240" s="2">
-        <v>45993.33440972222</v>
+        <v>45993.33489583333</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D240" s="2">
-        <v>45993.49506944444</v>
+        <v>45993.46734953704</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F240" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G240" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H240" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="2" t="s">
-        <v>105</v>
+        <v>92</v>
       </c>
       <c r="B241" s="2">
-        <v>45992.33586805555</v>
+        <v>45993.33440972222</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2">
-        <v>45992.50078703704</v>
+        <v>45993.49506944444</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F241" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G241" s="2">
         <v>16</v>
       </c>
       <c r="H241" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="242" spans="1:8">
       <c r="A242" s="2" t="s">
-        <v>194</v>
+        <v>92</v>
       </c>
       <c r="B242" s="2">
-        <v>45993.33071759259</v>
+        <v>45992.33586805555</v>
       </c>
       <c r="C242" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D242" s="2">
-        <v>45993.5552662037</v>
+        <v>45992.50078703704</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F242" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G242" s="2"/>
+        <v>210</v>
+      </c>
+      <c r="G242" s="2">
+        <v>16</v>
+      </c>
       <c r="H242" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -7389,40 +7391,38 @@
         <v>45992.49737268518</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F243" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G243" s="2"/>
       <c r="H243" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B244" s="2">
+        <v>45993.33071759259</v>
+      </c>
+      <c r="C244" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D244" s="2">
+        <v>45993.5552662037</v>
+      </c>
+      <c r="E244" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G244" s="2"/>
+      <c r="H244" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="B244" s="2">
-        <v>45992.32515046297</v>
-      </c>
-      <c r="C244" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D244" s="2">
-        <v>45992.55366898148</v>
-      </c>
-      <c r="E244" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F244" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="G244" s="2">
-        <v>16</v>
-      </c>
-      <c r="H244" s="2" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -7433,7 +7433,7 @@
         <v>45993.54071759259</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D245" s="2">
         <v>45993.69123842593</v>
@@ -7442,39 +7442,39 @@
         <v>10</v>
       </c>
       <c r="F245" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G245" s="2">
         <v>17</v>
       </c>
       <c r="H245" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B246" s="2">
-        <v>45993.32947916666</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D246" s="2">
-        <v>45993.51585648148</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>92</v>
+        <v>27</v>
       </c>
       <c r="F246" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G246" s="2">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="H246" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -7485,48 +7485,48 @@
         <v>45993.33333333334</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="D247" s="2">
         <v>45993.33333333334</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F247" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G247" s="2">
         <v>18.5</v>
       </c>
       <c r="H247" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="248" spans="1:8">
       <c r="A248" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B248" s="2">
-        <v>45992.33333333334</v>
+        <v>45992.3484375</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D248" s="2">
-        <v>45992.33333333334</v>
+        <v>45992.49106481481</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="F248" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G248" s="2">
-        <v>18.5</v>
+        <v>18</v>
       </c>
       <c r="H248" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -7546,96 +7546,96 @@
         <v>10</v>
       </c>
       <c r="F249" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G249" s="2">
         <v>18</v>
       </c>
       <c r="H249" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B250" s="2">
-        <v>45992.3484375</v>
+        <v>45992.32515046297</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D250" s="2">
-        <v>45992.49106481481</v>
+        <v>45992.55366898148</v>
       </c>
       <c r="E250" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F250" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G250" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H250" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="251" spans="1:8">
       <c r="A251" s="2" t="s">
-        <v>197</v>
+        <v>216</v>
       </c>
       <c r="B251" s="2">
-        <v>45992.29037037037</v>
+        <v>45992.26368055555</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D251" s="2">
-        <v>45992.55635416666</v>
+        <v>45992.48032407407</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F251" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G251" s="2">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H251" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B252" s="2">
-        <v>45992.26368055555</v>
+        <v>45992.5</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D252" s="2">
-        <v>45992.48032407407</v>
+        <v>45992.625</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F252" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G252" s="2">
         <v>24</v>
       </c>
       <c r="H252" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B253" s="2">
         <v>45992.29172453703</v>
@@ -7647,146 +7647,146 @@
         <v>45992.5741087963</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F253" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G253" s="2">
         <v>20.5</v>
       </c>
       <c r="H253" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="2" t="s">
-        <v>216</v>
+        <v>197</v>
       </c>
       <c r="B254" s="2">
-        <v>45993.54539351852</v>
+        <v>45992.29037037037</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D254" s="2">
-        <v>45993.69030092593</v>
+        <v>45992.55635416666</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F254" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G254" s="2">
-        <v>20.5</v>
+        <v>20</v>
       </c>
       <c r="H254" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B255" s="2">
-        <v>45992.59509259259</v>
+        <v>45993.33784722222</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D255" s="2">
-        <v>45992.69358796296</v>
+        <v>45993.5262037037</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F255" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G255" s="2">
         <v>20.5</v>
       </c>
       <c r="H255" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B256" s="2">
-        <v>45993.33784722222</v>
+        <v>45992.59509259259</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D256" s="2">
-        <v>45993.5262037037</v>
+        <v>45992.69358796296</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F256" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G256" s="2">
         <v>20.5</v>
       </c>
       <c r="H256" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="2" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B257" s="2">
-        <v>45992.5</v>
+        <v>45993.54539351852</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D257" s="2">
-        <v>45992.625</v>
+        <v>45993.69030092593</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F257" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G257" s="2">
-        <v>24</v>
+        <v>20.5</v>
       </c>
       <c r="H257" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B258" s="2">
-        <v>45993.33489583333</v>
+        <v>45993.32947916666</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D258" s="2">
-        <v>45993.46734953704</v>
+        <v>45993.51585648148</v>
       </c>
       <c r="E258" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F258" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="G258" s="2">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H258" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7820,16 +7820,16 @@
         <v>221</v>
       </c>
       <c r="B260" s="2">
-        <v>45992.27461805556</v>
+        <v>45993.55827546296</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D260" s="2">
-        <v>45992.53001157408</v>
+        <v>45993.71579861111</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F260" s="2" t="s">
         <v>222</v>
@@ -7846,16 +7846,16 @@
         <v>221</v>
       </c>
       <c r="B261" s="2">
-        <v>45992.55216435185</v>
+        <v>45993.33430555555</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D261" s="2">
-        <v>45992.76539351852</v>
+        <v>45993.53699074074</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>222</v>
@@ -7872,16 +7872,16 @@
         <v>221</v>
       </c>
       <c r="B262" s="2">
-        <v>45993.33430555555</v>
+        <v>45992.55216435185</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D262" s="2">
-        <v>45993.53699074074</v>
+        <v>45992.76539351852</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>222</v>
@@ -7898,16 +7898,16 @@
         <v>221</v>
       </c>
       <c r="B263" s="2">
-        <v>45993.55827546296</v>
+        <v>45992.27461805556</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D263" s="2">
-        <v>45993.71579861111</v>
+        <v>45992.53001157408</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>222</v>
@@ -7924,16 +7924,16 @@
         <v>224</v>
       </c>
       <c r="B264" s="2">
-        <v>45992.27319444445</v>
+        <v>45992.55232638889</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D264" s="2">
-        <v>45992.53025462963</v>
+        <v>45992.76518518518</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>92</v>
+        <v>10</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>222</v>
@@ -7950,16 +7950,16 @@
         <v>224</v>
       </c>
       <c r="B265" s="2">
-        <v>45992.55232638889</v>
+        <v>45992.27319444445</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2">
-        <v>45992.76518518518</v>
+        <v>45992.53025462963</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>10</v>
+        <v>88</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>222</v>
@@ -7985,7 +7985,7 @@
         <v>45993.5634375</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>222</v>
@@ -8005,7 +8005,7 @@
         <v>45993.58417824074</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="D267" s="2">
         <v>45993.77274305555</v>
@@ -8028,13 +8028,13 @@
         <v>226</v>
       </c>
       <c r="B268" s="2">
-        <v>45993.66258101852</v>
+        <v>45992.29688657408</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D268" s="2">
-        <v>45993.67274305555</v>
+        <v>45992.70577546296</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>10</v>
@@ -8051,16 +8051,16 @@
     </row>
     <row r="269" spans="1:8">
       <c r="A269" s="2" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="B269" s="2">
-        <v>45992.17318287037</v>
+        <v>45993.66258101852</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D269" s="2">
-        <v>45992.29707175926</v>
+        <v>45993.67274305555</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>10</v>
@@ -8069,7 +8069,7 @@
         <v>227</v>
       </c>
       <c r="G269" s="2">
-        <v>15</v>
+        <v>20.57</v>
       </c>
       <c r="H269" s="2" t="s">
         <v>228</v>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="2">
         <v>45992.34172453704</v>
@@ -8103,7 +8103,7 @@
     </row>
     <row r="271" spans="1:8">
       <c r="A271" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B271" s="2">
         <v>45993.31112268518</v>
@@ -8129,16 +8129,16 @@
     </row>
     <row r="272" spans="1:8">
       <c r="A272" s="2" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="B272" s="2">
-        <v>45992.29688657408</v>
+        <v>45992.17318287037</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D272" s="2">
-        <v>45992.70577546296</v>
+        <v>45992.29707175926</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>10</v>
@@ -8147,7 +8147,7 @@
         <v>227</v>
       </c>
       <c r="G272" s="2">
-        <v>20.57</v>
+        <v>15</v>
       </c>
       <c r="H272" s="2" t="s">
         <v>228</v>
@@ -8207,33 +8207,33 @@
     </row>
     <row r="275" spans="1:8">
       <c r="A275" s="2" t="s">
-        <v>102</v>
+        <v>235</v>
       </c>
       <c r="B275" s="2">
-        <v>45993.55390046296</v>
+        <v>45993.36427083334</v>
       </c>
       <c r="C275" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D275" s="2">
+        <v>45993.7037037037</v>
+      </c>
+      <c r="E275" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F275" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="G275" s="2">
+        <v>15</v>
+      </c>
+      <c r="H275" s="2" t="s">
         <v>27</v>
-      </c>
-      <c r="D275" s="2">
-        <v>45993.68125</v>
-      </c>
-      <c r="E275" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F275" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="G275" s="2">
-        <v>16</v>
-      </c>
-      <c r="H275" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="276" spans="1:8">
       <c r="A276" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B276" s="2">
         <v>45993.53115740741</v>
@@ -8248,18 +8248,18 @@
         <v>10</v>
       </c>
       <c r="F276" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G276" s="2">
         <v>18</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="277" spans="1:8">
       <c r="A277" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B277" s="2">
         <v>45993.2841550926</v>
@@ -8274,18 +8274,18 @@
         <v>10</v>
       </c>
       <c r="F277" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G277" s="2">
         <v>18</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B278" s="2">
         <v>45992.52555555556</v>
@@ -8300,18 +8300,18 @@
         <v>10</v>
       </c>
       <c r="F278" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G278" s="2">
         <v>18</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="2" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B279" s="2">
         <v>45992.29229166666</v>
@@ -8326,44 +8326,44 @@
         <v>10</v>
       </c>
       <c r="F279" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G279" s="2">
         <v>18</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="2" t="s">
-        <v>237</v>
+        <v>114</v>
       </c>
       <c r="B280" s="2">
-        <v>45992.34743055556</v>
+        <v>45993.55390046296</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D280" s="2">
-        <v>45992.69462962963</v>
+        <v>45993.68125</v>
       </c>
       <c r="E280" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F280" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G280" s="2">
         <v>16</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B281" s="2">
         <v>45993.33876157407</v>
@@ -8374,13 +8374,13 @@
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
       <c r="F281" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G281" s="2">
         <v>16</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8388,25 +8388,25 @@
         <v>238</v>
       </c>
       <c r="B282" s="2">
-        <v>45993.36427083334</v>
+        <v>45992.34743055556</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D282" s="2">
-        <v>45993.7037037037</v>
+        <v>45992.69462962963</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F282" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G282" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="283" spans="1:8">

--- a/reports/For The Week Ending (Actual)_Payroll.xlsx
+++ b/reports/For The Week Ending (Actual)_Payroll.xlsx
@@ -55,54 +55,54 @@
     <t>Lift Operations</t>
   </si>
   <si>
+    <t>A3JZ</t>
+  </si>
+  <si>
+    <t>B197</t>
+  </si>
+  <si>
+    <t>A0P4</t>
+  </si>
+  <si>
+    <t>A0HA</t>
+  </si>
+  <si>
+    <t>A3K1</t>
+  </si>
+  <si>
+    <t>J520</t>
+  </si>
+  <si>
+    <t>A29S</t>
+  </si>
+  <si>
+    <t>A3JX</t>
+  </si>
+  <si>
+    <t>A2D1</t>
+  </si>
+  <si>
+    <t>A1PN</t>
+  </si>
+  <si>
+    <t>IL</t>
+  </si>
+  <si>
     <t>A2JJ</t>
   </si>
   <si>
     <t>HR</t>
   </si>
   <si>
+    <t>A3GJ</t>
+  </si>
+  <si>
     <t>A1ZJ</t>
   </si>
   <si>
-    <t>A3GJ</t>
-  </si>
-  <si>
-    <t>A1PN</t>
-  </si>
-  <si>
-    <t>IL</t>
-  </si>
-  <si>
-    <t>A0HA</t>
-  </si>
-  <si>
-    <t>A29S</t>
-  </si>
-  <si>
-    <t>B197</t>
-  </si>
-  <si>
-    <t>A0P4</t>
-  </si>
-  <si>
-    <t>A3JZ</t>
-  </si>
-  <si>
-    <t>A3K1</t>
-  </si>
-  <si>
-    <t>A2D1</t>
-  </si>
-  <si>
-    <t>A3JX</t>
-  </si>
-  <si>
     <t>A3LM</t>
   </si>
   <si>
-    <t>J520</t>
-  </si>
-  <si>
     <t>D519</t>
   </si>
   <si>
@@ -112,258 +112,258 @@
     <t>Lift Maintenance</t>
   </si>
   <si>
+    <t>A1JS</t>
+  </si>
+  <si>
+    <t>E270</t>
+  </si>
+  <si>
+    <t>E302</t>
+  </si>
+  <si>
     <t>F406</t>
   </si>
   <si>
-    <t>A1JS</t>
-  </si>
-  <si>
-    <t>E302</t>
-  </si>
-  <si>
-    <t>E270</t>
-  </si>
-  <si>
     <t>B903</t>
   </si>
   <si>
+    <t>A3SK</t>
+  </si>
+  <si>
+    <t>D1030</t>
+  </si>
+  <si>
+    <t>Snowmaking</t>
+  </si>
+  <si>
+    <t>A3IL</t>
+  </si>
+  <si>
+    <t>G397</t>
+  </si>
+  <si>
+    <t>H716</t>
+  </si>
+  <si>
+    <t>A3SJ</t>
+  </si>
+  <si>
     <t>J169</t>
   </si>
   <si>
-    <t>D1030</t>
-  </si>
-  <si>
-    <t>Snowmaking</t>
-  </si>
-  <si>
-    <t>A3IL</t>
-  </si>
-  <si>
-    <t>A3SK</t>
-  </si>
-  <si>
     <t>D941</t>
   </si>
   <si>
-    <t>G397</t>
-  </si>
-  <si>
-    <t>H716</t>
-  </si>
-  <si>
-    <t>A3SJ</t>
+    <t>H125</t>
+  </si>
+  <si>
+    <t>D1060</t>
+  </si>
+  <si>
+    <t>Terrain Park</t>
+  </si>
+  <si>
+    <t>I540</t>
+  </si>
+  <si>
+    <t>J056</t>
+  </si>
+  <si>
+    <t>A3DS</t>
+  </si>
+  <si>
+    <t>I238</t>
   </si>
   <si>
     <t>H101</t>
   </si>
   <si>
-    <t>D1060</t>
-  </si>
-  <si>
-    <t>Terrain Park</t>
-  </si>
-  <si>
-    <t>H125</t>
-  </si>
-  <si>
-    <t>A3DS</t>
-  </si>
-  <si>
-    <t>J056</t>
-  </si>
-  <si>
-    <t>I540</t>
-  </si>
-  <si>
-    <t>I238</t>
+    <t>E436</t>
+  </si>
+  <si>
+    <t>D1070</t>
+  </si>
+  <si>
+    <t>Trail Maintenance</t>
+  </si>
+  <si>
+    <t>A2UN</t>
+  </si>
+  <si>
+    <t>D826</t>
   </si>
   <si>
     <t>A1ZX</t>
   </si>
   <si>
-    <t>D1070</t>
-  </si>
-  <si>
-    <t>Trail Maintenance</t>
-  </si>
-  <si>
     <t>B250</t>
   </si>
   <si>
     <t>B797</t>
   </si>
   <si>
-    <t>A2UN</t>
-  </si>
-  <si>
-    <t>D826</t>
-  </si>
-  <si>
     <t>A23C</t>
   </si>
   <si>
     <t>E877</t>
   </si>
   <si>
-    <t>E436</t>
+    <t>J185</t>
+  </si>
+  <si>
+    <t>D1100</t>
+  </si>
+  <si>
+    <t>Vehicle Maintenance</t>
   </si>
   <si>
     <t>A1T8</t>
   </si>
   <si>
-    <t>D1100</t>
-  </si>
-  <si>
-    <t>Vehicle Maintenance</t>
-  </si>
-  <si>
-    <t>J185</t>
+    <t>B924</t>
+  </si>
+  <si>
+    <t>D1200</t>
+  </si>
+  <si>
+    <t>Ski Patrol</t>
+  </si>
+  <si>
+    <t>E950</t>
+  </si>
+  <si>
+    <t>B878</t>
+  </si>
+  <si>
+    <t>A889</t>
+  </si>
+  <si>
+    <t>J471</t>
+  </si>
+  <si>
+    <t>I762</t>
+  </si>
+  <si>
+    <t>B898</t>
+  </si>
+  <si>
+    <t>D855</t>
+  </si>
+  <si>
+    <t>A0JG</t>
+  </si>
+  <si>
+    <t>G076</t>
   </si>
   <si>
     <t>E584</t>
   </si>
   <si>
-    <t>D1200</t>
-  </si>
-  <si>
-    <t>Ski Patrol</t>
-  </si>
-  <si>
-    <t>J471</t>
-  </si>
-  <si>
-    <t>D855</t>
-  </si>
-  <si>
-    <t>A0JG</t>
+    <t>A3L3</t>
+  </si>
+  <si>
+    <t>E471</t>
+  </si>
+  <si>
+    <t>B162</t>
+  </si>
+  <si>
+    <t>H620</t>
   </si>
   <si>
     <t>A3LN</t>
   </si>
   <si>
-    <t>B898</t>
-  </si>
-  <si>
     <t>J024</t>
   </si>
   <si>
-    <t>G076</t>
-  </si>
-  <si>
-    <t>I762</t>
-  </si>
-  <si>
-    <t>E950</t>
-  </si>
-  <si>
-    <t>B162</t>
-  </si>
-  <si>
-    <t>A3L3</t>
-  </si>
-  <si>
-    <t>H620</t>
-  </si>
-  <si>
-    <t>A889</t>
-  </si>
-  <si>
-    <t>B878</t>
-  </si>
-  <si>
-    <t>B924</t>
-  </si>
-  <si>
-    <t>E471</t>
+    <t>OL</t>
+  </si>
+  <si>
+    <t>D1500</t>
+  </si>
+  <si>
+    <t>Tickets</t>
+  </si>
+  <si>
+    <t>A3S9</t>
+  </si>
+  <si>
+    <t>A3PB</t>
+  </si>
+  <si>
+    <t>A3SA</t>
+  </si>
+  <si>
+    <t>D441</t>
+  </si>
+  <si>
+    <t>A1FE</t>
+  </si>
+  <si>
+    <t>B341</t>
+  </si>
+  <si>
+    <t>A3NY</t>
+  </si>
+  <si>
+    <t>D126</t>
+  </si>
+  <si>
+    <t>A3PT</t>
+  </si>
+  <si>
+    <t>A3M3</t>
+  </si>
+  <si>
+    <t>A37H</t>
+  </si>
+  <si>
+    <t>I563</t>
+  </si>
+  <si>
+    <t>A3M1</t>
+  </si>
+  <si>
+    <t>J071</t>
+  </si>
+  <si>
+    <t>I552</t>
+  </si>
+  <si>
+    <t>D071</t>
+  </si>
+  <si>
+    <t>C173</t>
+  </si>
+  <si>
+    <t>A3AD</t>
+  </si>
+  <si>
+    <t>A34H</t>
+  </si>
+  <si>
+    <t>A3NV</t>
   </si>
   <si>
     <t>A2TY</t>
   </si>
   <si>
-    <t>D1500</t>
-  </si>
-  <si>
-    <t>Tickets</t>
+    <t>E547</t>
+  </si>
+  <si>
+    <t>A3NW</t>
+  </si>
+  <si>
+    <t>A2O6</t>
   </si>
   <si>
     <t>A2KR</t>
   </si>
   <si>
-    <t>OL</t>
-  </si>
-  <si>
-    <t>B341</t>
-  </si>
-  <si>
-    <t>A3NW</t>
-  </si>
-  <si>
-    <t>A3NY</t>
-  </si>
-  <si>
-    <t>I563</t>
-  </si>
-  <si>
-    <t>D126</t>
-  </si>
-  <si>
-    <t>A37H</t>
-  </si>
-  <si>
-    <t>A3AD</t>
-  </si>
-  <si>
-    <t>A3PT</t>
-  </si>
-  <si>
-    <t>D071</t>
-  </si>
-  <si>
-    <t>I552</t>
-  </si>
-  <si>
-    <t>J071</t>
-  </si>
-  <si>
-    <t>A3M3</t>
-  </si>
-  <si>
-    <t>A34H</t>
-  </si>
-  <si>
-    <t>A3PB</t>
-  </si>
-  <si>
-    <t>C173</t>
-  </si>
-  <si>
-    <t>E547</t>
-  </si>
-  <si>
     <t>I565</t>
   </si>
   <si>
-    <t>A3S9</t>
-  </si>
-  <si>
-    <t>A2O6</t>
-  </si>
-  <si>
-    <t>A3M1</t>
-  </si>
-  <si>
-    <t>A3NV</t>
-  </si>
-  <si>
-    <t>A3SA</t>
-  </si>
-  <si>
-    <t>A1FE</t>
-  </si>
-  <si>
-    <t>D441</t>
-  </si>
-  <si>
     <t>G327</t>
   </si>
   <si>
@@ -400,24 +400,24 @@
     <t>Purg Sports Main Ave</t>
   </si>
   <si>
+    <t>D5201</t>
+  </si>
+  <si>
+    <t>Powderhouse</t>
+  </si>
+  <si>
+    <t>I216</t>
+  </si>
+  <si>
+    <t>A2LP</t>
+  </si>
+  <si>
+    <t>E181</t>
+  </si>
+  <si>
     <t>E655</t>
   </si>
   <si>
-    <t>D5201</t>
-  </si>
-  <si>
-    <t>Powderhouse</t>
-  </si>
-  <si>
-    <t>I216</t>
-  </si>
-  <si>
-    <t>A2LP</t>
-  </si>
-  <si>
-    <t>E181</t>
-  </si>
-  <si>
     <t>A3VR</t>
   </si>
   <si>
@@ -439,58 +439,64 @@
     <t>Waffle Cabin</t>
   </si>
   <si>
+    <t>A3PX</t>
+  </si>
+  <si>
+    <t>D5206</t>
+  </si>
+  <si>
+    <t>Hoody's</t>
+  </si>
+  <si>
+    <t>A36T</t>
+  </si>
+  <si>
+    <t>A3FO</t>
+  </si>
+  <si>
+    <t>A3ZI</t>
+  </si>
+  <si>
+    <t>G724</t>
+  </si>
+  <si>
     <t>I704</t>
   </si>
   <si>
-    <t>D5206</t>
-  </si>
-  <si>
-    <t>Hoody's</t>
-  </si>
-  <si>
-    <t>A3PX</t>
-  </si>
-  <si>
-    <t>A3FO</t>
-  </si>
-  <si>
-    <t>A36T</t>
-  </si>
-  <si>
-    <t>A3ZI</t>
-  </si>
-  <si>
-    <t>G724</t>
+    <t>J434</t>
+  </si>
+  <si>
+    <t>D5207</t>
+  </si>
+  <si>
+    <t>Paradise</t>
   </si>
   <si>
     <t>I517</t>
   </si>
   <si>
-    <t>D5207</t>
-  </si>
-  <si>
-    <t>Paradise</t>
+    <t>I518</t>
   </si>
   <si>
     <t>J335</t>
   </si>
   <si>
-    <t>J434</t>
-  </si>
-  <si>
-    <t>I518</t>
-  </si>
-  <si>
     <t>A1MU</t>
   </si>
   <si>
+    <t>A2RM</t>
+  </si>
+  <si>
+    <t>D5208</t>
+  </si>
+  <si>
+    <t>Purgy's</t>
+  </si>
+  <si>
     <t>A739</t>
   </si>
   <si>
-    <t>D5208</t>
-  </si>
-  <si>
-    <t>Purgy's</t>
+    <t>A43Z</t>
   </si>
   <si>
     <t>A3GE</t>
@@ -499,93 +505,87 @@
     <t>A2HN</t>
   </si>
   <si>
+    <t>D499</t>
+  </si>
+  <si>
+    <t>D274</t>
+  </si>
+  <si>
+    <t>A3UA</t>
+  </si>
+  <si>
+    <t>I666</t>
+  </si>
+  <si>
+    <t>A2SG</t>
+  </si>
+  <si>
+    <t>A3VO</t>
+  </si>
+  <si>
+    <t>B101</t>
+  </si>
+  <si>
     <t>A38R</t>
   </si>
   <si>
-    <t>I666</t>
-  </si>
-  <si>
-    <t>A43Z</t>
-  </si>
-  <si>
-    <t>A2SG</t>
-  </si>
-  <si>
-    <t>A3VO</t>
-  </si>
-  <si>
-    <t>A3UA</t>
-  </si>
-  <si>
-    <t>D274</t>
-  </si>
-  <si>
-    <t>D499</t>
-  </si>
-  <si>
-    <t>B101</t>
-  </si>
-  <si>
     <t>A15N</t>
   </si>
   <si>
-    <t>A2RM</t>
-  </si>
-  <si>
     <t>D5209</t>
   </si>
   <si>
     <t>Village Market Deli</t>
   </si>
   <si>
+    <t>F313</t>
+  </si>
+  <si>
+    <t>D6212</t>
+  </si>
+  <si>
+    <t>Purgatory</t>
+  </si>
+  <si>
+    <t>F298</t>
+  </si>
+  <si>
+    <t>D283</t>
+  </si>
+  <si>
+    <t>A3DX</t>
+  </si>
+  <si>
+    <t>A42D</t>
+  </si>
+  <si>
     <t>A42C</t>
   </si>
   <si>
-    <t>D6212</t>
-  </si>
-  <si>
-    <t>Purgatory</t>
-  </si>
-  <si>
-    <t>A3DX</t>
-  </si>
-  <si>
-    <t>F313</t>
-  </si>
-  <si>
     <t>I953</t>
   </si>
   <si>
-    <t>F298</t>
-  </si>
-  <si>
     <t>A1N1</t>
   </si>
   <si>
-    <t>D283</t>
-  </si>
-  <si>
-    <t>A42D</t>
+    <t>J489</t>
+  </si>
+  <si>
+    <t>D6215</t>
+  </si>
+  <si>
+    <t>Housekeeping</t>
+  </si>
+  <si>
+    <t>H341</t>
+  </si>
+  <si>
+    <t>I999</t>
   </si>
   <si>
     <t>J492</t>
   </si>
   <si>
-    <t>D6215</t>
-  </si>
-  <si>
-    <t>Housekeeping</t>
-  </si>
-  <si>
-    <t>J489</t>
-  </si>
-  <si>
-    <t>I999</t>
-  </si>
-  <si>
-    <t>H341</t>
-  </si>
-  <si>
     <t>A3DT</t>
   </si>
   <si>
@@ -598,58 +598,67 @@
     <t>Resort Services G&amp;A</t>
   </si>
   <si>
+    <t>A37G</t>
+  </si>
+  <si>
     <t>D6720</t>
   </si>
   <si>
     <t>Guest Services</t>
   </si>
   <si>
-    <t>A37G</t>
-  </si>
-  <si>
     <t>A2RO</t>
   </si>
   <si>
+    <t>A3FH</t>
+  </si>
+  <si>
+    <t>D6730</t>
+  </si>
+  <si>
+    <t>Security</t>
+  </si>
+  <si>
     <t>B421</t>
   </si>
   <si>
-    <t>D6730</t>
-  </si>
-  <si>
-    <t>Security</t>
-  </si>
-  <si>
-    <t>A3FH</t>
+    <t>A3HI</t>
+  </si>
+  <si>
+    <t>D6750</t>
+  </si>
+  <si>
+    <t>Engineering</t>
+  </si>
+  <si>
+    <t>A2DH</t>
+  </si>
+  <si>
+    <t>F396</t>
   </si>
   <si>
     <t>A3HC</t>
   </si>
   <si>
-    <t>D6750</t>
-  </si>
-  <si>
-    <t>Engineering</t>
-  </si>
-  <si>
-    <t>F396</t>
-  </si>
-  <si>
-    <t>A2DH</t>
-  </si>
-  <si>
-    <t>A3HI</t>
-  </si>
-  <si>
     <t>C516</t>
   </si>
   <si>
+    <t>A3PE</t>
+  </si>
+  <si>
+    <t>D6780</t>
+  </si>
+  <si>
+    <t>Grounds Maintenance</t>
+  </si>
+  <si>
     <t>A1WB</t>
   </si>
   <si>
-    <t>D6780</t>
-  </si>
-  <si>
-    <t>Grounds Maintenance</t>
+    <t>A2JA</t>
+  </si>
+  <si>
+    <t>A2SD</t>
   </si>
   <si>
     <t>E609</t>
@@ -658,18 +667,9 @@
     <t>D736</t>
   </si>
   <si>
-    <t>A2JA</t>
-  </si>
-  <si>
     <t>A2UO</t>
   </si>
   <si>
-    <t>A3PE</t>
-  </si>
-  <si>
-    <t>A2SD</t>
-  </si>
-  <si>
     <t>A3N2</t>
   </si>
   <si>
@@ -679,21 +679,21 @@
     <t>Snow Removal</t>
   </si>
   <si>
+    <t>A03K</t>
+  </si>
+  <si>
+    <t>D6790</t>
+  </si>
+  <si>
+    <t>Transportation</t>
+  </si>
+  <si>
+    <t>J483</t>
+  </si>
+  <si>
     <t>A3SY</t>
   </si>
   <si>
-    <t>D6790</t>
-  </si>
-  <si>
-    <t>Transportation</t>
-  </si>
-  <si>
-    <t>J483</t>
-  </si>
-  <si>
-    <t>A03K</t>
-  </si>
-  <si>
     <t>G322</t>
   </si>
   <si>
@@ -703,34 +703,34 @@
     <t>Marketing</t>
   </si>
   <si>
+    <t>A1Z8</t>
+  </si>
+  <si>
     <t>F033</t>
   </si>
   <si>
-    <t>A1Z8</t>
+    <t>A3WZ</t>
+  </si>
+  <si>
+    <t>D8020</t>
+  </si>
+  <si>
+    <t>Accounting</t>
   </si>
   <si>
     <t>D737</t>
   </si>
   <si>
-    <t>D8020</t>
-  </si>
-  <si>
-    <t>Accounting</t>
-  </si>
-  <si>
-    <t>A3WZ</t>
+    <t>A1BT</t>
+  </si>
+  <si>
+    <t>D8040</t>
+  </si>
+  <si>
+    <t>A39Q</t>
   </si>
   <si>
     <t>A3C3</t>
-  </si>
-  <si>
-    <t>D8040</t>
-  </si>
-  <si>
-    <t>A39Q</t>
-  </si>
-  <si>
-    <t>A1BT</t>
   </si>
   <si>
     <t>A1ZP</t>
@@ -1184,22 +1184,22 @@
         <v>13</v>
       </c>
       <c r="B3" s="2">
-        <v>45993.29166666666</v>
+        <v>45992.33238425926</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D3" s="2">
-        <v>45993.29166666666</v>
+        <v>45992.67116898148</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="G3" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H3" s="2" t="s">
         <v>12</v>
@@ -1207,16 +1207,16 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2">
-        <v>45992.71596064815</v>
+        <v>45993.29910879629</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D4" s="2">
-        <v>45992.71875</v>
+        <v>45993.7230324074</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>10</v>
@@ -1225,7 +1225,7 @@
         <v>11</v>
       </c>
       <c r="G4" s="2">
-        <v>16</v>
+        <v>19.57</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>12</v>
@@ -1233,16 +1233,16 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2">
-        <v>45992.29166666666</v>
+        <v>45992.29747685185</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D5" s="2">
-        <v>45992.71875</v>
+        <v>45992.68304398148</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>10</v>
@@ -1251,7 +1251,7 @@
         <v>11</v>
       </c>
       <c r="G5" s="2">
-        <v>16</v>
+        <v>19.57</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>12</v>
@@ -1259,16 +1259,16 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="B6" s="2">
-        <v>45993.31658564815</v>
+        <v>45993.31125</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D6" s="2">
-        <v>45993.70996527778</v>
+        <v>45993.72252314815</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>10</v>
@@ -1288,13 +1288,13 @@
         <v>15</v>
       </c>
       <c r="B7" s="2">
-        <v>45992.31020833334</v>
+        <v>45992.3065162037</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D7" s="2">
-        <v>45992.70743055556</v>
+        <v>45992.71550925926</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>10</v>
@@ -1303,7 +1303,7 @@
         <v>11</v>
       </c>
       <c r="G7" s="2">
-        <v>14.5</v>
+        <v>15.5</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>12</v>
@@ -1314,13 +1314,13 @@
         <v>16</v>
       </c>
       <c r="B8" s="2">
-        <v>45992.28857638889</v>
+        <v>45993.30665509259</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D8" s="2">
-        <v>45992.71381944444</v>
+        <v>45993.723125</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>10</v>
@@ -1329,7 +1329,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>12</v>
@@ -1340,13 +1340,13 @@
         <v>17</v>
       </c>
       <c r="B9" s="2">
-        <v>45992.55469907408</v>
+        <v>45992.32686342593</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>45992.68180555556</v>
+        <v>45992.70833333334</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>10</v>
@@ -1355,7 +1355,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="2">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>12</v>
@@ -1363,16 +1363,16 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="2">
-        <v>45993.30665509259</v>
+        <v>45992.28875</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D10" s="2">
-        <v>45993.723125</v>
+        <v>45992.71085648148</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>10</v>
@@ -1389,16 +1389,16 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" s="2">
-        <v>45993.32325231482</v>
+        <v>45992.29674768518</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D11" s="2">
-        <v>45993.70679398148</v>
+        <v>45992.71288194445</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>10</v>
@@ -1407,7 +1407,7 @@
         <v>11</v>
       </c>
       <c r="G11" s="2">
-        <v>14.5</v>
+        <v>23.69</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>12</v>
@@ -1415,16 +1415,16 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B12" s="2">
-        <v>45992.29747685185</v>
+        <v>45993.32325231482</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D12" s="2">
-        <v>45992.68304398148</v>
+        <v>45993.70679398148</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>10</v>
@@ -1433,7 +1433,7 @@
         <v>11</v>
       </c>
       <c r="G12" s="2">
-        <v>19.57</v>
+        <v>14.5</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>12</v>
@@ -1441,16 +1441,16 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B13" s="2">
-        <v>45992.3065162037</v>
+        <v>45993.29755787037</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="2">
-        <v>45992.71550925926</v>
+        <v>45993.70832175926</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>10</v>
@@ -1459,7 +1459,7 @@
         <v>11</v>
       </c>
       <c r="G13" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H13" s="2" t="s">
         <v>12</v>
@@ -1467,16 +1467,16 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B14" s="2">
-        <v>45993.31125</v>
+        <v>45992.31201388889</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D14" s="2">
-        <v>45993.72252314815</v>
+        <v>45992.68565972222</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>10</v>
@@ -1485,7 +1485,7 @@
         <v>11</v>
       </c>
       <c r="G14" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>12</v>
@@ -1493,16 +1493,16 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45992.55469907408</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="2">
-        <v>45992.33238425926</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
       <c r="D15" s="2">
-        <v>45992.67116898148</v>
+        <v>45992.68180555556</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>10</v>
@@ -1511,7 +1511,7 @@
         <v>11</v>
       </c>
       <c r="G15" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>12</v>
@@ -1519,16 +1519,16 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="2" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="B16" s="2">
-        <v>45992.32686342593</v>
+        <v>45993.31658564815</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D16" s="2">
-        <v>45992.70833333334</v>
+        <v>45993.70996527778</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>10</v>
@@ -1537,7 +1537,7 @@
         <v>11</v>
       </c>
       <c r="G16" s="2">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>12</v>
@@ -1545,16 +1545,16 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B17" s="2">
-        <v>45992.31201388889</v>
+        <v>45992.71596064815</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D17" s="2">
-        <v>45992.68565972222</v>
+        <v>45992.71875</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>10</v>
@@ -1571,16 +1571,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B18" s="2">
-        <v>45993.29755787037</v>
+        <v>45992.29166666666</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D18" s="2">
-        <v>45993.70832175926</v>
+        <v>45992.71875</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>10</v>
@@ -1597,19 +1597,19 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B19" s="2">
-        <v>45993.29893518519</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D19" s="2">
-        <v>45993.70039351852</v>
+        <v>45993.29166666666</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
@@ -1623,16 +1623,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B20" s="2">
-        <v>45992.29674768518</v>
+        <v>45992.28857638889</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D20" s="2">
-        <v>45992.71288194445</v>
+        <v>45992.71381944444</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>10</v>
@@ -1641,7 +1641,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="2">
-        <v>23.69</v>
+        <v>16</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>12</v>
@@ -1649,16 +1649,16 @@
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B21" s="2">
-        <v>45993.29910879629</v>
+        <v>45992.31020833334</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D21" s="2">
-        <v>45993.7230324074</v>
+        <v>45992.70743055556</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>10</v>
@@ -1667,7 +1667,7 @@
         <v>11</v>
       </c>
       <c r="G21" s="2">
-        <v>19.57</v>
+        <v>14.5</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>12</v>
@@ -1675,16 +1675,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B22" s="2">
-        <v>45992.28875</v>
+        <v>45993.29893518519</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D22" s="2">
-        <v>45992.71085648148</v>
+        <v>45993.70039351852</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>10</v>
@@ -1693,7 +1693,7 @@
         <v>11</v>
       </c>
       <c r="G22" s="2">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>12</v>
@@ -1727,16 +1727,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B24" s="2">
-        <v>45992.26055555556</v>
+        <v>45993.27314814815</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D24" s="2">
-        <v>45992.68293981482</v>
+        <v>45993.70487268519</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>10</v>
@@ -1745,7 +1745,7 @@
         <v>30</v>
       </c>
       <c r="G24" s="2">
-        <v>25.69</v>
+        <v>21.57</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>31</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="2">
         <v>45992.27179398148</v>
@@ -1779,16 +1779,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B26" s="2">
-        <v>45993.27181712963</v>
+        <v>45992.27777777778</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D26" s="2">
-        <v>45993.70261574074</v>
+        <v>45992.70017361111</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>10</v>
@@ -1797,7 +1797,7 @@
         <v>30</v>
       </c>
       <c r="G26" s="2">
-        <v>29.87</v>
+        <v>35.43</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>31</v>
@@ -1805,16 +1805,16 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B27" s="2">
-        <v>45992.27083333334</v>
+        <v>45993.26789351852</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D27" s="2">
-        <v>45992.69840277778</v>
+        <v>45993.70138888889</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>10</v>
@@ -1823,7 +1823,7 @@
         <v>30</v>
       </c>
       <c r="G27" s="2">
-        <v>29.87</v>
+        <v>35.43</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>31</v>
@@ -1831,16 +1831,16 @@
     </row>
     <row r="28" spans="1:8">
       <c r="A28" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B28" s="2">
-        <v>45993.26789351852</v>
+        <v>45992.27083333334</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D28" s="2">
-        <v>45993.70138888889</v>
+        <v>45992.69840277778</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>10</v>
@@ -1849,7 +1849,7 @@
         <v>30</v>
       </c>
       <c r="G28" s="2">
-        <v>35.43</v>
+        <v>29.87</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>31</v>
@@ -1857,16 +1857,16 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B29" s="2">
-        <v>45993.27314814815</v>
+        <v>45992.26055555556</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D29" s="2">
-        <v>45993.70487268519</v>
+        <v>45992.68293981482</v>
       </c>
       <c r="E29" s="2" t="s">
         <v>10</v>
@@ -1875,7 +1875,7 @@
         <v>30</v>
       </c>
       <c r="G29" s="2">
-        <v>21.57</v>
+        <v>25.69</v>
       </c>
       <c r="H29" s="2" t="s">
         <v>31</v>
@@ -1883,16 +1883,16 @@
     </row>
     <row r="30" spans="1:8">
       <c r="A30" s="2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B30" s="2">
-        <v>45992.27777777778</v>
+        <v>45992.26872685185</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D30" s="2">
-        <v>45992.70017361111</v>
+        <v>45992.68879629629</v>
       </c>
       <c r="E30" s="2" t="s">
         <v>10</v>
@@ -1901,7 +1901,7 @@
         <v>30</v>
       </c>
       <c r="G30" s="2">
-        <v>35.43</v>
+        <v>23.63</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>31</v>
@@ -1909,16 +1909,16 @@
     </row>
     <row r="31" spans="1:8">
       <c r="A31" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B31" s="2">
-        <v>45992.26872685185</v>
+        <v>45993.27181712963</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D31" s="2">
-        <v>45992.68879629629</v>
+        <v>45993.70261574074</v>
       </c>
       <c r="E31" s="2" t="s">
         <v>10</v>
@@ -1927,7 +1927,7 @@
         <v>30</v>
       </c>
       <c r="G31" s="2">
-        <v>23.63</v>
+        <v>29.87</v>
       </c>
       <c r="H31" s="2" t="s">
         <v>31</v>
@@ -1938,18 +1938,22 @@
         <v>37</v>
       </c>
       <c r="B32" s="2">
-        <v>45992.43916666666</v>
+        <v>45992.46368055556</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
+      <c r="D32" s="2">
+        <v>45992.96348379629</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F32" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G32" s="2">
-        <v>18.55</v>
+        <v>19.1</v>
       </c>
       <c r="H32" s="2" t="s">
         <v>39</v>
@@ -1957,16 +1961,16 @@
     </row>
     <row r="33" spans="1:8">
       <c r="A33" s="2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B33" s="2">
-        <v>45993.38255787037</v>
+        <v>45993.45630787037</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D33" s="2">
-        <v>45993.70826388889</v>
+        <v>45994.00210648148</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>10</v>
@@ -1975,7 +1979,7 @@
         <v>38</v>
       </c>
       <c r="G33" s="2">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="H33" s="2" t="s">
         <v>39</v>
@@ -1983,16 +1987,16 @@
     </row>
     <row r="34" spans="1:8">
       <c r="A34" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B34" s="2">
-        <v>45992.46368055556</v>
+        <v>45993.38255787037</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D34" s="2">
-        <v>45992.96348379629</v>
+        <v>45993.70826388889</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>10</v>
@@ -2001,7 +2005,7 @@
         <v>38</v>
       </c>
       <c r="G34" s="2">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>39</v>
@@ -2009,16 +2013,16 @@
     </row>
     <row r="35" spans="1:8">
       <c r="A35" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B35" s="2">
-        <v>45993.4521875</v>
+        <v>45992.46755787037</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D35" s="2">
-        <v>45994.0188425926</v>
+        <v>45992.98403935185</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>10</v>
@@ -2035,20 +2039,16 @@
     </row>
     <row r="36" spans="1:8">
       <c r="A36" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B36" s="2">
-        <v>45992.46755787037</v>
+        <v>45993.44041666666</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D36" s="2">
-        <v>45992.98403935185</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
         <v>38</v>
       </c>
@@ -2061,21 +2061,25 @@
     </row>
     <row r="37" spans="1:8">
       <c r="A37" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B37" s="2">
-        <v>45993.44041666666</v>
+        <v>45992.47134259259</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
+      <c r="D37" s="2">
+        <v>45992.95304398148</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F37" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G37" s="2">
-        <v>18.55</v>
+        <v>15</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>39</v>
@@ -2083,16 +2087,16 @@
     </row>
     <row r="38" spans="1:8">
       <c r="A38" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B38" s="2">
-        <v>45992.47134259259</v>
+        <v>45993.46209490741</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D38" s="2">
-        <v>45992.95304398148</v>
+        <v>45993.97168981482</v>
       </c>
       <c r="E38" s="2" t="s">
         <v>10</v>
@@ -2109,16 +2113,16 @@
     </row>
     <row r="39" spans="1:8">
       <c r="A39" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B39" s="2">
-        <v>45993.46209490741</v>
+        <v>45992.4428587963</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D39" s="2">
-        <v>45993.97168981482</v>
+        <v>45992.98121527778</v>
       </c>
       <c r="E39" s="2" t="s">
         <v>10</v>
@@ -2127,7 +2131,7 @@
         <v>38</v>
       </c>
       <c r="G39" s="2">
-        <v>15</v>
+        <v>19.1</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>39</v>
@@ -2135,25 +2139,21 @@
     </row>
     <row r="40" spans="1:8">
       <c r="A40" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B40" s="2">
-        <v>45992.4428587963</v>
+        <v>45992.43916666666</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D40" s="2">
-        <v>45992.98121527778</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
       <c r="F40" s="2" t="s">
         <v>38</v>
       </c>
       <c r="G40" s="2">
-        <v>19.1</v>
+        <v>18.55</v>
       </c>
       <c r="H40" s="2" t="s">
         <v>39</v>
@@ -2161,16 +2161,16 @@
     </row>
     <row r="41" spans="1:8">
       <c r="A41" s="2" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B41" s="2">
-        <v>45993.45630787037</v>
+        <v>45993.4521875</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D41" s="2">
-        <v>45994.00210648148</v>
+        <v>45994.0188425926</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>10</v>
@@ -2179,7 +2179,7 @@
         <v>38</v>
       </c>
       <c r="G41" s="2">
-        <v>19.1</v>
+        <v>18.55</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>39</v>
@@ -2190,7 +2190,7 @@
         <v>46</v>
       </c>
       <c r="B42" s="2">
-        <v>45993.3125</v>
+        <v>45993.67045138889</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>9</v>
@@ -2201,7 +2201,7 @@
         <v>47</v>
       </c>
       <c r="G42" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>48</v>
@@ -2212,18 +2212,22 @@
         <v>49</v>
       </c>
       <c r="B43" s="2">
-        <v>45993.67045138889</v>
+        <v>45993.31822916667</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="D43" s="2">
+        <v>45993.73927083334</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F43" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G43" s="2">
-        <v>19</v>
+        <v>12.35</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>48</v>
@@ -2234,13 +2238,13 @@
         <v>50</v>
       </c>
       <c r="B44" s="2">
-        <v>45993.3184375</v>
+        <v>45992.31195601852</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D44" s="2">
-        <v>45993.73899305556</v>
+        <v>45992.73530092592</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>10</v>
@@ -2249,7 +2253,7 @@
         <v>47</v>
       </c>
       <c r="G44" s="2">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>48</v>
@@ -2260,13 +2264,13 @@
         <v>51</v>
       </c>
       <c r="B45" s="2">
-        <v>45992.31195601852</v>
+        <v>45993.3184375</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D45" s="2">
-        <v>45992.73530092592</v>
+        <v>45993.73899305556</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>10</v>
@@ -2275,7 +2279,7 @@
         <v>47</v>
       </c>
       <c r="G45" s="2">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>48</v>
@@ -2283,7 +2287,7 @@
     </row>
     <row r="46" spans="1:8">
       <c r="A46" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B46" s="2">
         <v>45992.3125</v>
@@ -2312,13 +2316,13 @@
         <v>52</v>
       </c>
       <c r="B47" s="2">
-        <v>45993.31822916667</v>
+        <v>45993.30012731482</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D47" s="2">
-        <v>45993.73927083334</v>
+        <v>45993.73251157408</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>10</v>
@@ -2327,7 +2331,7 @@
         <v>47</v>
       </c>
       <c r="G47" s="2">
-        <v>12.35</v>
+        <v>16</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>48</v>
@@ -2338,22 +2342,18 @@
         <v>53</v>
       </c>
       <c r="B48" s="2">
-        <v>45993.30012731482</v>
+        <v>45993.3125</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="2">
-        <v>45993.73251157408</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
       <c r="F48" s="2" t="s">
         <v>47</v>
       </c>
       <c r="G48" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>48</v>
@@ -2364,13 +2364,13 @@
         <v>54</v>
       </c>
       <c r="B49" s="2">
-        <v>45992.92275462963</v>
+        <v>45993.72826388889</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D49" s="2">
-        <v>45993.4577662037</v>
+        <v>45994.21900462963</v>
       </c>
       <c r="E49" s="2" t="s">
         <v>10</v>
@@ -2379,7 +2379,7 @@
         <v>55</v>
       </c>
       <c r="G49" s="2">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>56</v>
@@ -2387,16 +2387,16 @@
     </row>
     <row r="50" spans="1:8">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B50" s="2">
-        <v>45993.97611111111</v>
+        <v>45992.48701388889</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D50" s="2">
-        <v>45994.45969907408</v>
+        <v>45992.58333333334</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>10</v>
@@ -2405,7 +2405,7 @@
         <v>55</v>
       </c>
       <c r="G50" s="2">
-        <v>18</v>
+        <v>23.33</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>56</v>
@@ -2416,13 +2416,13 @@
         <v>57</v>
       </c>
       <c r="B51" s="2">
-        <v>45992.98611111111</v>
+        <v>45993.47743055555</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D51" s="2">
-        <v>45993.54166666666</v>
+        <v>45993.95138888889</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>10</v>
@@ -2431,7 +2431,7 @@
         <v>55</v>
       </c>
       <c r="G51" s="2">
-        <v>24.26</v>
+        <v>23.33</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>56</v>
@@ -2442,13 +2442,13 @@
         <v>58</v>
       </c>
       <c r="B52" s="2">
-        <v>45993.95633101852</v>
+        <v>45992.28890046296</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D52" s="2">
-        <v>45994.46997685185</v>
+        <v>45992.71565972222</v>
       </c>
       <c r="E52" s="2" t="s">
         <v>10</v>
@@ -2457,7 +2457,7 @@
         <v>55</v>
       </c>
       <c r="G52" s="2">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="H52" s="2" t="s">
         <v>56</v>
@@ -2465,16 +2465,16 @@
     </row>
     <row r="53" spans="1:8">
       <c r="A53" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B53" s="2">
-        <v>45992.48701388889</v>
+        <v>45993.28452546296</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D53" s="2">
-        <v>45992.58333333334</v>
+        <v>45993.72278935185</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>10</v>
@@ -2483,7 +2483,7 @@
         <v>55</v>
       </c>
       <c r="G53" s="2">
-        <v>23.33</v>
+        <v>26</v>
       </c>
       <c r="H53" s="2" t="s">
         <v>56</v>
@@ -2494,13 +2494,13 @@
         <v>59</v>
       </c>
       <c r="B54" s="2">
-        <v>45993.47743055555</v>
+        <v>45992.92275462963</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D54" s="2">
-        <v>45993.95138888889</v>
+        <v>45993.4577662037</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>10</v>
@@ -2509,7 +2509,7 @@
         <v>55</v>
       </c>
       <c r="G54" s="2">
-        <v>23.33</v>
+        <v>18</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>56</v>
@@ -2517,16 +2517,16 @@
     </row>
     <row r="55" spans="1:8">
       <c r="A55" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B55" s="2">
-        <v>45992.28890046296</v>
+        <v>45993.97611111111</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D55" s="2">
-        <v>45992.71565972222</v>
+        <v>45994.45969907408</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>10</v>
@@ -2535,7 +2535,7 @@
         <v>55</v>
       </c>
       <c r="G55" s="2">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>56</v>
@@ -2546,13 +2546,13 @@
         <v>60</v>
       </c>
       <c r="B56" s="2">
-        <v>45993.28452546296</v>
+        <v>45992.98611111111</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D56" s="2">
-        <v>45993.72278935185</v>
+        <v>45993.54166666666</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>10</v>
@@ -2561,7 +2561,7 @@
         <v>55</v>
       </c>
       <c r="G56" s="2">
-        <v>26</v>
+        <v>24.26</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>56</v>
@@ -2572,13 +2572,13 @@
         <v>61</v>
       </c>
       <c r="B57" s="2">
-        <v>45992.44806712963</v>
+        <v>45993.95633101852</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D57" s="2">
-        <v>45992.78056712963</v>
+        <v>45994.46997685185</v>
       </c>
       <c r="E57" s="2" t="s">
         <v>10</v>
@@ -2587,7 +2587,7 @@
         <v>55</v>
       </c>
       <c r="G57" s="2">
-        <v>18.36</v>
+        <v>19.5</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>56</v>
@@ -2598,13 +2598,13 @@
         <v>62</v>
       </c>
       <c r="B58" s="2">
-        <v>45992.46166666667</v>
+        <v>45992.44806712963</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D58" s="2">
-        <v>45992.97331018518</v>
+        <v>45992.78056712963</v>
       </c>
       <c r="E58" s="2" t="s">
         <v>10</v>
@@ -2613,7 +2613,7 @@
         <v>55</v>
       </c>
       <c r="G58" s="2">
-        <v>16.5</v>
+        <v>18.36</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>56</v>
@@ -2624,13 +2624,13 @@
         <v>63</v>
       </c>
       <c r="B59" s="2">
-        <v>45993.72826388889</v>
+        <v>45992.46166666667</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D59" s="2">
-        <v>45994.21900462963</v>
+        <v>45992.97331018518</v>
       </c>
       <c r="E59" s="2" t="s">
         <v>10</v>
@@ -2639,7 +2639,7 @@
         <v>55</v>
       </c>
       <c r="G59" s="2">
-        <v>23</v>
+        <v>16.5</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>56</v>
@@ -2647,7 +2647,7 @@
     </row>
     <row r="60" spans="1:8">
       <c r="A60" s="2" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B60" s="2">
         <v>45993.46145833333</v>
@@ -2672,13 +2672,13 @@
         <v>64</v>
       </c>
       <c r="B61" s="2">
-        <v>45992.23543981482</v>
+        <v>45992.14164351852</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D61" s="2">
-        <v>45992.70652777778</v>
+        <v>45992.66263888889</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>10</v>
@@ -2687,7 +2687,7 @@
         <v>65</v>
       </c>
       <c r="G61" s="2">
-        <v>22.66</v>
+        <v>27</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>66</v>
@@ -2695,16 +2695,16 @@
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B62" s="2">
-        <v>45992.14164351852</v>
+        <v>45993.22570601852</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D62" s="2">
-        <v>45992.66263888889</v>
+        <v>45993.72601851852</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>10</v>
@@ -2721,16 +2721,16 @@
     </row>
     <row r="63" spans="1:8">
       <c r="A63" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63" s="2">
-        <v>45993.22068287037</v>
+        <v>45992.23543981482</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D63" s="2">
-        <v>45993.70631944444</v>
+        <v>45992.70652777778</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>10</v>
@@ -2750,13 +2750,13 @@
         <v>67</v>
       </c>
       <c r="B64" s="2">
-        <v>45993.22570601852</v>
+        <v>45993.22068287037</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D64" s="2">
-        <v>45993.72601851852</v>
+        <v>45993.70631944444</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>10</v>
@@ -2765,7 +2765,7 @@
         <v>65</v>
       </c>
       <c r="G64" s="2">
-        <v>27</v>
+        <v>22.66</v>
       </c>
       <c r="H64" s="2" t="s">
         <v>66</v>
@@ -2776,13 +2776,13 @@
         <v>68</v>
       </c>
       <c r="B65" s="2">
-        <v>45992.31730324074</v>
+        <v>45993.31284722222</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D65" s="2">
-        <v>45992.71188657408</v>
+        <v>45993.71363425926</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>10</v>
@@ -2791,7 +2791,7 @@
         <v>69</v>
       </c>
       <c r="G65" s="2">
-        <v>22.59</v>
+        <v>18.77</v>
       </c>
       <c r="H65" s="2" t="s">
         <v>70</v>
@@ -2802,13 +2802,13 @@
         <v>71</v>
       </c>
       <c r="B66" s="2">
-        <v>45993.44508101852</v>
+        <v>45993.31121527778</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D66" s="2">
-        <v>45993.61892361111</v>
+        <v>45993.7146875</v>
       </c>
       <c r="E66" s="2" t="s">
         <v>10</v>
@@ -2817,7 +2817,7 @@
         <v>69</v>
       </c>
       <c r="G66" s="2">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>70</v>
@@ -2825,16 +2825,16 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" s="2">
-        <v>45992.36817129629</v>
+        <v>45992.3171875</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D67" s="2">
-        <v>45992.60943287037</v>
+        <v>45992.71112268518</v>
       </c>
       <c r="E67" s="2" t="s">
         <v>10</v>
@@ -2843,7 +2843,7 @@
         <v>69</v>
       </c>
       <c r="G67" s="2">
-        <v>22</v>
+        <v>25.84</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>70</v>
@@ -2851,16 +2851,16 @@
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B68" s="2">
-        <v>45992.31655092593</v>
+        <v>45992.31912037037</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D68" s="2">
-        <v>45992.71273148148</v>
+        <v>45992.71261574074</v>
       </c>
       <c r="E68" s="2" t="s">
         <v>10</v>
@@ -2869,7 +2869,7 @@
         <v>69</v>
       </c>
       <c r="G68" s="2">
-        <v>21.06</v>
+        <v>12.56</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>70</v>
@@ -2877,16 +2877,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B69" s="2">
-        <v>45993.31672453704</v>
+        <v>45993.44508101852</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D69" s="2">
-        <v>45993.71502314815</v>
+        <v>45993.61892361111</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>10</v>
@@ -2895,7 +2895,7 @@
         <v>69</v>
       </c>
       <c r="G69" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>70</v>
@@ -2903,16 +2903,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B70" s="2">
-        <v>45992.3168287037</v>
+        <v>45992.36817129629</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D70" s="2">
-        <v>45992.71090277778</v>
+        <v>45992.60943287037</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>10</v>
@@ -2921,7 +2921,7 @@
         <v>69</v>
       </c>
       <c r="G70" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>70</v>
@@ -2929,16 +2929,16 @@
     </row>
     <row r="71" spans="1:8">
       <c r="A71" s="2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B71" s="2">
-        <v>45992.31818287037</v>
+        <v>45993.71408564815</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D71" s="2">
-        <v>45992.70214120371</v>
+        <v>45993.71423611111</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>10</v>
@@ -2947,7 +2947,7 @@
         <v>69</v>
       </c>
       <c r="G71" s="2">
-        <v>18.03</v>
+        <v>19.77</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>70</v>
@@ -2958,13 +2958,13 @@
         <v>75</v>
       </c>
       <c r="B72" s="2">
-        <v>45992.31704861111</v>
+        <v>45993.31208333333</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D72" s="2">
-        <v>45992.7106712963</v>
+        <v>45993.71381944444</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>10</v>
@@ -2973,7 +2973,7 @@
         <v>69</v>
       </c>
       <c r="G72" s="2">
-        <v>25.09</v>
+        <v>19.77</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>70</v>
@@ -2981,16 +2981,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B73" s="2">
-        <v>45993.31699074074</v>
+        <v>45992.31633101852</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D73" s="2">
-        <v>45993.71618055556</v>
+        <v>45992.71246527778</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>10</v>
@@ -2999,7 +2999,7 @@
         <v>69</v>
       </c>
       <c r="G73" s="2">
-        <v>24.09</v>
+        <v>19.77</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>70</v>
@@ -3010,13 +3010,13 @@
         <v>76</v>
       </c>
       <c r="B74" s="2">
-        <v>45992.32019675926</v>
+        <v>45993.31684027778</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D74" s="2">
-        <v>45992.71041666667</v>
+        <v>45993.71487268519</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>10</v>
@@ -3025,7 +3025,7 @@
         <v>69</v>
       </c>
       <c r="G74" s="2">
-        <v>24.09</v>
+        <v>25.09</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>70</v>
@@ -3033,16 +3033,16 @@
     </row>
     <row r="75" spans="1:8">
       <c r="A75" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B75" s="2">
-        <v>45993.32466435185</v>
+        <v>45992.31704861111</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D75" s="2">
-        <v>45993.7155787037</v>
+        <v>45992.7106712963</v>
       </c>
       <c r="E75" s="2" t="s">
         <v>10</v>
@@ -3051,7 +3051,7 @@
         <v>69</v>
       </c>
       <c r="G75" s="2">
-        <v>23.84</v>
+        <v>25.09</v>
       </c>
       <c r="H75" s="2" t="s">
         <v>70</v>
@@ -3059,16 +3059,16 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="2" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B76" s="2">
-        <v>45993.31684027778</v>
+        <v>45992.31878472222</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D76" s="2">
-        <v>45993.71487268519</v>
+        <v>45992.71140046296</v>
       </c>
       <c r="E76" s="2" t="s">
         <v>10</v>
@@ -3077,7 +3077,7 @@
         <v>69</v>
       </c>
       <c r="G76" s="2">
-        <v>25.09</v>
+        <v>19</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>70</v>
@@ -3085,16 +3085,16 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B77" s="2">
-        <v>45993.31208333333</v>
+        <v>45992.31655092593</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D77" s="2">
-        <v>45993.71381944444</v>
+        <v>45992.71273148148</v>
       </c>
       <c r="E77" s="2" t="s">
         <v>10</v>
@@ -3103,7 +3103,7 @@
         <v>69</v>
       </c>
       <c r="G77" s="2">
-        <v>19.77</v>
+        <v>21.06</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>70</v>
@@ -3111,16 +3111,16 @@
     </row>
     <row r="78" spans="1:8">
       <c r="A78" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B78" s="2">
-        <v>45992.31878472222</v>
+        <v>45993.31672453704</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D78" s="2">
-        <v>45992.71140046296</v>
+        <v>45993.71502314815</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>10</v>
@@ -3137,16 +3137,16 @@
     </row>
     <row r="79" spans="1:8">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B79" s="2">
-        <v>45993.31121527778</v>
+        <v>45992.3168287037</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D79" s="2">
-        <v>45993.7146875</v>
+        <v>45992.71090277778</v>
       </c>
       <c r="E79" s="2" t="s">
         <v>10</v>
@@ -3163,16 +3163,16 @@
     </row>
     <row r="80" spans="1:8">
       <c r="A80" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B80" s="2">
-        <v>45993.71408564815</v>
+        <v>45993.32466435185</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D80" s="2">
-        <v>45993.71423611111</v>
+        <v>45993.7155787037</v>
       </c>
       <c r="E80" s="2" t="s">
         <v>10</v>
@@ -3181,7 +3181,7 @@
         <v>69</v>
       </c>
       <c r="G80" s="2">
-        <v>19.77</v>
+        <v>23.84</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>70</v>
@@ -3192,13 +3192,13 @@
         <v>80</v>
       </c>
       <c r="B81" s="2">
-        <v>45993.31616898148</v>
+        <v>45992.31730324074</v>
       </c>
       <c r="C81" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D81" s="2">
-        <v>45993.71172453704</v>
+        <v>45992.71188657408</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>10</v>
@@ -3207,7 +3207,7 @@
         <v>69</v>
       </c>
       <c r="G81" s="2">
-        <v>16.63</v>
+        <v>22.59</v>
       </c>
       <c r="H81" s="2" t="s">
         <v>70</v>
@@ -3218,13 +3218,13 @@
         <v>81</v>
       </c>
       <c r="B82" s="2">
-        <v>45992.31442129629</v>
+        <v>45993.31137731481</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D82" s="2">
-        <v>45992.71223379629</v>
+        <v>45993.71450231481</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>10</v>
@@ -3241,16 +3241,16 @@
     </row>
     <row r="83" spans="1:8">
       <c r="A83" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B83" s="2">
-        <v>45993.31162037037</v>
+        <v>45992.31442129629</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D83" s="2">
-        <v>45993.71590277777</v>
+        <v>45992.71223379629</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>10</v>
@@ -3259,7 +3259,7 @@
         <v>69</v>
       </c>
       <c r="G83" s="2">
-        <v>22.34</v>
+        <v>19.03</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>70</v>
@@ -3267,16 +3267,16 @@
     </row>
     <row r="84" spans="1:8">
       <c r="A84" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B84" s="2">
-        <v>45992.31912037037</v>
+        <v>45993.31199074074</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D84" s="2">
-        <v>45992.71261574074</v>
+        <v>45993.71875</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>10</v>
@@ -3285,7 +3285,7 @@
         <v>69</v>
       </c>
       <c r="G84" s="2">
-        <v>12.56</v>
+        <v>24.59</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>70</v>
@@ -3293,16 +3293,16 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B85" s="2">
-        <v>45992.3171875</v>
+        <v>45993.31616898148</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D85" s="2">
-        <v>45992.71112268518</v>
+        <v>45993.71172453704</v>
       </c>
       <c r="E85" s="2" t="s">
         <v>10</v>
@@ -3311,7 +3311,7 @@
         <v>69</v>
       </c>
       <c r="G85" s="2">
-        <v>25.84</v>
+        <v>16.63</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>70</v>
@@ -3319,16 +3319,16 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B86" s="2">
-        <v>45993.31284722222</v>
+        <v>45993.31162037037</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D86" s="2">
-        <v>45993.71363425926</v>
+        <v>45993.71590277777</v>
       </c>
       <c r="E86" s="2" t="s">
         <v>10</v>
@@ -3337,7 +3337,7 @@
         <v>69</v>
       </c>
       <c r="G86" s="2">
-        <v>18.77</v>
+        <v>22.34</v>
       </c>
       <c r="H86" s="2" t="s">
         <v>70</v>
@@ -3345,16 +3345,16 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="2" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="B87" s="2">
-        <v>45992.31633101852</v>
+        <v>45992.31818287037</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D87" s="2">
-        <v>45992.71246527778</v>
+        <v>45992.70214120371</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>10</v>
@@ -3363,7 +3363,7 @@
         <v>69</v>
       </c>
       <c r="G87" s="2">
-        <v>19.77</v>
+        <v>18.03</v>
       </c>
       <c r="H87" s="2" t="s">
         <v>70</v>
@@ -3371,16 +3371,16 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="2" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B88" s="2">
-        <v>45993.31137731481</v>
+        <v>45993.31699074074</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D88" s="2">
-        <v>45993.71450231481</v>
+        <v>45993.71618055556</v>
       </c>
       <c r="E88" s="2" t="s">
         <v>10</v>
@@ -3389,7 +3389,7 @@
         <v>69</v>
       </c>
       <c r="G88" s="2">
-        <v>19.03</v>
+        <v>24.09</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>70</v>
@@ -3400,13 +3400,13 @@
         <v>86</v>
       </c>
       <c r="B89" s="2">
-        <v>45993.31199074074</v>
+        <v>45992.32019675926</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D89" s="2">
-        <v>45993.71875</v>
+        <v>45992.71041666667</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>10</v>
@@ -3415,7 +3415,7 @@
         <v>69</v>
       </c>
       <c r="G89" s="2">
-        <v>24.59</v>
+        <v>24.09</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>70</v>
@@ -3423,25 +3423,25 @@
     </row>
     <row r="90" spans="1:8">
       <c r="A90" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45992.33506944445</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D90" s="2">
+        <v>45992.53091435185</v>
+      </c>
+      <c r="E90" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="B90" s="2">
-        <v>45992.33135416666</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D90" s="2">
-        <v>45992.60255787037</v>
-      </c>
-      <c r="E90" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="F90" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G90" s="2">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>89</v>
@@ -3452,22 +3452,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="2">
-        <v>45993.33407407408</v>
+        <v>45993.33197916667</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D91" s="2">
-        <v>45993.54098379629</v>
+        <v>45993.57767361111</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F91" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G91" s="2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>89</v>
@@ -3475,16 +3475,16 @@
     </row>
     <row r="92" spans="1:8">
       <c r="A92" s="2" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B92" s="2">
-        <v>45993.33652777778</v>
+        <v>45992.50671296296</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D92" s="2">
-        <v>45993.61788194445</v>
+        <v>45992.70057870371</v>
       </c>
       <c r="E92" s="2" t="s">
         <v>10</v>
@@ -3493,7 +3493,7 @@
         <v>88</v>
       </c>
       <c r="G92" s="2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>89</v>
@@ -3501,25 +3501,25 @@
     </row>
     <row r="93" spans="1:8">
       <c r="A93" s="2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B93" s="2">
-        <v>45993.33583333333</v>
+        <v>45992.33369212963</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D93" s="2">
-        <v>45993.59112268518</v>
+        <v>45992.48134259259</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F93" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G93" s="2">
-        <v>15</v>
+        <v>17.5</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>89</v>
@@ -3527,16 +3527,16 @@
     </row>
     <row r="94" spans="1:8">
       <c r="A94" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B94" s="2">
-        <v>45992.33333333334</v>
+        <v>45993.33755787037</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D94" s="2">
-        <v>45992.67053240741</v>
+        <v>45993.68662037037</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>10</v>
@@ -3545,7 +3545,7 @@
         <v>88</v>
       </c>
       <c r="G94" s="2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>89</v>
@@ -3553,19 +3553,19 @@
     </row>
     <row r="95" spans="1:8">
       <c r="A95" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B95" s="2">
-        <v>45993.3166087963</v>
+        <v>45993.33459490741</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D95" s="2">
-        <v>45993.70063657407</v>
+        <v>45993.49261574074</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F95" s="2" t="s">
         <v>88</v>
@@ -3579,16 +3579,16 @@
     </row>
     <row r="96" spans="1:8">
       <c r="A96" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B96" s="2">
-        <v>45992.58793981482</v>
+        <v>45992.34856481481</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D96" s="2">
-        <v>45992.75136574074</v>
+        <v>45992.3864699074</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>10</v>
@@ -3597,7 +3597,7 @@
         <v>88</v>
       </c>
       <c r="G96" s="2">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>89</v>
@@ -3605,25 +3605,25 @@
     </row>
     <row r="97" spans="1:8">
       <c r="A97" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B97" s="2">
-        <v>45993.33226851852</v>
+        <v>45993.52398148148</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D97" s="2">
-        <v>45993.48760416666</v>
+        <v>45993.6846412037</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F97" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G97" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H97" s="2" t="s">
         <v>89</v>
@@ -3631,25 +3631,25 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B98" s="2">
-        <v>45993.51013888889</v>
+        <v>45993.33659722222</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D98" s="2">
-        <v>45993.70188657408</v>
+        <v>45993.54575231481</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G98" s="2">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>89</v>
@@ -3657,25 +3657,25 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B99" s="2">
-        <v>45992.32601851852</v>
+        <v>45992.33951388889</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D99" s="2">
-        <v>45992.68008101852</v>
+        <v>45992.42443287037</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F99" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G99" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H99" s="2" t="s">
         <v>89</v>
@@ -3683,25 +3683,25 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B100" s="2">
-        <v>45993.33243055556</v>
+        <v>45993.33583333333</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D100" s="2">
-        <v>45993.50996527778</v>
+        <v>45993.59112268518</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F100" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G100" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H100" s="2" t="s">
         <v>89</v>
@@ -3712,13 +3712,13 @@
         <v>96</v>
       </c>
       <c r="B101" s="2">
-        <v>45993.55333333334</v>
+        <v>45992.58793981482</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D101" s="2">
-        <v>45993.7515162037</v>
+        <v>45992.75136574074</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>10</v>
@@ -3727,7 +3727,7 @@
         <v>88</v>
       </c>
       <c r="G101" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>89</v>
@@ -3738,22 +3738,22 @@
         <v>97</v>
       </c>
       <c r="B102" s="2">
-        <v>45992.33872685185</v>
+        <v>45993.55333333334</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D102" s="2">
-        <v>45992.46394675926</v>
+        <v>45993.7515162037</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F102" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G102" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>89</v>
@@ -3761,25 +3761,25 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="2" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B103" s="2">
-        <v>45992.340625</v>
+        <v>45993.33243055556</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D103" s="2">
-        <v>45992.5102662037</v>
+        <v>45993.50996527778</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F103" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G103" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>89</v>
@@ -3790,13 +3790,13 @@
         <v>98</v>
       </c>
       <c r="B104" s="2">
-        <v>45992.32902777778</v>
+        <v>45993.58587962963</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D104" s="2">
-        <v>45992.6815162037</v>
+        <v>45993.75435185185</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>10</v>
@@ -3805,7 +3805,7 @@
         <v>88</v>
       </c>
       <c r="G104" s="2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H104" s="2" t="s">
         <v>89</v>
@@ -3813,7 +3813,7 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B105" s="2">
         <v>45993.33037037037</v>
@@ -3839,16 +3839,16 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="2" t="s">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="B106" s="2">
-        <v>45992.54113425926</v>
+        <v>45993.59668981482</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D106" s="2">
-        <v>45992.70725694444</v>
+        <v>45993.70082175926</v>
       </c>
       <c r="E106" s="2" t="s">
         <v>10</v>
@@ -3857,7 +3857,7 @@
         <v>88</v>
       </c>
       <c r="G106" s="2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>89</v>
@@ -3865,16 +3865,16 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B107" s="2">
-        <v>45993.54564814815</v>
+        <v>45993.54019675926</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D107" s="2">
-        <v>45993.71084490741</v>
+        <v>45993.70605324074</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>10</v>
@@ -3883,7 +3883,7 @@
         <v>88</v>
       </c>
       <c r="G107" s="2">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>89</v>
@@ -3891,25 +3891,25 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B108" s="2">
-        <v>45992.32556712963</v>
+        <v>45992.33872685185</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D108" s="2">
-        <v>45992.56069444444</v>
+        <v>45992.46394675926</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F108" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G108" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H108" s="2" t="s">
         <v>89</v>
@@ -3920,22 +3920,22 @@
         <v>101</v>
       </c>
       <c r="B109" s="2">
-        <v>45992.603125</v>
+        <v>45993.33226851852</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D109" s="2">
-        <v>45992.75163194445</v>
+        <v>45993.48760416666</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F109" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G109" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H109" s="2" t="s">
         <v>89</v>
@@ -3943,25 +3943,25 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B110" s="2">
-        <v>45993.32962962963</v>
+        <v>45993.55733796296</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D110" s="2">
-        <v>45993.59543981482</v>
+        <v>45993.70209490741</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F110" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G110" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H110" s="2" t="s">
         <v>89</v>
@@ -3969,25 +3969,25 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="2" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B111" s="2">
-        <v>45993.62835648148</v>
+        <v>45993.33475694444</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D111" s="2">
-        <v>45993.75800925926</v>
+        <v>45993.53561342593</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F111" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G111" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>89</v>
@@ -3995,16 +3995,16 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B112" s="2">
-        <v>45992.44226851852</v>
+        <v>45993.33280092593</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D112" s="2">
-        <v>45992.44354166667</v>
+        <v>45993.49769675926</v>
       </c>
       <c r="E112" s="2" t="s">
         <v>10</v>
@@ -4021,16 +4021,16 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B113" s="2">
-        <v>45993.33280092593</v>
+        <v>45992.44226851852</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D113" s="2">
-        <v>45993.49769675926</v>
+        <v>45992.44354166667</v>
       </c>
       <c r="E113" s="2" t="s">
         <v>10</v>
@@ -4047,16 +4047,16 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="2" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B114" s="2">
-        <v>45993.58587962963</v>
+        <v>45993.62835648148</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D114" s="2">
-        <v>45993.75435185185</v>
+        <v>45993.75800925926</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>10</v>
@@ -4073,19 +4073,19 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B115" s="2">
-        <v>45993.33644675926</v>
+        <v>45993.32962962963</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D115" s="2">
-        <v>45993.52070601852</v>
+        <v>45993.59543981482</v>
       </c>
       <c r="E115" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F115" s="2" t="s">
         <v>88</v>
@@ -4099,16 +4099,16 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B116" s="2">
-        <v>45993.54019675926</v>
+        <v>45992.603125</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D116" s="2">
-        <v>45993.70605324074</v>
+        <v>45992.75163194445</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>10</v>
@@ -4125,25 +4125,25 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="2" t="s">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="B117" s="2">
-        <v>45992.33506944445</v>
+        <v>45992.32556712963</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D117" s="2">
-        <v>45992.53091435185</v>
+        <v>45992.56069444444</v>
       </c>
       <c r="E117" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F117" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G117" s="2">
-        <v>15.5</v>
+        <v>17.5</v>
       </c>
       <c r="H117" s="2" t="s">
         <v>89</v>
@@ -4151,25 +4151,25 @@
     </row>
     <row r="118" spans="1:8">
       <c r="A118" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B118" s="2">
-        <v>45992.33802083333</v>
+        <v>45993.54564814815</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D118" s="2">
-        <v>45992.51306712963</v>
+        <v>45993.71084490741</v>
       </c>
       <c r="E118" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F118" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G118" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H118" s="2" t="s">
         <v>89</v>
@@ -4177,16 +4177,16 @@
     </row>
     <row r="119" spans="1:8">
       <c r="A119" s="2" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B119" s="2">
-        <v>45992.55483796296</v>
+        <v>45992.54113425926</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D119" s="2">
-        <v>45992.68207175926</v>
+        <v>45992.70725694444</v>
       </c>
       <c r="E119" s="2" t="s">
         <v>10</v>
@@ -4195,7 +4195,7 @@
         <v>88</v>
       </c>
       <c r="G119" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H119" s="2" t="s">
         <v>89</v>
@@ -4203,36 +4203,42 @@
     </row>
     <row r="120" spans="1:8">
       <c r="A120" s="2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B120" s="2">
-        <v>45992.32043981482</v>
+        <v>45993.375</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D120" s="2"/>
-      <c r="E120" s="2"/>
+      <c r="D120" s="2">
+        <v>45993.70833333334</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F120" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G120" s="2"/>
+      <c r="G120" s="2">
+        <v>22.5</v>
+      </c>
       <c r="H120" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:8">
       <c r="A121" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B121" s="2">
-        <v>45993.33755787037</v>
+        <v>45992.375</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D121" s="2">
-        <v>45993.68662037037</v>
+        <v>45992.66666666666</v>
       </c>
       <c r="E121" s="2" t="s">
         <v>10</v>
@@ -4241,7 +4247,7 @@
         <v>88</v>
       </c>
       <c r="G121" s="2">
-        <v>17.5</v>
+        <v>22.5</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>89</v>
@@ -4249,16 +4255,16 @@
     </row>
     <row r="122" spans="1:8">
       <c r="A122" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B122" s="2">
-        <v>45993.375</v>
+        <v>45992.32902777778</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D122" s="2">
-        <v>45993.70833333334</v>
+        <v>45992.6815162037</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>10</v>
@@ -4267,7 +4273,7 @@
         <v>88</v>
       </c>
       <c r="G122" s="2">
-        <v>22.5</v>
+        <v>16</v>
       </c>
       <c r="H122" s="2" t="s">
         <v>89</v>
@@ -4275,42 +4281,36 @@
     </row>
     <row r="123" spans="1:8">
       <c r="A123" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B123" s="2">
-        <v>45992.375</v>
+        <v>45992.32043981482</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D123" s="2">
-        <v>45992.66666666666</v>
-      </c>
-      <c r="E123" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="D123" s="2"/>
+      <c r="E123" s="2"/>
       <c r="F123" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="G123" s="2">
-        <v>22.5</v>
-      </c>
+      <c r="G123" s="2"/>
       <c r="H123" s="2" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="124" spans="1:8">
       <c r="A124" s="2" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B124" s="2">
-        <v>45992.4390625</v>
+        <v>45993.51013888889</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D124" s="2">
-        <v>45992.6797337963</v>
+        <v>45993.70188657408</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>10</v>
@@ -4319,7 +4319,7 @@
         <v>88</v>
       </c>
       <c r="G124" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H124" s="2" t="s">
         <v>89</v>
@@ -4327,25 +4327,25 @@
     </row>
     <row r="125" spans="1:8">
       <c r="A125" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B125" s="2">
-        <v>45992.33369212963</v>
+        <v>45992.340625</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D125" s="2">
-        <v>45992.48134259259</v>
+        <v>45992.5102662037</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F125" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G125" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>89</v>
@@ -4353,19 +4353,19 @@
     </row>
     <row r="126" spans="1:8">
       <c r="A126" s="2" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B126" s="2">
-        <v>45992.50671296296</v>
+        <v>45993.33644675926</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D126" s="2">
-        <v>45992.70057870371</v>
+        <v>45993.52070601852</v>
       </c>
       <c r="E126" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F126" s="2" t="s">
         <v>88</v>
@@ -4382,22 +4382,22 @@
         <v>109</v>
       </c>
       <c r="B127" s="2">
-        <v>45993.33197916667</v>
+        <v>45992.58239583333</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D127" s="2">
-        <v>45993.57767361111</v>
+        <v>45992.67513888889</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F127" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G127" s="2">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>89</v>
@@ -4405,16 +4405,16 @@
     </row>
     <row r="128" spans="1:8">
       <c r="A128" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B128" s="2">
-        <v>45993.59668981482</v>
+        <v>45993.33652777778</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D128" s="2">
-        <v>45993.70082175926</v>
+        <v>45993.61788194445</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>10</v>
@@ -4423,7 +4423,7 @@
         <v>88</v>
       </c>
       <c r="G128" s="2">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="H128" s="2" t="s">
         <v>89</v>
@@ -4431,16 +4431,16 @@
     </row>
     <row r="129" spans="1:8">
       <c r="A129" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B129" s="2">
-        <v>45992.33333333334</v>
+        <v>45993.375</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D129" s="2">
-        <v>45992.67103009259</v>
+        <v>45993.70833333334</v>
       </c>
       <c r="E129" s="2" t="s">
         <v>10</v>
@@ -4449,7 +4449,7 @@
         <v>88</v>
       </c>
       <c r="G129" s="2">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H129" s="2" t="s">
         <v>89</v>
@@ -4457,25 +4457,25 @@
     </row>
     <row r="130" spans="1:8">
       <c r="A130" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B130" s="2">
-        <v>45993.33417824074</v>
+        <v>45992.32601851852</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D130" s="2">
-        <v>45993.54109953704</v>
+        <v>45992.68008101852</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F130" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G130" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H130" s="2" t="s">
         <v>89</v>
@@ -4483,16 +4483,16 @@
     </row>
     <row r="131" spans="1:8">
       <c r="A131" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B131" s="2">
-        <v>45993.55407407408</v>
+        <v>45992.375</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D131" s="2">
-        <v>45993.68141203704</v>
+        <v>45992.66666666666</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>10</v>
@@ -4501,7 +4501,7 @@
         <v>88</v>
       </c>
       <c r="G131" s="2">
-        <v>15</v>
+        <v>22.5</v>
       </c>
       <c r="H131" s="2" t="s">
         <v>89</v>
@@ -4509,25 +4509,25 @@
     </row>
     <row r="132" spans="1:8">
       <c r="A132" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B132" s="2">
-        <v>45993.33475694444</v>
+        <v>45992.55483796296</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D132" s="2">
-        <v>45993.53561342593</v>
+        <v>45992.68207175926</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F132" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G132" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H132" s="2" t="s">
         <v>89</v>
@@ -4535,25 +4535,25 @@
     </row>
     <row r="133" spans="1:8">
       <c r="A133" s="2" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B133" s="2">
-        <v>45993.55733796296</v>
+        <v>45992.33802083333</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D133" s="2">
-        <v>45993.70209490741</v>
+        <v>45992.51306712963</v>
       </c>
       <c r="E133" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F133" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G133" s="2">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="H133" s="2" t="s">
         <v>89</v>
@@ -4561,25 +4561,25 @@
     </row>
     <row r="134" spans="1:8">
       <c r="A134" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B134" s="2">
-        <v>45992.32942129629</v>
+        <v>45993.55407407408</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D134" s="2">
-        <v>45992.5415162037</v>
+        <v>45993.68141203704</v>
       </c>
       <c r="E134" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F134" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G134" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H134" s="2" t="s">
         <v>89</v>
@@ -4587,25 +4587,25 @@
     </row>
     <row r="135" spans="1:8">
       <c r="A135" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B135" s="2">
-        <v>45992.58239583333</v>
+        <v>45993.33417824074</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D135" s="2">
-        <v>45992.67513888889</v>
+        <v>45993.54109953704</v>
       </c>
       <c r="E135" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F135" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G135" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H135" s="2" t="s">
         <v>89</v>
@@ -4613,19 +4613,19 @@
     </row>
     <row r="136" spans="1:8">
       <c r="A136" s="2" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="B136" s="2">
-        <v>45993.33459490741</v>
+        <v>45992.32942129629</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D136" s="2">
-        <v>45993.49261574074</v>
+        <v>45992.5415162037</v>
       </c>
       <c r="E136" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F136" s="2" t="s">
         <v>88</v>
@@ -4639,16 +4639,16 @@
     </row>
     <row r="137" spans="1:8">
       <c r="A137" s="2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B137" s="2">
-        <v>45993.52398148148</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D137" s="2">
-        <v>45993.6846412037</v>
+        <v>45992.67053240741</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>10</v>
@@ -4657,7 +4657,7 @@
         <v>88</v>
       </c>
       <c r="G137" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H137" s="2" t="s">
         <v>89</v>
@@ -4668,22 +4668,22 @@
         <v>114</v>
       </c>
       <c r="B138" s="2">
-        <v>45993.33659722222</v>
+        <v>45993.33407407408</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D138" s="2">
-        <v>45993.54575231481</v>
+        <v>45993.54098379629</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F138" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G138" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H138" s="2" t="s">
         <v>89</v>
@@ -4691,25 +4691,25 @@
     </row>
     <row r="139" spans="1:8">
       <c r="A139" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B139" s="2">
-        <v>45992.33951388889</v>
+        <v>45992.33135416666</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D139" s="2">
-        <v>45992.42443287037</v>
+        <v>45992.60255787037</v>
       </c>
       <c r="E139" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F139" s="2" t="s">
         <v>88</v>
       </c>
       <c r="G139" s="2">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>89</v>
@@ -4720,13 +4720,13 @@
         <v>115</v>
       </c>
       <c r="B140" s="2">
-        <v>45992.34856481481</v>
+        <v>45992.4390625</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D140" s="2">
-        <v>45992.3864699074</v>
+        <v>45992.6797337963</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>10</v>
@@ -4735,7 +4735,7 @@
         <v>88</v>
       </c>
       <c r="G140" s="2">
-        <v>22.5</v>
+        <v>18</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>89</v>
@@ -4743,16 +4743,16 @@
     </row>
     <row r="141" spans="1:8">
       <c r="A141" s="2" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="B141" s="2">
-        <v>45993.375</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D141" s="2">
-        <v>45993.70833333334</v>
+        <v>45992.67103009259</v>
       </c>
       <c r="E141" s="2" t="s">
         <v>10</v>
@@ -4761,7 +4761,7 @@
         <v>88</v>
       </c>
       <c r="G141" s="2">
-        <v>22.5</v>
+        <v>15</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>89</v>
@@ -4769,16 +4769,16 @@
     </row>
     <row r="142" spans="1:8">
       <c r="A142" s="2" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="B142" s="2">
-        <v>45992.375</v>
+        <v>45993.3166087963</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D142" s="2">
-        <v>45992.66666666666</v>
+        <v>45993.70063657407</v>
       </c>
       <c r="E142" s="2" t="s">
         <v>10</v>
@@ -4787,7 +4787,7 @@
         <v>88</v>
       </c>
       <c r="G142" s="2">
-        <v>22.5</v>
+        <v>18</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>89</v>
@@ -4801,13 +4801,13 @@
         <v>45993.33333333334</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D143" s="2">
         <v>45993.33333333334</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F143" s="2" t="s">
         <v>117</v>
@@ -4821,25 +4821,25 @@
     </row>
     <row r="144" spans="1:8">
       <c r="A144" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2">
-        <v>45992.3477662037</v>
+        <v>45993</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D144" s="2">
-        <v>45992.713125</v>
+        <v>45993</v>
       </c>
       <c r="E144" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F144" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G144" s="2">
-        <v>17.51</v>
+        <v>17.5</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>118</v>
@@ -4847,25 +4847,25 @@
     </row>
     <row r="145" spans="1:8">
       <c r="A145" s="2" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B145" s="2">
-        <v>45993</v>
+        <v>45992.3477662037</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D145" s="2">
-        <v>45993</v>
+        <v>45992.713125</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F145" s="2" t="s">
         <v>117</v>
       </c>
       <c r="G145" s="2">
-        <v>17.5</v>
+        <v>17.51</v>
       </c>
       <c r="H145" s="2" t="s">
         <v>118</v>
@@ -4873,16 +4873,16 @@
     </row>
     <row r="146" spans="1:8">
       <c r="A146" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B146" s="2">
-        <v>45993.58836805556</v>
+        <v>45992.48001157407</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D146" s="2">
-        <v>45993.70449074074</v>
+        <v>45992.70277777778</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>10</v>
@@ -4905,7 +4905,7 @@
         <v>45992.54988425926</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D147" s="2">
         <v>45992.6850462963</v>
@@ -4925,16 +4925,16 @@
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="2" t="s">
-        <v>114</v>
+        <v>94</v>
       </c>
       <c r="B148" s="2">
-        <v>45992.48001157407</v>
+        <v>45993.58836805556</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D148" s="2">
-        <v>45992.70277777778</v>
+        <v>45993.70449074074</v>
       </c>
       <c r="E148" s="2" t="s">
         <v>10</v>
@@ -4951,13 +4951,13 @@
     </row>
     <row r="149" spans="1:8">
       <c r="A149" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B149" s="2">
         <v>45993.61039351852</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D149" s="2">
         <v>45993.68513888889</v>
@@ -5003,54 +5003,54 @@
     </row>
     <row r="151" spans="1:8">
       <c r="A151" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B151" s="2">
+        <v>45992.35592592593</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D151" s="2">
+        <v>45992.52112268518</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F151" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B151" s="2">
-        <v>45993.34043981481</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D151" s="2">
-        <v>45993.68324074074</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F151" s="2" t="s">
+      <c r="G151" s="2">
+        <v>15</v>
+      </c>
+      <c r="H151" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G151" s="2">
-        <v>13.65</v>
-      </c>
-      <c r="H151" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="152" spans="1:8">
       <c r="A152" s="2" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="B152" s="2">
-        <v>45992.35592592593</v>
+        <v>45993.33630787037</v>
       </c>
       <c r="C152" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D152" s="2">
-        <v>45992.52112268518</v>
+        <v>45993.66971064815</v>
       </c>
       <c r="E152" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F152" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G152" s="2">
+        <v>21</v>
+      </c>
+      <c r="H152" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G152" s="2">
-        <v>15</v>
-      </c>
-      <c r="H152" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5058,25 +5058,25 @@
         <v>131</v>
       </c>
       <c r="B153" s="2">
-        <v>45993.33630787037</v>
+        <v>45993.34569444445</v>
       </c>
       <c r="C153" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D153" s="2">
-        <v>45993.66971064815</v>
+        <v>45993.69732638889</v>
       </c>
       <c r="E153" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F153" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G153" s="2">
+        <v>18</v>
+      </c>
+      <c r="H153" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G153" s="2">
-        <v>21</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5084,25 +5084,25 @@
         <v>132</v>
       </c>
       <c r="B154" s="2">
-        <v>45992.30037037037</v>
+        <v>45992.32685185185</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D154" s="2">
-        <v>45992.70363425926</v>
+        <v>45992.66329861111</v>
       </c>
       <c r="E154" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F154" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G154" s="2">
+        <v>17.48</v>
+      </c>
+      <c r="H154" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G154" s="2">
-        <v>18</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5110,25 +5110,25 @@
         <v>132</v>
       </c>
       <c r="B155" s="2">
-        <v>45993.34569444445</v>
+        <v>45993.32821759259</v>
       </c>
       <c r="C155" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D155" s="2">
-        <v>45993.69732638889</v>
+        <v>45993.34375</v>
       </c>
       <c r="E155" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F155" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G155" s="2">
+        <v>17.48</v>
+      </c>
+      <c r="H155" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G155" s="2">
-        <v>18</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5136,25 +5136,25 @@
         <v>133</v>
       </c>
       <c r="B156" s="2">
-        <v>45992.32685185185</v>
+        <v>45992.34711805556</v>
       </c>
       <c r="C156" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D156" s="2">
-        <v>45992.66329861111</v>
+        <v>45992.68376157407</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F156" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G156" s="2">
+        <v>13.65</v>
+      </c>
+      <c r="H156" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G156" s="2">
-        <v>17.48</v>
-      </c>
-      <c r="H156" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5162,51 +5162,51 @@
         <v>133</v>
       </c>
       <c r="B157" s="2">
-        <v>45993.32821759259</v>
+        <v>45993.34043981481</v>
       </c>
       <c r="C157" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D157" s="2">
-        <v>45993.34375</v>
+        <v>45993.68324074074</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F157" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G157" s="2">
+        <v>13.65</v>
+      </c>
+      <c r="H157" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G157" s="2">
-        <v>17.48</v>
-      </c>
-      <c r="H157" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="158" spans="1:8">
       <c r="A158" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B158" s="2">
+        <v>45992.30037037037</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D158" s="2">
+        <v>45992.70363425926</v>
+      </c>
+      <c r="E158" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F158" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B158" s="2">
-        <v>45992.34711805556</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D158" s="2">
-        <v>45992.68376157407</v>
-      </c>
-      <c r="E158" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F158" s="2" t="s">
+      <c r="G158" s="2">
+        <v>18</v>
+      </c>
+      <c r="H158" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="G158" s="2">
-        <v>13.65</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5243,7 +5243,7 @@
         <v>45993.83056712963</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D160" s="2">
         <v>45993.91854166667</v>
@@ -5292,13 +5292,13 @@
         <v>141</v>
       </c>
       <c r="B162" s="2">
-        <v>45992.54193287037</v>
+        <v>45993.3390625</v>
       </c>
       <c r="C162" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D162" s="2">
-        <v>45992.72916666666</v>
+        <v>45993.61498842593</v>
       </c>
       <c r="E162" s="2" t="s">
         <v>10</v>
@@ -5318,13 +5318,13 @@
         <v>144</v>
       </c>
       <c r="B163" s="2">
-        <v>45993.3390625</v>
+        <v>45992.32082175926</v>
       </c>
       <c r="C163" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D163" s="2">
-        <v>45993.61498842593</v>
+        <v>45992.61207175926</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>10</v>
@@ -5333,7 +5333,7 @@
         <v>142</v>
       </c>
       <c r="G163" s="2">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H163" s="2" t="s">
         <v>143</v>
@@ -5367,16 +5367,16 @@
     </row>
     <row r="165" spans="1:8">
       <c r="A165" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B165" s="2">
-        <v>45992.32082175926</v>
+        <v>45992.31788194444</v>
       </c>
       <c r="C165" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D165" s="2">
-        <v>45992.61207175926</v>
+        <v>45992.62767361111</v>
       </c>
       <c r="E165" s="2" t="s">
         <v>10</v>
@@ -5385,7 +5385,7 @@
         <v>142</v>
       </c>
       <c r="G165" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>143</v>
@@ -5393,7 +5393,7 @@
     </row>
     <row r="166" spans="1:8">
       <c r="A166" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B166" s="2">
         <v>45993.32221064815</v>
@@ -5419,7 +5419,7 @@
     </row>
     <row r="167" spans="1:8">
       <c r="A167" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B167" s="2">
         <v>45992.33707175926</v>
@@ -5445,7 +5445,7 @@
     </row>
     <row r="168" spans="1:8">
       <c r="A168" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B168" s="2">
         <v>45993.3440625</v>
@@ -5471,16 +5471,16 @@
     </row>
     <row r="169" spans="1:8">
       <c r="A169" s="2" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="B169" s="2">
-        <v>45992.31788194444</v>
+        <v>45992.54193287037</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D169" s="2">
-        <v>45992.62767361111</v>
+        <v>45992.72916666666</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>10</v>
@@ -5500,13 +5500,13 @@
         <v>149</v>
       </c>
       <c r="B170" s="2">
-        <v>45993.42930555555</v>
+        <v>45992.55707175926</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D170" s="2">
-        <v>45993.82324074074</v>
+        <v>45992.87207175926</v>
       </c>
       <c r="E170" s="2" t="s">
         <v>10</v>
@@ -5515,7 +5515,7 @@
         <v>150</v>
       </c>
       <c r="G170" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H170" s="2" t="s">
         <v>151</v>
@@ -5526,13 +5526,13 @@
         <v>152</v>
       </c>
       <c r="B171" s="2">
-        <v>45993.34152777777</v>
+        <v>45993.42930555555</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D171" s="2">
-        <v>45993.58498842592</v>
+        <v>45993.82324074074</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>10</v>
@@ -5541,7 +5541,7 @@
         <v>150</v>
       </c>
       <c r="G171" s="2">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="H171" s="2" t="s">
         <v>151</v>
@@ -5549,16 +5549,16 @@
     </row>
     <row r="172" spans="1:8">
       <c r="A172" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B172" s="2">
-        <v>45992.55707175926</v>
+        <v>45992.87222222222</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D172" s="2">
-        <v>45992.87207175926</v>
+        <v>45992.87225694444</v>
       </c>
       <c r="E172" s="2" t="s">
         <v>10</v>
@@ -5567,7 +5567,7 @@
         <v>150</v>
       </c>
       <c r="G172" s="2">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>151</v>
@@ -5575,25 +5575,25 @@
     </row>
     <row r="173" spans="1:8">
       <c r="A173" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B173" s="2">
-        <v>45992.89799768518</v>
+        <v>45992.4106712963</v>
       </c>
       <c r="C173" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D173" s="2">
-        <v>45992.89809027778</v>
+        <v>45992.52935185185</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F173" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G173" s="2">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="H173" s="2" t="s">
         <v>151</v>
@@ -5601,16 +5601,16 @@
     </row>
     <row r="174" spans="1:8">
       <c r="A174" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B174" s="2">
-        <v>45993.47211805556</v>
+        <v>45992.89799768518</v>
       </c>
       <c r="C174" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D174" s="2">
-        <v>45993.69221064815</v>
+        <v>45992.89809027778</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>10</v>
@@ -5619,7 +5619,7 @@
         <v>150</v>
       </c>
       <c r="G174" s="2">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="H174" s="2" t="s">
         <v>151</v>
@@ -5627,25 +5627,25 @@
     </row>
     <row r="175" spans="1:8">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>154</v>
       </c>
       <c r="B175" s="2">
-        <v>45992.4106712963</v>
+        <v>45993.34152777777</v>
       </c>
       <c r="C175" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D175" s="2">
-        <v>45992.52935185185</v>
+        <v>45993.58498842592</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F175" s="2" t="s">
         <v>150</v>
       </c>
       <c r="G175" s="2">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H175" s="2" t="s">
         <v>151</v>
@@ -5653,16 +5653,16 @@
     </row>
     <row r="176" spans="1:8">
       <c r="A176" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B176" s="2">
-        <v>45992.87222222222</v>
+        <v>45993.47211805556</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D176" s="2">
-        <v>45992.87225694444</v>
+        <v>45993.69221064815</v>
       </c>
       <c r="E176" s="2" t="s">
         <v>10</v>
@@ -5671,7 +5671,7 @@
         <v>150</v>
       </c>
       <c r="G176" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>151</v>
@@ -5679,7 +5679,7 @@
     </row>
     <row r="177" spans="1:8">
       <c r="A177" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B177" s="2">
         <v>45993.41944444444</v>
@@ -5708,13 +5708,13 @@
         <v>156</v>
       </c>
       <c r="B178" s="2">
-        <v>45993.32638888889</v>
+        <v>45993.69541666667</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D178" s="2">
-        <v>45993.58686342592</v>
+        <v>45993.9084375</v>
       </c>
       <c r="E178" s="2" t="s">
         <v>10</v>
@@ -5723,7 +5723,7 @@
         <v>157</v>
       </c>
       <c r="G178" s="2">
-        <v>23.69</v>
+        <v>13.65</v>
       </c>
       <c r="H178" s="2" t="s">
         <v>158</v>
@@ -5734,13 +5734,13 @@
         <v>159</v>
       </c>
       <c r="B179" s="2">
-        <v>45992.31797453704</v>
+        <v>45992.32685185185</v>
       </c>
       <c r="C179" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D179" s="2">
-        <v>45992.625</v>
+        <v>45992.67736111111</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>10</v>
@@ -5749,7 +5749,7 @@
         <v>157</v>
       </c>
       <c r="G179" s="2">
-        <v>20</v>
+        <v>23.69</v>
       </c>
       <c r="H179" s="2" t="s">
         <v>158</v>
@@ -5760,13 +5760,13 @@
         <v>160</v>
       </c>
       <c r="B180" s="2">
-        <v>45993.37516203704</v>
+        <v>45993.58287037037</v>
       </c>
       <c r="C180" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D180" s="2">
-        <v>45993.6992824074</v>
+        <v>45993.91707175926</v>
       </c>
       <c r="E180" s="2" t="s">
         <v>10</v>
@@ -5775,7 +5775,7 @@
         <v>157</v>
       </c>
       <c r="G180" s="2">
-        <v>13.65</v>
+        <v>24</v>
       </c>
       <c r="H180" s="2" t="s">
         <v>158</v>
@@ -5786,13 +5786,13 @@
         <v>160</v>
       </c>
       <c r="B181" s="2">
-        <v>45992.37811342593</v>
+        <v>45992.58297453704</v>
       </c>
       <c r="C181" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D181" s="2">
-        <v>45992.69790509259</v>
+        <v>45992.89854166667</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>10</v>
@@ -5801,7 +5801,7 @@
         <v>157</v>
       </c>
       <c r="G181" s="2">
-        <v>13.65</v>
+        <v>24</v>
       </c>
       <c r="H181" s="2" t="s">
         <v>158</v>
@@ -5809,25 +5809,25 @@
     </row>
     <row r="182" spans="1:8">
       <c r="A182" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B182" s="2">
-        <v>45992.58185185185</v>
+        <v>45993.57520833334</v>
       </c>
       <c r="C182" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D182" s="2">
-        <v>45992.8978125</v>
+        <v>45993.80771990741</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F182" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G182" s="2">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="H182" s="2" t="s">
         <v>158</v>
@@ -5835,16 +5835,16 @@
     </row>
     <row r="183" spans="1:8">
       <c r="A183" s="2" t="s">
-        <v>147</v>
+        <v>161</v>
       </c>
       <c r="B183" s="2">
-        <v>45993.33579861111</v>
+        <v>45992.31797453704</v>
       </c>
       <c r="C183" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D183" s="2">
-        <v>45993.64005787037</v>
+        <v>45992.625</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>10</v>
@@ -5853,7 +5853,7 @@
         <v>157</v>
       </c>
       <c r="G183" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>158</v>
@@ -5861,36 +5861,42 @@
     </row>
     <row r="184" spans="1:8">
       <c r="A184" s="2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B184" s="2">
-        <v>45992.64875</v>
+        <v>45993.37516203704</v>
       </c>
       <c r="C184" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D184" s="2"/>
-      <c r="E184" s="2"/>
+      <c r="D184" s="2">
+        <v>45993.6992824074</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>10</v>
+      </c>
       <c r="F184" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G184" s="2"/>
+      <c r="G184" s="2">
+        <v>13.65</v>
+      </c>
       <c r="H184" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="185" spans="1:8">
       <c r="A185" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B185" s="2">
-        <v>45992.32685185185</v>
+        <v>45992.37811342593</v>
       </c>
       <c r="C185" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D185" s="2">
-        <v>45992.67736111111</v>
+        <v>45992.69790509259</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>10</v>
@@ -5899,7 +5905,7 @@
         <v>157</v>
       </c>
       <c r="G185" s="2">
-        <v>23.69</v>
+        <v>13.65</v>
       </c>
       <c r="H185" s="2" t="s">
         <v>158</v>
@@ -5907,16 +5913,16 @@
     </row>
     <row r="186" spans="1:8">
       <c r="A186" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B186" s="2">
-        <v>45992.33592592592</v>
+        <v>45993.37694444445</v>
       </c>
       <c r="C186" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D186" s="2">
-        <v>45992.69883101852</v>
+        <v>45993.72078703704</v>
       </c>
       <c r="E186" s="2" t="s">
         <v>10</v>
@@ -5925,7 +5931,7 @@
         <v>157</v>
       </c>
       <c r="G186" s="2">
-        <v>15</v>
+        <v>13.65</v>
       </c>
       <c r="H186" s="2" t="s">
         <v>158</v>
@@ -5933,25 +5939,25 @@
     </row>
     <row r="187" spans="1:8">
       <c r="A187" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B187" s="2">
-        <v>45992.58297453704</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D187" s="2">
-        <v>45992.89854166667</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F187" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G187" s="2">
-        <v>24</v>
+        <v>13.65</v>
       </c>
       <c r="H187" s="2" t="s">
         <v>158</v>
@@ -5959,25 +5965,25 @@
     </row>
     <row r="188" spans="1:8">
       <c r="A188" s="2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B188" s="2">
-        <v>45993.58287037037</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D188" s="2">
-        <v>45993.91707175926</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F188" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G188" s="2">
-        <v>24</v>
+        <v>13.65</v>
       </c>
       <c r="H188" s="2" t="s">
         <v>158</v>
@@ -5985,16 +5991,16 @@
     </row>
     <row r="189" spans="1:8">
       <c r="A189" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B189" s="2">
-        <v>45993.62489583333</v>
+        <v>45993.5765625</v>
       </c>
       <c r="C189" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D189" s="2">
-        <v>45993.90871527778</v>
+        <v>45993.91775462963</v>
       </c>
       <c r="E189" s="2" t="s">
         <v>10</v>
@@ -6003,7 +6009,7 @@
         <v>157</v>
       </c>
       <c r="G189" s="2">
-        <v>13.65</v>
+        <v>22</v>
       </c>
       <c r="H189" s="2" t="s">
         <v>158</v>
@@ -6011,16 +6017,16 @@
     </row>
     <row r="190" spans="1:8">
       <c r="A190" s="2" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="B190" s="2">
-        <v>45992.36230324074</v>
+        <v>45992.58358796296</v>
       </c>
       <c r="C190" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D190" s="2">
-        <v>45992.68001157408</v>
+        <v>45992.89682870371</v>
       </c>
       <c r="E190" s="2" t="s">
         <v>10</v>
@@ -6029,7 +6035,7 @@
         <v>157</v>
       </c>
       <c r="G190" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>158</v>
@@ -6037,16 +6043,16 @@
     </row>
     <row r="191" spans="1:8">
       <c r="A191" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B191" s="2">
-        <v>45992.40159722222</v>
+        <v>45992.33592592592</v>
       </c>
       <c r="C191" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D191" s="2">
-        <v>45992.67126157408</v>
+        <v>45992.69883101852</v>
       </c>
       <c r="E191" s="2" t="s">
         <v>10</v>
@@ -6055,7 +6061,7 @@
         <v>157</v>
       </c>
       <c r="G191" s="2">
-        <v>15.16</v>
+        <v>15</v>
       </c>
       <c r="H191" s="2" t="s">
         <v>158</v>
@@ -6063,16 +6069,16 @@
     </row>
     <row r="192" spans="1:8">
       <c r="A192" s="2" t="s">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="B192" s="2">
-        <v>45993.39545138889</v>
+        <v>45992.36230324074</v>
       </c>
       <c r="C192" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D192" s="2">
-        <v>45993.68545138889</v>
+        <v>45992.68001157408</v>
       </c>
       <c r="E192" s="2" t="s">
         <v>10</v>
@@ -6081,7 +6087,7 @@
         <v>157</v>
       </c>
       <c r="G192" s="2">
-        <v>15.16</v>
+        <v>21</v>
       </c>
       <c r="H192" s="2" t="s">
         <v>158</v>
@@ -6089,16 +6095,16 @@
     </row>
     <row r="193" spans="1:8">
       <c r="A193" s="2" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="B193" s="2">
-        <v>45993.5765625</v>
+        <v>45993.62489583333</v>
       </c>
       <c r="C193" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D193" s="2">
-        <v>45993.91775462963</v>
+        <v>45993.90871527778</v>
       </c>
       <c r="E193" s="2" t="s">
         <v>10</v>
@@ -6107,7 +6113,7 @@
         <v>157</v>
       </c>
       <c r="G193" s="2">
-        <v>22</v>
+        <v>13.65</v>
       </c>
       <c r="H193" s="2" t="s">
         <v>158</v>
@@ -6115,25 +6121,25 @@
     </row>
     <row r="194" spans="1:8">
       <c r="A194" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B194" s="2">
-        <v>45992.33333333334</v>
+        <v>45993.32638888889</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D194" s="2">
-        <v>45992.33333333334</v>
+        <v>45993.58686342592</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F194" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G194" s="2">
-        <v>13.65</v>
+        <v>23.69</v>
       </c>
       <c r="H194" s="2" t="s">
         <v>158</v>
@@ -6141,16 +6147,16 @@
     </row>
     <row r="195" spans="1:8">
       <c r="A195" s="2" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B195" s="2">
-        <v>45992.58358796296</v>
+        <v>45992.40159722222</v>
       </c>
       <c r="C195" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D195" s="2">
-        <v>45992.89682870371</v>
+        <v>45992.67126157408</v>
       </c>
       <c r="E195" s="2" t="s">
         <v>10</v>
@@ -6159,7 +6165,7 @@
         <v>157</v>
       </c>
       <c r="G195" s="2">
-        <v>22</v>
+        <v>15.16</v>
       </c>
       <c r="H195" s="2" t="s">
         <v>158</v>
@@ -6170,13 +6176,13 @@
         <v>168</v>
       </c>
       <c r="B196" s="2">
-        <v>45993.37694444445</v>
+        <v>45993.39545138889</v>
       </c>
       <c r="C196" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D196" s="2">
-        <v>45993.72078703704</v>
+        <v>45993.68545138889</v>
       </c>
       <c r="E196" s="2" t="s">
         <v>10</v>
@@ -6185,7 +6191,7 @@
         <v>157</v>
       </c>
       <c r="G196" s="2">
-        <v>13.65</v>
+        <v>15.16</v>
       </c>
       <c r="H196" s="2" t="s">
         <v>158</v>
@@ -6248,7 +6254,7 @@
         <v>170</v>
       </c>
       <c r="B199" s="2">
-        <v>45992.6641087963</v>
+        <v>45992.64875</v>
       </c>
       <c r="C199" s="2" t="s">
         <v>9</v>
@@ -6258,25 +6264,23 @@
       <c r="F199" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="G199" s="2">
-        <v>13.65</v>
-      </c>
+      <c r="G199" s="2"/>
       <c r="H199" s="2" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="200" spans="1:8">
       <c r="A200" s="2" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B200" s="2">
-        <v>45993.69541666667</v>
+        <v>45993.33579861111</v>
       </c>
       <c r="C200" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D200" s="2">
-        <v>45993.9084375</v>
+        <v>45993.64005787037</v>
       </c>
       <c r="E200" s="2" t="s">
         <v>10</v>
@@ -6285,7 +6289,7 @@
         <v>157</v>
       </c>
       <c r="G200" s="2">
-        <v>13.65</v>
+        <v>19</v>
       </c>
       <c r="H200" s="2" t="s">
         <v>158</v>
@@ -6293,25 +6297,25 @@
     </row>
     <row r="201" spans="1:8">
       <c r="A201" s="2" t="s">
-        <v>137</v>
+        <v>153</v>
       </c>
       <c r="B201" s="2">
-        <v>45993.57520833334</v>
+        <v>45992.58185185185</v>
       </c>
       <c r="C201" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D201" s="2">
-        <v>45993.80771990741</v>
+        <v>45992.8978125</v>
       </c>
       <c r="E201" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F201" s="2" t="s">
         <v>157</v>
       </c>
       <c r="G201" s="2">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="H201" s="2" t="s">
         <v>158</v>
@@ -6319,20 +6323,16 @@
     </row>
     <row r="202" spans="1:8">
       <c r="A202" s="2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="B202" s="2">
-        <v>45993.33333333334</v>
+        <v>45992.6641087963</v>
       </c>
       <c r="C202" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D202" s="2">
-        <v>45993.33333333334</v>
-      </c>
-      <c r="E202" s="2" t="s">
-        <v>14</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D202" s="2"/>
+      <c r="E202" s="2"/>
       <c r="F202" s="2" t="s">
         <v>157</v>
       </c>
@@ -6374,13 +6374,13 @@
         <v>174</v>
       </c>
       <c r="B204" s="2">
-        <v>45992.62354166667</v>
+        <v>45992.24747685185</v>
       </c>
       <c r="C204" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D204" s="2">
-        <v>45992.85416666666</v>
+        <v>45992.64570601852</v>
       </c>
       <c r="E204" s="2" t="s">
         <v>10</v>
@@ -6389,7 +6389,7 @@
         <v>175</v>
       </c>
       <c r="G204" s="2">
-        <v>16.5</v>
+        <v>24.72</v>
       </c>
       <c r="H204" s="2" t="s">
         <v>176</v>
@@ -6400,22 +6400,22 @@
         <v>177</v>
       </c>
       <c r="B205" s="2">
-        <v>45992.53841435185</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="C205" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D205" s="2">
-        <v>45992.95521990741</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="E205" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F205" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G205" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H205" s="2" t="s">
         <v>176</v>
@@ -6423,16 +6423,16 @@
     </row>
     <row r="206" spans="1:8">
       <c r="A206" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B206" s="2">
-        <v>45993.39311342593</v>
+        <v>45993.95416666667</v>
       </c>
       <c r="C206" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D206" s="2">
-        <v>45993.46118055555</v>
+        <v>45994.29306712963</v>
       </c>
       <c r="E206" s="2" t="s">
         <v>10</v>
@@ -6441,7 +6441,7 @@
         <v>175</v>
       </c>
       <c r="G206" s="2">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="H206" s="2" t="s">
         <v>176</v>
@@ -6449,25 +6449,25 @@
     </row>
     <row r="207" spans="1:8">
       <c r="A207" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B207" s="2">
-        <v>45993.5</v>
+        <v>45992.9528587963</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D207" s="2">
-        <v>45993.5</v>
+        <v>45993.29563657408</v>
       </c>
       <c r="E207" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F207" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G207" s="2">
-        <v>20</v>
+        <v>18.5</v>
       </c>
       <c r="H207" s="2" t="s">
         <v>176</v>
@@ -6475,16 +6475,16 @@
     </row>
     <row r="208" spans="1:8">
       <c r="A208" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="B208" s="2">
-        <v>45992.24747685185</v>
+        <v>45993.39311342593</v>
       </c>
       <c r="C208" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D208" s="2">
-        <v>45992.64570601852</v>
+        <v>45993.46118055555</v>
       </c>
       <c r="E208" s="2" t="s">
         <v>10</v>
@@ -6493,7 +6493,7 @@
         <v>175</v>
       </c>
       <c r="G208" s="2">
-        <v>24.72</v>
+        <v>20</v>
       </c>
       <c r="H208" s="2" t="s">
         <v>176</v>
@@ -6504,13 +6504,13 @@
         <v>179</v>
       </c>
       <c r="B209" s="2">
-        <v>45992.33770833333</v>
+        <v>45992.53841435185</v>
       </c>
       <c r="C209" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D209" s="2">
-        <v>45992.66642361111</v>
+        <v>45992.95521990741</v>
       </c>
       <c r="E209" s="2" t="s">
         <v>10</v>
@@ -6519,7 +6519,7 @@
         <v>175</v>
       </c>
       <c r="G209" s="2">
-        <v>15.25</v>
+        <v>20</v>
       </c>
       <c r="H209" s="2" t="s">
         <v>176</v>
@@ -6527,25 +6527,25 @@
     </row>
     <row r="210" spans="1:8">
       <c r="A210" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B210" s="2">
-        <v>45992.33333333334</v>
+        <v>45993.5</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="D210" s="2">
-        <v>45992.33333333334</v>
+        <v>45993.5</v>
       </c>
       <c r="E210" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="F210" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G210" s="2">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H210" s="2" t="s">
         <v>176</v>
@@ -6553,16 +6553,16 @@
     </row>
     <row r="211" spans="1:8">
       <c r="A211" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B211" s="2">
-        <v>45993.62984953704</v>
+        <v>45993.29008101852</v>
       </c>
       <c r="C211" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D211" s="2">
-        <v>45993.95290509259</v>
+        <v>45993.58872685185</v>
       </c>
       <c r="E211" s="2" t="s">
         <v>10</v>
@@ -6571,7 +6571,7 @@
         <v>175</v>
       </c>
       <c r="G211" s="2">
-        <v>17.25</v>
+        <v>16.5</v>
       </c>
       <c r="H211" s="2" t="s">
         <v>176</v>
@@ -6579,16 +6579,16 @@
     </row>
     <row r="212" spans="1:8">
       <c r="A212" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B212" s="2">
-        <v>45993.95416666667</v>
+        <v>45993.62380787037</v>
       </c>
       <c r="C212" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D212" s="2">
-        <v>45994.29306712963</v>
+        <v>45993.95444444445</v>
       </c>
       <c r="E212" s="2" t="s">
         <v>10</v>
@@ -6597,7 +6597,7 @@
         <v>175</v>
       </c>
       <c r="G212" s="2">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="H212" s="2" t="s">
         <v>176</v>
@@ -6605,16 +6605,16 @@
     </row>
     <row r="213" spans="1:8">
       <c r="A213" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B213" s="2">
-        <v>45992.9528587963</v>
+        <v>45992.62354166667</v>
       </c>
       <c r="C213" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D213" s="2">
-        <v>45993.29563657408</v>
+        <v>45992.85416666666</v>
       </c>
       <c r="E213" s="2" t="s">
         <v>10</v>
@@ -6623,7 +6623,7 @@
         <v>175</v>
       </c>
       <c r="G213" s="2">
-        <v>18.5</v>
+        <v>16.5</v>
       </c>
       <c r="H213" s="2" t="s">
         <v>176</v>
@@ -6631,16 +6631,16 @@
     </row>
     <row r="214" spans="1:8">
       <c r="A214" s="2" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
       <c r="B214" s="2">
-        <v>45993.62380787037</v>
+        <v>45992.33770833333</v>
       </c>
       <c r="C214" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D214" s="2">
-        <v>45993.95444444445</v>
+        <v>45992.66642361111</v>
       </c>
       <c r="E214" s="2" t="s">
         <v>10</v>
@@ -6649,7 +6649,7 @@
         <v>175</v>
       </c>
       <c r="G214" s="2">
-        <v>16.5</v>
+        <v>15.25</v>
       </c>
       <c r="H214" s="2" t="s">
         <v>176</v>
@@ -6657,25 +6657,25 @@
     </row>
     <row r="215" spans="1:8">
       <c r="A215" s="2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B215" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.62984953704</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D215" s="2">
-        <v>45993.33333333334</v>
+        <v>45993.95290509259</v>
       </c>
       <c r="E215" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F215" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G215" s="2">
-        <v>16</v>
+        <v>17.25</v>
       </c>
       <c r="H215" s="2" t="s">
         <v>176</v>
@@ -6683,25 +6683,25 @@
     </row>
     <row r="216" spans="1:8">
       <c r="A216" s="2" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B216" s="2">
-        <v>45993.29008101852</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D216" s="2">
-        <v>45993.58872685185</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="E216" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F216" s="2" t="s">
         <v>175</v>
       </c>
       <c r="G216" s="2">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="H216" s="2" t="s">
         <v>176</v>
@@ -6712,13 +6712,13 @@
         <v>184</v>
       </c>
       <c r="B217" s="2">
-        <v>45993.47619212963</v>
+        <v>45992.39903935185</v>
       </c>
       <c r="C217" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D217" s="2">
-        <v>45993.66888888889</v>
+        <v>45992.78083333333</v>
       </c>
       <c r="E217" s="2" t="s">
         <v>10</v>
@@ -6735,16 +6735,16 @@
     </row>
     <row r="218" spans="1:8">
       <c r="A218" s="2" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B218" s="2">
-        <v>45992.39877314815</v>
+        <v>45993.30981481481</v>
       </c>
       <c r="C218" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D218" s="2">
-        <v>45992.78104166667</v>
+        <v>45993.67152777778</v>
       </c>
       <c r="E218" s="2" t="s">
         <v>10</v>
@@ -6753,7 +6753,7 @@
         <v>185</v>
       </c>
       <c r="G218" s="2">
-        <v>16.61</v>
+        <v>16</v>
       </c>
       <c r="H218" s="2" t="s">
         <v>186</v>
@@ -6761,16 +6761,16 @@
     </row>
     <row r="219" spans="1:8">
       <c r="A219" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B219" s="2">
-        <v>45993.40340277777</v>
+        <v>45993.33015046296</v>
       </c>
       <c r="C219" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D219" s="2">
-        <v>45993.67043981481</v>
+        <v>45993.49803240741</v>
       </c>
       <c r="E219" s="2" t="s">
         <v>10</v>
@@ -6779,7 +6779,7 @@
         <v>185</v>
       </c>
       <c r="G219" s="2">
-        <v>16.61</v>
+        <v>14.5</v>
       </c>
       <c r="H219" s="2" t="s">
         <v>186</v>
@@ -6787,16 +6787,16 @@
     </row>
     <row r="220" spans="1:8">
       <c r="A220" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B220" s="2">
-        <v>45992.39903935185</v>
+        <v>45993.40340277777</v>
       </c>
       <c r="C220" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D220" s="2">
-        <v>45992.78083333333</v>
+        <v>45993.67043981481</v>
       </c>
       <c r="E220" s="2" t="s">
         <v>10</v>
@@ -6813,16 +6813,16 @@
     </row>
     <row r="221" spans="1:8">
       <c r="A221" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B221" s="2">
-        <v>45993.33015046296</v>
+        <v>45992.39877314815</v>
       </c>
       <c r="C221" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D221" s="2">
-        <v>45993.49803240741</v>
+        <v>45992.78104166667</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>10</v>
@@ -6831,7 +6831,7 @@
         <v>185</v>
       </c>
       <c r="G221" s="2">
-        <v>14.5</v>
+        <v>16.61</v>
       </c>
       <c r="H221" s="2" t="s">
         <v>186</v>
@@ -6842,13 +6842,13 @@
         <v>189</v>
       </c>
       <c r="B222" s="2">
-        <v>45993.30981481481</v>
+        <v>45993.47619212963</v>
       </c>
       <c r="C222" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D222" s="2">
-        <v>45993.67152777778</v>
+        <v>45993.66888888889</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>10</v>
@@ -6857,7 +6857,7 @@
         <v>185</v>
       </c>
       <c r="G222" s="2">
-        <v>16</v>
+        <v>16.61</v>
       </c>
       <c r="H222" s="2" t="s">
         <v>186</v>
@@ -6865,7 +6865,7 @@
     </row>
     <row r="223" spans="1:8">
       <c r="A223" s="2" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B223" s="2">
         <v>45992.30857638889</v>
@@ -6920,13 +6920,13 @@
         <v>191</v>
       </c>
       <c r="B225" s="2">
-        <v>45992.35121527778</v>
+        <v>45993.32358796296</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D225" s="2">
-        <v>45992.68732638889</v>
+        <v>45993.68211805556</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>10</v>
@@ -6946,13 +6946,13 @@
         <v>191</v>
       </c>
       <c r="B226" s="2">
-        <v>45993.32358796296</v>
+        <v>45992.35121527778</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D226" s="2">
-        <v>45993.68211805556</v>
+        <v>45992.68732638889</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>10</v>
@@ -6969,52 +6969,52 @@
     </row>
     <row r="227" spans="1:8">
       <c r="A227" s="2" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="B227" s="2">
-        <v>45992.50498842593</v>
+        <v>45992.51815972223</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D227" s="2">
-        <v>45992.67591435185</v>
+        <v>45992.65887731482</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>10</v>
       </c>
       <c r="F227" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G227" s="2">
-        <v>16</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="G227" s="2"/>
       <c r="H227" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="228" spans="1:8">
       <c r="A228" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B228" s="2">
+        <v>45992.50498842593</v>
+      </c>
+      <c r="C228" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D228" s="2">
+        <v>45992.67591435185</v>
+      </c>
+      <c r="E228" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F228" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="G228" s="2">
+        <v>16</v>
+      </c>
+      <c r="H228" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B228" s="2">
-        <v>45992.51815972223</v>
-      </c>
-      <c r="C228" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D228" s="2">
-        <v>45992.65887731482</v>
-      </c>
-      <c r="E228" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F228" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G228" s="2"/>
-      <c r="H228" s="2" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -7025,7 +7025,7 @@
         <v>45992.58616898148</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D229" s="2">
         <v>45992.6752662037</v>
@@ -7034,13 +7034,13 @@
         <v>10</v>
       </c>
       <c r="F229" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="G229" s="2">
         <v>20</v>
       </c>
       <c r="H229" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -7048,13 +7048,13 @@
         <v>198</v>
       </c>
       <c r="B230" s="2">
-        <v>45993.69797453703</v>
+        <v>45992.74037037037</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D230" s="2">
-        <v>45994.08991898148</v>
+        <v>45993.15728009259</v>
       </c>
       <c r="E230" s="2" t="s">
         <v>10</v>
@@ -7063,7 +7063,7 @@
         <v>199</v>
       </c>
       <c r="G230" s="2">
-        <v>18.54</v>
+        <v>16</v>
       </c>
       <c r="H230" s="2" t="s">
         <v>200</v>
@@ -7074,13 +7074,13 @@
         <v>201</v>
       </c>
       <c r="B231" s="2">
-        <v>45992.74037037037</v>
+        <v>45993.69797453703</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D231" s="2">
-        <v>45993.15728009259</v>
+        <v>45994.08991898148</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>10</v>
@@ -7089,7 +7089,7 @@
         <v>199</v>
       </c>
       <c r="G231" s="2">
-        <v>16</v>
+        <v>18.54</v>
       </c>
       <c r="H231" s="2" t="s">
         <v>200</v>
@@ -7100,13 +7100,13 @@
         <v>202</v>
       </c>
       <c r="B232" s="2">
-        <v>45993.33853009259</v>
+        <v>45992.33259259259</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D232" s="2">
-        <v>45993.67113425926</v>
+        <v>45992.62094907407</v>
       </c>
       <c r="E232" s="2" t="s">
         <v>10</v>
@@ -7115,7 +7115,7 @@
         <v>203</v>
       </c>
       <c r="G232" s="2">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H232" s="2" t="s">
         <v>204</v>
@@ -7123,16 +7123,16 @@
     </row>
     <row r="233" spans="1:8">
       <c r="A233" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="B233" s="2">
-        <v>45992.34165509259</v>
+        <v>45992.32921296296</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D233" s="2">
-        <v>45992.66502314815</v>
+        <v>45992.74585648148</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>10</v>
@@ -7141,7 +7141,7 @@
         <v>203</v>
       </c>
       <c r="G233" s="2">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H233" s="2" t="s">
         <v>204</v>
@@ -7149,7 +7149,7 @@
     </row>
     <row r="234" spans="1:8">
       <c r="A234" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B234" s="2">
         <v>45992.33006944445</v>
@@ -7175,16 +7175,16 @@
     </row>
     <row r="235" spans="1:8">
       <c r="A235" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B235" s="2">
-        <v>45992.32921296296</v>
+        <v>45992.34165509259</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D235" s="2">
-        <v>45992.74585648148</v>
+        <v>45992.66502314815</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>10</v>
@@ -7193,7 +7193,7 @@
         <v>203</v>
       </c>
       <c r="G235" s="2">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="H235" s="2" t="s">
         <v>204</v>
@@ -7204,13 +7204,13 @@
         <v>207</v>
       </c>
       <c r="B236" s="2">
-        <v>45993.34314814815</v>
+        <v>45993.33853009259</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D236" s="2">
-        <v>45993.66737268519</v>
+        <v>45993.67113425926</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>10</v>
@@ -7219,7 +7219,7 @@
         <v>203</v>
       </c>
       <c r="G236" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="H236" s="2" t="s">
         <v>204</v>
@@ -7227,16 +7227,16 @@
     </row>
     <row r="237" spans="1:8">
       <c r="A237" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B237" s="2">
-        <v>45992.33259259259</v>
+        <v>45992.34174768518</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D237" s="2">
-        <v>45992.62094907407</v>
+        <v>45992.67616898148</v>
       </c>
       <c r="E237" s="2" t="s">
         <v>10</v>
@@ -7245,7 +7245,7 @@
         <v>203</v>
       </c>
       <c r="G237" s="2">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H237" s="2" t="s">
         <v>204</v>
@@ -7253,16 +7253,16 @@
     </row>
     <row r="238" spans="1:8">
       <c r="A238" s="2" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="B238" s="2">
-        <v>45992.34174768518</v>
+        <v>45993.34314814815</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D238" s="2">
-        <v>45992.67616898148</v>
+        <v>45993.66737268519</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>10</v>
@@ -7271,7 +7271,7 @@
         <v>203</v>
       </c>
       <c r="G238" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="H238" s="2" t="s">
         <v>204</v>
@@ -7308,22 +7308,22 @@
         <v>209</v>
       </c>
       <c r="B240" s="2">
-        <v>45993.33489583333</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D240" s="2">
-        <v>45993.46734953704</v>
+        <v>45992.33333333334</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F240" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G240" s="2">
-        <v>15</v>
+        <v>18.5</v>
       </c>
       <c r="H240" s="2" t="s">
         <v>211</v>
@@ -7331,26 +7331,24 @@
     </row>
     <row r="241" spans="1:8">
       <c r="A241" s="2" t="s">
-        <v>212</v>
+        <v>194</v>
       </c>
       <c r="B241" s="2">
-        <v>45993.33784722222</v>
+        <v>45992.33572916667</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D241" s="2">
-        <v>45993.5262037037</v>
+        <v>45992.49737268518</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F241" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G241" s="2">
-        <v>20.5</v>
-      </c>
+      <c r="G241" s="2"/>
       <c r="H241" s="2" t="s">
         <v>211</v>
       </c>
@@ -7360,13 +7358,13 @@
         <v>212</v>
       </c>
       <c r="B242" s="2">
-        <v>45993.54539351852</v>
+        <v>45993.33489583333</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D242" s="2">
-        <v>45993.69030092593</v>
+        <v>45993.46734953704</v>
       </c>
       <c r="E242" s="2" t="s">
         <v>10</v>
@@ -7375,7 +7373,7 @@
         <v>210</v>
       </c>
       <c r="G242" s="2">
-        <v>20.5</v>
+        <v>15</v>
       </c>
       <c r="H242" s="2" t="s">
         <v>211</v>
@@ -7386,22 +7384,22 @@
         <v>213</v>
       </c>
       <c r="B243" s="2">
-        <v>45992.5</v>
+        <v>45993.32947916666</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D243" s="2">
-        <v>45992.625</v>
+        <v>45993.51585648148</v>
       </c>
       <c r="E243" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F243" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G243" s="2">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="H243" s="2" t="s">
         <v>211</v>
@@ -7409,25 +7407,25 @@
     </row>
     <row r="244" spans="1:8">
       <c r="A244" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B244" s="2">
-        <v>45992.29172453703</v>
+        <v>45993.54071759259</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D244" s="2">
-        <v>45992.5741087963</v>
+        <v>45993.69123842593</v>
       </c>
       <c r="E244" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F244" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G244" s="2">
-        <v>20.5</v>
+        <v>17</v>
       </c>
       <c r="H244" s="2" t="s">
         <v>211</v>
@@ -7435,51 +7433,49 @@
     </row>
     <row r="245" spans="1:8">
       <c r="A245" s="2" t="s">
-        <v>214</v>
+        <v>194</v>
       </c>
       <c r="B245" s="2">
-        <v>45993.32947916666</v>
+        <v>45993.33071759259</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D245" s="2">
-        <v>45993.51585648148</v>
+        <v>45993.5552662037</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F245" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G245" s="2">
-        <v>17</v>
-      </c>
+      <c r="G245" s="2"/>
       <c r="H245" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="246" spans="1:8">
       <c r="A246" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B246" s="2">
-        <v>45992.26368055555</v>
+        <v>45992.32515046297</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D246" s="2">
-        <v>45992.48032407407</v>
+        <v>45992.55366898148</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F246" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G246" s="2">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="H246" s="2" t="s">
         <v>211</v>
@@ -7487,25 +7483,25 @@
     </row>
     <row r="247" spans="1:8">
       <c r="A247" s="2" t="s">
-        <v>197</v>
+        <v>105</v>
       </c>
       <c r="B247" s="2">
-        <v>45992.29037037037</v>
+        <v>45993.33440972222</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D247" s="2">
-        <v>45992.55635416666</v>
+        <v>45993.49506944444</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F247" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G247" s="2">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="H247" s="2" t="s">
         <v>211</v>
@@ -7516,22 +7512,22 @@
         <v>215</v>
       </c>
       <c r="B248" s="2">
-        <v>45993.33415509259</v>
+        <v>45993.33784722222</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D248" s="2">
-        <v>45993.52702546296</v>
+        <v>45993.5262037037</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F248" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G248" s="2">
-        <v>18</v>
+        <v>20.5</v>
       </c>
       <c r="H248" s="2" t="s">
         <v>211</v>
@@ -7539,25 +7535,25 @@
     </row>
     <row r="249" spans="1:8">
       <c r="A249" s="2" t="s">
-        <v>215</v>
+        <v>105</v>
       </c>
       <c r="B249" s="2">
-        <v>45992.3484375</v>
+        <v>45992.33586805555</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D249" s="2">
-        <v>45992.49106481481</v>
+        <v>45992.50078703704</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F249" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G249" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H249" s="2" t="s">
         <v>211</v>
@@ -7565,25 +7561,25 @@
     </row>
     <row r="250" spans="1:8">
       <c r="A250" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B250" s="2">
-        <v>45993.33333333334</v>
+        <v>45992.29172453703</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D250" s="2">
-        <v>45993.33333333334</v>
+        <v>45992.5741087963</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="F250" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G250" s="2">
-        <v>18.5</v>
+        <v>20.5</v>
       </c>
       <c r="H250" s="2" t="s">
         <v>211</v>
@@ -7594,22 +7590,22 @@
         <v>216</v>
       </c>
       <c r="B251" s="2">
-        <v>45992.33333333334</v>
+        <v>45992.5</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="D251" s="2">
-        <v>45992.33333333334</v>
+        <v>45992.625</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F251" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G251" s="2">
-        <v>18.5</v>
+        <v>24</v>
       </c>
       <c r="H251" s="2" t="s">
         <v>211</v>
@@ -7617,25 +7613,25 @@
     </row>
     <row r="252" spans="1:8">
       <c r="A252" s="2" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="B252" s="2">
-        <v>45992.59509259259</v>
+        <v>45992.26368055555</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D252" s="2">
-        <v>45992.69358796296</v>
+        <v>45992.48032407407</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F252" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G252" s="2">
-        <v>20.5</v>
+        <v>24</v>
       </c>
       <c r="H252" s="2" t="s">
         <v>211</v>
@@ -7643,25 +7639,25 @@
     </row>
     <row r="253" spans="1:8">
       <c r="A253" s="2" t="s">
-        <v>214</v>
+        <v>197</v>
       </c>
       <c r="B253" s="2">
-        <v>45993.54071759259</v>
+        <v>45992.29037037037</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D253" s="2">
-        <v>45993.69123842593</v>
+        <v>45992.55635416666</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F253" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G253" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H253" s="2" t="s">
         <v>211</v>
@@ -7669,25 +7665,25 @@
     </row>
     <row r="254" spans="1:8">
       <c r="A254" s="2" t="s">
-        <v>100</v>
+        <v>217</v>
       </c>
       <c r="B254" s="2">
-        <v>45992.33586805555</v>
+        <v>45993.33415509259</v>
       </c>
       <c r="C254" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D254" s="2">
-        <v>45992.50078703704</v>
+        <v>45993.52702546296</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F254" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G254" s="2">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H254" s="2" t="s">
         <v>211</v>
@@ -7695,73 +7691,77 @@
     </row>
     <row r="255" spans="1:8">
       <c r="A255" s="2" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="B255" s="2">
-        <v>45992.33572916667</v>
+        <v>45992.3484375</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D255" s="2">
-        <v>45992.49737268518</v>
+        <v>45992.49106481481</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F255" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G255" s="2"/>
+      <c r="G255" s="2">
+        <v>18</v>
+      </c>
       <c r="H255" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="256" spans="1:8">
       <c r="A256" s="2" t="s">
-        <v>196</v>
+        <v>209</v>
       </c>
       <c r="B256" s="2">
-        <v>45993.33071759259</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D256" s="2">
-        <v>45993.5552662037</v>
+        <v>45993.33333333334</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F256" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G256" s="2"/>
+      <c r="G256" s="2">
+        <v>18.5</v>
+      </c>
       <c r="H256" s="2" t="s">
         <v>211</v>
       </c>
     </row>
     <row r="257" spans="1:8">
       <c r="A257" s="2" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="B257" s="2">
-        <v>45993.33440972222</v>
+        <v>45992.59509259259</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D257" s="2">
-        <v>45993.49506944444</v>
+        <v>45992.69358796296</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F257" s="2" t="s">
         <v>210</v>
       </c>
       <c r="G257" s="2">
-        <v>16</v>
+        <v>20.5</v>
       </c>
       <c r="H257" s="2" t="s">
         <v>211</v>
@@ -7769,16 +7769,16 @@
     </row>
     <row r="258" spans="1:8">
       <c r="A258" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B258" s="2">
-        <v>45992.32515046297</v>
+        <v>45993.54539351852</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D258" s="2">
-        <v>45992.55366898148</v>
+        <v>45993.69030092593</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>10</v>
@@ -7787,7 +7787,7 @@
         <v>210</v>
       </c>
       <c r="G258" s="2">
-        <v>16</v>
+        <v>20.5</v>
       </c>
       <c r="H258" s="2" t="s">
         <v>211</v>
@@ -7824,13 +7824,13 @@
         <v>221</v>
       </c>
       <c r="B260" s="2">
-        <v>45992.55232638889</v>
+        <v>45992.55216435185</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D260" s="2">
-        <v>45992.76518518518</v>
+        <v>45992.76539351852</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>10</v>
@@ -7839,7 +7839,7 @@
         <v>222</v>
       </c>
       <c r="G260" s="2">
-        <v>17.5</v>
+        <v>23</v>
       </c>
       <c r="H260" s="2" t="s">
         <v>223</v>
@@ -7847,25 +7847,25 @@
     </row>
     <row r="261" spans="1:8">
       <c r="A261" s="2" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B261" s="2">
-        <v>45992.27319444445</v>
+        <v>45993.58417824074</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D261" s="2">
-        <v>45992.53025462963</v>
+        <v>45993.77274305555</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F261" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G261" s="2">
-        <v>17.5</v>
+        <v>17.72</v>
       </c>
       <c r="H261" s="2" t="s">
         <v>223</v>
@@ -7873,25 +7873,25 @@
     </row>
     <row r="262" spans="1:8">
       <c r="A262" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B262" s="2">
-        <v>45993.27287037037</v>
+        <v>45992.27461805556</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D262" s="2">
-        <v>45993.5634375</v>
+        <v>45992.53001157408</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F262" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G262" s="2">
-        <v>17.72</v>
+        <v>23</v>
       </c>
       <c r="H262" s="2" t="s">
         <v>223</v>
@@ -7899,25 +7899,25 @@
     </row>
     <row r="263" spans="1:8">
       <c r="A263" s="2" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B263" s="2">
-        <v>45993.58417824074</v>
+        <v>45993.33430555555</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D263" s="2">
-        <v>45993.77274305555</v>
+        <v>45993.53699074074</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F263" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G263" s="2">
-        <v>17.72</v>
+        <v>23</v>
       </c>
       <c r="H263" s="2" t="s">
         <v>223</v>
@@ -7925,19 +7925,19 @@
     </row>
     <row r="264" spans="1:8">
       <c r="A264" s="2" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="B264" s="2">
-        <v>45993.33430555555</v>
+        <v>45993.55827546296</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D264" s="2">
-        <v>45993.53699074074</v>
+        <v>45993.71579861111</v>
       </c>
       <c r="E264" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F264" s="2" t="s">
         <v>222</v>
@@ -7954,22 +7954,22 @@
         <v>225</v>
       </c>
       <c r="B265" s="2">
-        <v>45992.55216435185</v>
+        <v>45992.27319444445</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D265" s="2">
-        <v>45992.76539351852</v>
+        <v>45992.53025462963</v>
       </c>
       <c r="E265" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F265" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G265" s="2">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="H265" s="2" t="s">
         <v>223</v>
@@ -7980,22 +7980,22 @@
         <v>225</v>
       </c>
       <c r="B266" s="2">
-        <v>45992.27461805556</v>
+        <v>45992.55232638889</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="D266" s="2">
-        <v>45992.53001157408</v>
+        <v>45992.76518518518</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>91</v>
+        <v>10</v>
       </c>
       <c r="F266" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G266" s="2">
-        <v>23</v>
+        <v>17.5</v>
       </c>
       <c r="H266" s="2" t="s">
         <v>223</v>
@@ -8003,25 +8003,25 @@
     </row>
     <row r="267" spans="1:8">
       <c r="A267" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B267" s="2">
-        <v>45993.55827546296</v>
+        <v>45993.27287037037</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D267" s="2">
-        <v>45993.71579861111</v>
+        <v>45993.5634375</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>10</v>
+        <v>87</v>
       </c>
       <c r="F267" s="2" t="s">
         <v>222</v>
       </c>
       <c r="G267" s="2">
-        <v>23</v>
+        <v>17.72</v>
       </c>
       <c r="H267" s="2" t="s">
         <v>223</v>
@@ -8058,13 +8058,13 @@
         <v>229</v>
       </c>
       <c r="B269" s="2">
-        <v>45992.17318287037</v>
+        <v>45992.34172453704</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D269" s="2">
-        <v>45992.29707175926</v>
+        <v>45992.6603587963</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>10</v>
@@ -8073,7 +8073,7 @@
         <v>227</v>
       </c>
       <c r="G269" s="2">
-        <v>15</v>
+        <v>19.5</v>
       </c>
       <c r="H269" s="2" t="s">
         <v>228</v>
@@ -8081,7 +8081,7 @@
     </row>
     <row r="270" spans="1:8">
       <c r="A270" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B270" s="2">
         <v>45993.31112268518</v>
@@ -8110,13 +8110,13 @@
         <v>230</v>
       </c>
       <c r="B271" s="2">
-        <v>45992.34172453704</v>
+        <v>45992.17318287037</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D271" s="2">
-        <v>45992.6603587963</v>
+        <v>45992.29707175926</v>
       </c>
       <c r="E271" s="2" t="s">
         <v>10</v>
@@ -8125,7 +8125,7 @@
         <v>227</v>
       </c>
       <c r="G271" s="2">
-        <v>19.5</v>
+        <v>15</v>
       </c>
       <c r="H271" s="2" t="s">
         <v>228</v>
@@ -8162,13 +8162,13 @@
         <v>231</v>
       </c>
       <c r="B273" s="2">
-        <v>45992.36092592592</v>
+        <v>45992.33524305555</v>
       </c>
       <c r="C273" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D273" s="2">
-        <v>45992.70349537037</v>
+        <v>45992.69309027777</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>10</v>
@@ -8177,7 +8177,7 @@
         <v>232</v>
       </c>
       <c r="G273" s="2">
-        <v>23.27</v>
+        <v>20</v>
       </c>
       <c r="H273" s="2" t="s">
         <v>233</v>
@@ -8188,13 +8188,13 @@
         <v>234</v>
       </c>
       <c r="B274" s="2">
-        <v>45992.33524305555</v>
+        <v>45992.36092592592</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D274" s="2">
-        <v>45992.69309027777</v>
+        <v>45992.70349537037</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>10</v>
@@ -8203,7 +8203,7 @@
         <v>232</v>
       </c>
       <c r="G274" s="2">
-        <v>20</v>
+        <v>23.27</v>
       </c>
       <c r="H274" s="2" t="s">
         <v>233</v>
@@ -8214,13 +8214,13 @@
         <v>235</v>
       </c>
       <c r="B275" s="2">
-        <v>45993.53115740741</v>
+        <v>45993.36427083334</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D275" s="2">
-        <v>45993.61241898148</v>
+        <v>45993.7037037037</v>
       </c>
       <c r="E275" s="2" t="s">
         <v>10</v>
@@ -8229,10 +8229,10 @@
         <v>236</v>
       </c>
       <c r="G275" s="2">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -8258,7 +8258,7 @@
         <v>16</v>
       </c>
       <c r="H276" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -8284,18 +8284,18 @@
         <v>16</v>
       </c>
       <c r="H277" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="278" spans="1:8">
       <c r="A278" s="2" t="s">
-        <v>90</v>
+        <v>114</v>
       </c>
       <c r="B278" s="2">
         <v>45993.55390046296</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D278" s="2">
         <v>45993.68125</v>
@@ -8310,12 +8310,12 @@
         <v>16</v>
       </c>
       <c r="H278" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="279" spans="1:8">
       <c r="A279" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B279" s="2">
         <v>45992.29229166666</v>
@@ -8336,12 +8336,12 @@
         <v>18</v>
       </c>
       <c r="H279" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="280" spans="1:8">
       <c r="A280" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B280" s="2">
         <v>45992.52555555556</v>
@@ -8362,12 +8362,12 @@
         <v>18</v>
       </c>
       <c r="H280" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="281" spans="1:8">
       <c r="A281" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="B281" s="2">
         <v>45993.2841550926</v>
@@ -8388,7 +8388,7 @@
         <v>18</v>
       </c>
       <c r="H281" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -8396,13 +8396,13 @@
         <v>238</v>
       </c>
       <c r="B282" s="2">
-        <v>45993.36427083334</v>
+        <v>45993.53115740741</v>
       </c>
       <c r="C282" s="2" t="s">
         <v>9</v>
       </c>
       <c r="D282" s="2">
-        <v>45993.7037037037</v>
+        <v>45993.61241898148</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>10</v>
@@ -8411,10 +8411,10 @@
         <v>236</v>
       </c>
       <c r="G282" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H282" s="2" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
     </row>
     <row r="283" spans="1:8">
